--- a/helper for heart data.xlsx
+++ b/helper for heart data.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:P304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>50000</v>
       </c>
       <c r="P5">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>100000</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>150000</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>400000</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -720,13 +720,6 @@
       </c>
       <c r="M10">
         <v>1</v>
-      </c>
-      <c r="O10">
-        <v>156000</v>
-      </c>
-      <c r="P10">
-        <f>VLOOKUP(O10,O4:P8,2)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -12793,7 +12786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
       <selection sqref="A1:L300"/>
     </sheetView>
   </sheetViews>
@@ -12874,15 +12867,15 @@
       </c>
       <c r="G2">
         <f>VLOOKUP(Folha1!G6,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f>IF(J2=0,IF(Folha1!H6&lt;0.6,-1,IF(Folha1!H6&gt;1.1,1,0)),IF(Folha1!H6&lt;0.7,-1,IF(Folha1!H6&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J2=0,IF(Folha1!H6&lt;0.6,0,IF(Folha1!H6&gt;1.1,2,1)),IF(Folha1!H6&lt;0.7,0,IF(Folha1!H6&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I2">
-        <f>IF(Folha1!I6&lt;135,-1,IF(Folha1!I6&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I6&lt;135,0,IF(Folha1!I6&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>Folha1!J6</f>
@@ -12924,15 +12917,15 @@
       </c>
       <c r="G3">
         <f>VLOOKUP(Folha1!G7,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <f>IF(J3=0,IF(Folha1!H7&lt;0.6,-1,IF(Folha1!H7&gt;1.1,1,0)),IF(Folha1!H7&lt;0.7,-1,IF(Folha1!H7&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J3=0,IF(Folha1!H7&lt;0.6,0,IF(Folha1!H7&gt;1.1,2,1)),IF(Folha1!H7&lt;0.7,0,IF(Folha1!H7&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I3">
-        <f>IF(Folha1!I7&lt;135,-1,IF(Folha1!I7&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I7&lt;135,0,IF(Folha1!I7&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J3">
         <f>Folha1!J7</f>
@@ -12974,15 +12967,15 @@
       </c>
       <c r="G4">
         <f>VLOOKUP(Folha1!G8,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f>IF(J4=0,IF(Folha1!H8&lt;0.6,-1,IF(Folha1!H8&gt;1.1,1,0)),IF(Folha1!H8&lt;0.7,-1,IF(Folha1!H8&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J4=0,IF(Folha1!H8&lt;0.6,0,IF(Folha1!H8&gt;1.1,2,1)),IF(Folha1!H8&lt;0.7,0,IF(Folha1!H8&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I4">
-        <f>IF(Folha1!I8&lt;135,-1,IF(Folha1!I8&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I8&lt;135,0,IF(Folha1!I8&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>Folha1!J8</f>
@@ -13024,15 +13017,15 @@
       </c>
       <c r="G5">
         <f>VLOOKUP(Folha1!G9,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <f>IF(J5=0,IF(Folha1!H9&lt;0.6,-1,IF(Folha1!H9&gt;1.1,1,0)),IF(Folha1!H9&lt;0.7,-1,IF(Folha1!H9&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J5=0,IF(Folha1!H9&lt;0.6,0,IF(Folha1!H9&gt;1.1,2,1)),IF(Folha1!H9&lt;0.7,0,IF(Folha1!H9&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I5">
-        <f>IF(Folha1!I9&lt;135,-1,IF(Folha1!I9&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I9&lt;135,0,IF(Folha1!I9&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>Folha1!J9</f>
@@ -13074,15 +13067,15 @@
       </c>
       <c r="G6">
         <f>VLOOKUP(Folha1!G10,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f>IF(J6=0,IF(Folha1!H10&lt;0.6,-1,IF(Folha1!H10&gt;1.1,1,0)),IF(Folha1!H10&lt;0.7,-1,IF(Folha1!H10&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J6=0,IF(Folha1!H10&lt;0.6,0,IF(Folha1!H10&gt;1.1,2,1)),IF(Folha1!H10&lt;0.7,0,IF(Folha1!H10&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I6">
-        <f>IF(Folha1!I10&lt;135,-1,IF(Folha1!I10&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I10&lt;135,0,IF(Folha1!I10&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>Folha1!J10</f>
@@ -13124,15 +13117,15 @@
       </c>
       <c r="G7">
         <f>VLOOKUP(Folha1!G11,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f>IF(J7=0,IF(Folha1!H11&lt;0.6,-1,IF(Folha1!H11&gt;1.1,1,0)),IF(Folha1!H11&lt;0.7,-1,IF(Folha1!H11&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J7=0,IF(Folha1!H11&lt;0.6,0,IF(Folha1!H11&gt;1.1,2,1)),IF(Folha1!H11&lt;0.7,0,IF(Folha1!H11&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I7">
-        <f>IF(Folha1!I11&lt;135,-1,IF(Folha1!I11&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I11&lt;135,0,IF(Folha1!I11&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J7">
         <f>Folha1!J11</f>
@@ -13174,15 +13167,15 @@
       </c>
       <c r="G8">
         <f>VLOOKUP(Folha1!G12,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <f>IF(J8=0,IF(Folha1!H12&lt;0.6,-1,IF(Folha1!H12&gt;1.1,1,0)),IF(Folha1!H12&lt;0.7,-1,IF(Folha1!H12&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J8=0,IF(Folha1!H12&lt;0.6,0,IF(Folha1!H12&gt;1.1,2,1)),IF(Folha1!H12&lt;0.7,0,IF(Folha1!H12&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I8">
-        <f>IF(Folha1!I12&lt;135,-1,IF(Folha1!I12&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I12&lt;135,0,IF(Folha1!I12&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J8">
         <f>Folha1!J12</f>
@@ -13224,15 +13217,15 @@
       </c>
       <c r="G9">
         <f>VLOOKUP(Folha1!G13,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f>IF(J9=0,IF(Folha1!H13&lt;0.6,-1,IF(Folha1!H13&gt;1.1,1,0)),IF(Folha1!H13&lt;0.7,-1,IF(Folha1!H13&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J9=0,IF(Folha1!H13&lt;0.6,0,IF(Folha1!H13&gt;1.1,2,1)),IF(Folha1!H13&lt;0.7,0,IF(Folha1!H13&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I9">
-        <f>IF(Folha1!I13&lt;135,-1,IF(Folha1!I13&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I13&lt;135,0,IF(Folha1!I13&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J9">
         <f>Folha1!J13</f>
@@ -13274,15 +13267,15 @@
       </c>
       <c r="G10">
         <f>VLOOKUP(Folha1!G14,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <f>IF(J10=0,IF(Folha1!H14&lt;0.6,-1,IF(Folha1!H14&gt;1.1,1,0)),IF(Folha1!H14&lt;0.7,-1,IF(Folha1!H14&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J10=0,IF(Folha1!H14&lt;0.6,0,IF(Folha1!H14&gt;1.1,2,1)),IF(Folha1!H14&lt;0.7,0,IF(Folha1!H14&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I10">
-        <f>IF(Folha1!I14&lt;135,-1,IF(Folha1!I14&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I14&lt;135,0,IF(Folha1!I14&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J10">
         <f>Folha1!J14</f>
@@ -13324,15 +13317,15 @@
       </c>
       <c r="G11">
         <f>VLOOKUP(Folha1!G15,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <f>IF(J11=0,IF(Folha1!H15&lt;0.6,-1,IF(Folha1!H15&gt;1.1,1,0)),IF(Folha1!H15&lt;0.7,-1,IF(Folha1!H15&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J11=0,IF(Folha1!H15&lt;0.6,0,IF(Folha1!H15&gt;1.1,2,1)),IF(Folha1!H15&lt;0.7,0,IF(Folha1!H15&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f>IF(Folha1!I15&lt;135,-1,IF(Folha1!I15&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I15&lt;135,0,IF(Folha1!I15&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J11">
         <f>Folha1!J15</f>
@@ -13374,15 +13367,15 @@
       </c>
       <c r="G12">
         <f>VLOOKUP(Folha1!G16,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <f>IF(J12=0,IF(Folha1!H16&lt;0.6,-1,IF(Folha1!H16&gt;1.1,1,0)),IF(Folha1!H16&lt;0.7,-1,IF(Folha1!H16&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J12=0,IF(Folha1!H16&lt;0.6,0,IF(Folha1!H16&gt;1.1,2,1)),IF(Folha1!H16&lt;0.7,0,IF(Folha1!H16&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I12">
-        <f>IF(Folha1!I16&lt;135,-1,IF(Folha1!I16&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I16&lt;135,0,IF(Folha1!I16&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>Folha1!J16</f>
@@ -13424,15 +13417,15 @@
       </c>
       <c r="G13">
         <f>VLOOKUP(Folha1!G17,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f>IF(J13=0,IF(Folha1!H17&lt;0.6,-1,IF(Folha1!H17&gt;1.1,1,0)),IF(Folha1!H17&lt;0.7,-1,IF(Folha1!H17&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J13=0,IF(Folha1!H17&lt;0.6,0,IF(Folha1!H17&gt;1.1,2,1)),IF(Folha1!H17&lt;0.7,0,IF(Folha1!H17&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I13">
-        <f>IF(Folha1!I17&lt;135,-1,IF(Folha1!I17&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I17&lt;135,0,IF(Folha1!I17&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J13">
         <f>Folha1!J17</f>
@@ -13474,15 +13467,15 @@
       </c>
       <c r="G14">
         <f>VLOOKUP(Folha1!G18,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <f>IF(J14=0,IF(Folha1!H18&lt;0.6,-1,IF(Folha1!H18&gt;1.1,1,0)),IF(Folha1!H18&lt;0.7,-1,IF(Folha1!H18&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J14=0,IF(Folha1!H18&lt;0.6,0,IF(Folha1!H18&gt;1.1,2,1)),IF(Folha1!H18&lt;0.7,0,IF(Folha1!H18&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I14">
-        <f>IF(Folha1!I18&lt;135,-1,IF(Folha1!I18&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I18&lt;135,0,IF(Folha1!I18&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J14">
         <f>Folha1!J18</f>
@@ -13524,15 +13517,15 @@
       </c>
       <c r="G15">
         <f>VLOOKUP(Folha1!G19,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <f>IF(J15=0,IF(Folha1!H19&lt;0.6,-1,IF(Folha1!H19&gt;1.1,1,0)),IF(Folha1!H19&lt;0.7,-1,IF(Folha1!H19&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J15=0,IF(Folha1!H19&lt;0.6,0,IF(Folha1!H19&gt;1.1,2,1)),IF(Folha1!H19&lt;0.7,0,IF(Folha1!H19&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I15">
-        <f>IF(Folha1!I19&lt;135,-1,IF(Folha1!I19&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I19&lt;135,0,IF(Folha1!I19&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J15">
         <f>Folha1!J19</f>
@@ -13574,15 +13567,15 @@
       </c>
       <c r="G16">
         <f>VLOOKUP(Folha1!G20,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f>IF(J16=0,IF(Folha1!H20&lt;0.6,-1,IF(Folha1!H20&gt;1.1,1,0)),IF(Folha1!H20&lt;0.7,-1,IF(Folha1!H20&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J16=0,IF(Folha1!H20&lt;0.6,0,IF(Folha1!H20&gt;1.1,2,1)),IF(Folha1!H20&lt;0.7,0,IF(Folha1!H20&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I16">
-        <f>IF(Folha1!I20&lt;135,-1,IF(Folha1!I20&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I20&lt;135,0,IF(Folha1!I20&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J16">
         <f>Folha1!J20</f>
@@ -13624,15 +13617,15 @@
       </c>
       <c r="G17">
         <f>VLOOKUP(Folha1!G21,platelets,2)</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <f>IF(J17=0,IF(Folha1!H21&lt;0.6,-1,IF(Folha1!H21&gt;1.1,1,0)),IF(Folha1!H21&lt;0.7,-1,IF(Folha1!H21&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J17=0,IF(Folha1!H21&lt;0.6,0,IF(Folha1!H21&gt;1.1,2,1)),IF(Folha1!H21&lt;0.7,0,IF(Folha1!H21&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I17">
-        <f>IF(Folha1!I21&lt;135,-1,IF(Folha1!I21&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I21&lt;135,0,IF(Folha1!I21&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J17">
         <f>Folha1!J21</f>
@@ -13674,15 +13667,15 @@
       </c>
       <c r="G18">
         <f>VLOOKUP(Folha1!G22,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <f>IF(J18=0,IF(Folha1!H22&lt;0.6,-1,IF(Folha1!H22&gt;1.1,1,0)),IF(Folha1!H22&lt;0.7,-1,IF(Folha1!H22&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J18=0,IF(Folha1!H22&lt;0.6,0,IF(Folha1!H22&gt;1.1,2,1)),IF(Folha1!H22&lt;0.7,0,IF(Folha1!H22&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I18">
-        <f>IF(Folha1!I22&lt;135,-1,IF(Folha1!I22&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I22&lt;135,0,IF(Folha1!I22&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J18">
         <f>Folha1!J22</f>
@@ -13724,15 +13717,15 @@
       </c>
       <c r="G19">
         <f>VLOOKUP(Folha1!G23,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <f>IF(J19=0,IF(Folha1!H23&lt;0.6,-1,IF(Folha1!H23&gt;1.1,1,0)),IF(Folha1!H23&lt;0.7,-1,IF(Folha1!H23&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J19=0,IF(Folha1!H23&lt;0.6,0,IF(Folha1!H23&gt;1.1,2,1)),IF(Folha1!H23&lt;0.7,0,IF(Folha1!H23&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I19">
-        <f>IF(Folha1!I23&lt;135,-1,IF(Folha1!I23&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I23&lt;135,0,IF(Folha1!I23&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J19">
         <f>Folha1!J23</f>
@@ -13774,15 +13767,15 @@
       </c>
       <c r="G20">
         <f>VLOOKUP(Folha1!G24,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <f>IF(J20=0,IF(Folha1!H24&lt;0.6,-1,IF(Folha1!H24&gt;1.1,1,0)),IF(Folha1!H24&lt;0.7,-1,IF(Folha1!H24&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J20=0,IF(Folha1!H24&lt;0.6,0,IF(Folha1!H24&gt;1.1,2,1)),IF(Folha1!H24&lt;0.7,0,IF(Folha1!H24&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I20">
-        <f>IF(Folha1!I24&lt;135,-1,IF(Folha1!I24&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I24&lt;135,0,IF(Folha1!I24&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J20">
         <f>Folha1!J24</f>
@@ -13824,15 +13817,15 @@
       </c>
       <c r="G21">
         <f>VLOOKUP(Folha1!G25,platelets,2)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <f>IF(J21=0,IF(Folha1!H25&lt;0.6,-1,IF(Folha1!H25&gt;1.1,1,0)),IF(Folha1!H25&lt;0.7,-1,IF(Folha1!H25&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J21=0,IF(Folha1!H25&lt;0.6,0,IF(Folha1!H25&gt;1.1,2,1)),IF(Folha1!H25&lt;0.7,0,IF(Folha1!H25&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I21">
-        <f>IF(Folha1!I25&lt;135,-1,IF(Folha1!I25&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I25&lt;135,0,IF(Folha1!I25&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J21">
         <f>Folha1!J25</f>
@@ -13874,15 +13867,15 @@
       </c>
       <c r="G22">
         <f>VLOOKUP(Folha1!G26,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <f>IF(J22=0,IF(Folha1!H26&lt;0.6,-1,IF(Folha1!H26&gt;1.1,1,0)),IF(Folha1!H26&lt;0.7,-1,IF(Folha1!H26&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J22=0,IF(Folha1!H26&lt;0.6,0,IF(Folha1!H26&gt;1.1,2,1)),IF(Folha1!H26&lt;0.7,0,IF(Folha1!H26&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I22">
-        <f>IF(Folha1!I26&lt;135,-1,IF(Folha1!I26&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I26&lt;135,0,IF(Folha1!I26&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J22">
         <f>Folha1!J26</f>
@@ -13924,15 +13917,15 @@
       </c>
       <c r="G23">
         <f>VLOOKUP(Folha1!G27,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <f>IF(J23=0,IF(Folha1!H27&lt;0.6,-1,IF(Folha1!H27&gt;1.1,1,0)),IF(Folha1!H27&lt;0.7,-1,IF(Folha1!H27&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J23=0,IF(Folha1!H27&lt;0.6,0,IF(Folha1!H27&gt;1.1,2,1)),IF(Folha1!H27&lt;0.7,0,IF(Folha1!H27&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I23">
-        <f>IF(Folha1!I27&lt;135,-1,IF(Folha1!I27&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I27&lt;135,0,IF(Folha1!I27&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>Folha1!J27</f>
@@ -13974,15 +13967,15 @@
       </c>
       <c r="G24">
         <f>VLOOKUP(Folha1!G28,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <f>IF(J24=0,IF(Folha1!H28&lt;0.6,-1,IF(Folha1!H28&gt;1.1,1,0)),IF(Folha1!H28&lt;0.7,-1,IF(Folha1!H28&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J24=0,IF(Folha1!H28&lt;0.6,0,IF(Folha1!H28&gt;1.1,2,1)),IF(Folha1!H28&lt;0.7,0,IF(Folha1!H28&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I24">
-        <f>IF(Folha1!I28&lt;135,-1,IF(Folha1!I28&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I28&lt;135,0,IF(Folha1!I28&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J24">
         <f>Folha1!J28</f>
@@ -14024,15 +14017,15 @@
       </c>
       <c r="G25">
         <f>VLOOKUP(Folha1!G29,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <f>IF(J25=0,IF(Folha1!H29&lt;0.6,-1,IF(Folha1!H29&gt;1.1,1,0)),IF(Folha1!H29&lt;0.7,-1,IF(Folha1!H29&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J25=0,IF(Folha1!H29&lt;0.6,0,IF(Folha1!H29&gt;1.1,2,1)),IF(Folha1!H29&lt;0.7,0,IF(Folha1!H29&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I25">
-        <f>IF(Folha1!I29&lt;135,-1,IF(Folha1!I29&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I29&lt;135,0,IF(Folha1!I29&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J25">
         <f>Folha1!J29</f>
@@ -14074,15 +14067,15 @@
       </c>
       <c r="G26">
         <f>VLOOKUP(Folha1!G30,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <f>IF(J26=0,IF(Folha1!H30&lt;0.6,-1,IF(Folha1!H30&gt;1.1,1,0)),IF(Folha1!H30&lt;0.7,-1,IF(Folha1!H30&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J26=0,IF(Folha1!H30&lt;0.6,0,IF(Folha1!H30&gt;1.1,2,1)),IF(Folha1!H30&lt;0.7,0,IF(Folha1!H30&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I26">
-        <f>IF(Folha1!I30&lt;135,-1,IF(Folha1!I30&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I30&lt;135,0,IF(Folha1!I30&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J26">
         <f>Folha1!J30</f>
@@ -14124,15 +14117,15 @@
       </c>
       <c r="G27">
         <f>VLOOKUP(Folha1!G31,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <f>IF(J27=0,IF(Folha1!H31&lt;0.6,-1,IF(Folha1!H31&gt;1.1,1,0)),IF(Folha1!H31&lt;0.7,-1,IF(Folha1!H31&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J27=0,IF(Folha1!H31&lt;0.6,0,IF(Folha1!H31&gt;1.1,2,1)),IF(Folha1!H31&lt;0.7,0,IF(Folha1!H31&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I27">
-        <f>IF(Folha1!I31&lt;135,-1,IF(Folha1!I31&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I31&lt;135,0,IF(Folha1!I31&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J27">
         <f>Folha1!J31</f>
@@ -14174,15 +14167,15 @@
       </c>
       <c r="G28">
         <f>VLOOKUP(Folha1!G32,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <f>IF(J28=0,IF(Folha1!H32&lt;0.6,-1,IF(Folha1!H32&gt;1.1,1,0)),IF(Folha1!H32&lt;0.7,-1,IF(Folha1!H32&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J28=0,IF(Folha1!H32&lt;0.6,0,IF(Folha1!H32&gt;1.1,2,1)),IF(Folha1!H32&lt;0.7,0,IF(Folha1!H32&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I28">
-        <f>IF(Folha1!I32&lt;135,-1,IF(Folha1!I32&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I32&lt;135,0,IF(Folha1!I32&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J28">
         <f>Folha1!J32</f>
@@ -14224,15 +14217,15 @@
       </c>
       <c r="G29">
         <f>VLOOKUP(Folha1!G33,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <f>IF(J29=0,IF(Folha1!H33&lt;0.6,-1,IF(Folha1!H33&gt;1.1,1,0)),IF(Folha1!H33&lt;0.7,-1,IF(Folha1!H33&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J29=0,IF(Folha1!H33&lt;0.6,0,IF(Folha1!H33&gt;1.1,2,1)),IF(Folha1!H33&lt;0.7,0,IF(Folha1!H33&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I29">
-        <f>IF(Folha1!I33&lt;135,-1,IF(Folha1!I33&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I33&lt;135,0,IF(Folha1!I33&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J29">
         <f>Folha1!J33</f>
@@ -14274,15 +14267,15 @@
       </c>
       <c r="G30">
         <f>VLOOKUP(Folha1!G34,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <f>IF(J30=0,IF(Folha1!H34&lt;0.6,-1,IF(Folha1!H34&gt;1.1,1,0)),IF(Folha1!H34&lt;0.7,-1,IF(Folha1!H34&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J30=0,IF(Folha1!H34&lt;0.6,0,IF(Folha1!H34&gt;1.1,2,1)),IF(Folha1!H34&lt;0.7,0,IF(Folha1!H34&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I30">
-        <f>IF(Folha1!I34&lt;135,-1,IF(Folha1!I34&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I34&lt;135,0,IF(Folha1!I34&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J30">
         <f>Folha1!J34</f>
@@ -14324,15 +14317,15 @@
       </c>
       <c r="G31">
         <f>VLOOKUP(Folha1!G35,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <f>IF(J31=0,IF(Folha1!H35&lt;0.6,-1,IF(Folha1!H35&gt;1.1,1,0)),IF(Folha1!H35&lt;0.7,-1,IF(Folha1!H35&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J31=0,IF(Folha1!H35&lt;0.6,0,IF(Folha1!H35&gt;1.1,2,1)),IF(Folha1!H35&lt;0.7,0,IF(Folha1!H35&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I31">
-        <f>IF(Folha1!I35&lt;135,-1,IF(Folha1!I35&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I35&lt;135,0,IF(Folha1!I35&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J31">
         <f>Folha1!J35</f>
@@ -14374,15 +14367,15 @@
       </c>
       <c r="G32">
         <f>VLOOKUP(Folha1!G36,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <f>IF(J32=0,IF(Folha1!H36&lt;0.6,-1,IF(Folha1!H36&gt;1.1,1,0)),IF(Folha1!H36&lt;0.7,-1,IF(Folha1!H36&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J32=0,IF(Folha1!H36&lt;0.6,0,IF(Folha1!H36&gt;1.1,2,1)),IF(Folha1!H36&lt;0.7,0,IF(Folha1!H36&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I32">
-        <f>IF(Folha1!I36&lt;135,-1,IF(Folha1!I36&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I36&lt;135,0,IF(Folha1!I36&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J32">
         <f>Folha1!J36</f>
@@ -14424,15 +14417,15 @@
       </c>
       <c r="G33">
         <f>VLOOKUP(Folha1!G37,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <f>IF(J33=0,IF(Folha1!H37&lt;0.6,-1,IF(Folha1!H37&gt;1.1,1,0)),IF(Folha1!H37&lt;0.7,-1,IF(Folha1!H37&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J33=0,IF(Folha1!H37&lt;0.6,0,IF(Folha1!H37&gt;1.1,2,1)),IF(Folha1!H37&lt;0.7,0,IF(Folha1!H37&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I33">
-        <f>IF(Folha1!I37&lt;135,-1,IF(Folha1!I37&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I37&lt;135,0,IF(Folha1!I37&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J33">
         <f>Folha1!J37</f>
@@ -14474,15 +14467,15 @@
       </c>
       <c r="G34">
         <f>VLOOKUP(Folha1!G38,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <f>IF(J34=0,IF(Folha1!H38&lt;0.6,-1,IF(Folha1!H38&gt;1.1,1,0)),IF(Folha1!H38&lt;0.7,-1,IF(Folha1!H38&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J34=0,IF(Folha1!H38&lt;0.6,0,IF(Folha1!H38&gt;1.1,2,1)),IF(Folha1!H38&lt;0.7,0,IF(Folha1!H38&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I34">
-        <f>IF(Folha1!I38&lt;135,-1,IF(Folha1!I38&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I38&lt;135,0,IF(Folha1!I38&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J34">
         <f>Folha1!J38</f>
@@ -14524,15 +14517,15 @@
       </c>
       <c r="G35">
         <f>VLOOKUP(Folha1!G39,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <f>IF(J35=0,IF(Folha1!H39&lt;0.6,-1,IF(Folha1!H39&gt;1.1,1,0)),IF(Folha1!H39&lt;0.7,-1,IF(Folha1!H39&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J35=0,IF(Folha1!H39&lt;0.6,0,IF(Folha1!H39&gt;1.1,2,1)),IF(Folha1!H39&lt;0.7,0,IF(Folha1!H39&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I35">
-        <f>IF(Folha1!I39&lt;135,-1,IF(Folha1!I39&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I39&lt;135,0,IF(Folha1!I39&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J35">
         <f>Folha1!J39</f>
@@ -14574,15 +14567,15 @@
       </c>
       <c r="G36">
         <f>VLOOKUP(Folha1!G40,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <f>IF(J36=0,IF(Folha1!H40&lt;0.6,-1,IF(Folha1!H40&gt;1.1,1,0)),IF(Folha1!H40&lt;0.7,-1,IF(Folha1!H40&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J36=0,IF(Folha1!H40&lt;0.6,0,IF(Folha1!H40&gt;1.1,2,1)),IF(Folha1!H40&lt;0.7,0,IF(Folha1!H40&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I36">
-        <f>IF(Folha1!I40&lt;135,-1,IF(Folha1!I40&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I40&lt;135,0,IF(Folha1!I40&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J36">
         <f>Folha1!J40</f>
@@ -14624,15 +14617,15 @@
       </c>
       <c r="G37">
         <f>VLOOKUP(Folha1!G41,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <f>IF(J37=0,IF(Folha1!H41&lt;0.6,-1,IF(Folha1!H41&gt;1.1,1,0)),IF(Folha1!H41&lt;0.7,-1,IF(Folha1!H41&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J37=0,IF(Folha1!H41&lt;0.6,0,IF(Folha1!H41&gt;1.1,2,1)),IF(Folha1!H41&lt;0.7,0,IF(Folha1!H41&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I37">
-        <f>IF(Folha1!I41&lt;135,-1,IF(Folha1!I41&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I41&lt;135,0,IF(Folha1!I41&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J37">
         <f>Folha1!J41</f>
@@ -14674,15 +14667,15 @@
       </c>
       <c r="G38">
         <f>VLOOKUP(Folha1!G42,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <f>IF(J38=0,IF(Folha1!H42&lt;0.6,-1,IF(Folha1!H42&gt;1.1,1,0)),IF(Folha1!H42&lt;0.7,-1,IF(Folha1!H42&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J38=0,IF(Folha1!H42&lt;0.6,0,IF(Folha1!H42&gt;1.1,2,1)),IF(Folha1!H42&lt;0.7,0,IF(Folha1!H42&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I38">
-        <f>IF(Folha1!I42&lt;135,-1,IF(Folha1!I42&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I42&lt;135,0,IF(Folha1!I42&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J38">
         <f>Folha1!J42</f>
@@ -14724,15 +14717,15 @@
       </c>
       <c r="G39">
         <f>VLOOKUP(Folha1!G43,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <f>IF(J39=0,IF(Folha1!H43&lt;0.6,-1,IF(Folha1!H43&gt;1.1,1,0)),IF(Folha1!H43&lt;0.7,-1,IF(Folha1!H43&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J39=0,IF(Folha1!H43&lt;0.6,0,IF(Folha1!H43&gt;1.1,2,1)),IF(Folha1!H43&lt;0.7,0,IF(Folha1!H43&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I39">
-        <f>IF(Folha1!I43&lt;135,-1,IF(Folha1!I43&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I43&lt;135,0,IF(Folha1!I43&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J39">
         <f>Folha1!J43</f>
@@ -14774,15 +14767,15 @@
       </c>
       <c r="G40">
         <f>VLOOKUP(Folha1!G44,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <f>IF(J40=0,IF(Folha1!H44&lt;0.6,-1,IF(Folha1!H44&gt;1.1,1,0)),IF(Folha1!H44&lt;0.7,-1,IF(Folha1!H44&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J40=0,IF(Folha1!H44&lt;0.6,0,IF(Folha1!H44&gt;1.1,2,1)),IF(Folha1!H44&lt;0.7,0,IF(Folha1!H44&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I40">
-        <f>IF(Folha1!I44&lt;135,-1,IF(Folha1!I44&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I44&lt;135,0,IF(Folha1!I44&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J40">
         <f>Folha1!J44</f>
@@ -14824,15 +14817,15 @@
       </c>
       <c r="G41">
         <f>VLOOKUP(Folha1!G45,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <f>IF(J41=0,IF(Folha1!H45&lt;0.6,-1,IF(Folha1!H45&gt;1.1,1,0)),IF(Folha1!H45&lt;0.7,-1,IF(Folha1!H45&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J41=0,IF(Folha1!H45&lt;0.6,0,IF(Folha1!H45&gt;1.1,2,1)),IF(Folha1!H45&lt;0.7,0,IF(Folha1!H45&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I41">
-        <f>IF(Folha1!I45&lt;135,-1,IF(Folha1!I45&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I45&lt;135,0,IF(Folha1!I45&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J41">
         <f>Folha1!J45</f>
@@ -14874,15 +14867,15 @@
       </c>
       <c r="G42">
         <f>VLOOKUP(Folha1!G46,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <f>IF(J42=0,IF(Folha1!H46&lt;0.6,-1,IF(Folha1!H46&gt;1.1,1,0)),IF(Folha1!H46&lt;0.7,-1,IF(Folha1!H46&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J42=0,IF(Folha1!H46&lt;0.6,0,IF(Folha1!H46&gt;1.1,2,1)),IF(Folha1!H46&lt;0.7,0,IF(Folha1!H46&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I42">
-        <f>IF(Folha1!I46&lt;135,-1,IF(Folha1!I46&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I46&lt;135,0,IF(Folha1!I46&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J42">
         <f>Folha1!J46</f>
@@ -14924,15 +14917,15 @@
       </c>
       <c r="G43">
         <f>VLOOKUP(Folha1!G47,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <f>IF(J43=0,IF(Folha1!H47&lt;0.6,-1,IF(Folha1!H47&gt;1.1,1,0)),IF(Folha1!H47&lt;0.7,-1,IF(Folha1!H47&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J43=0,IF(Folha1!H47&lt;0.6,0,IF(Folha1!H47&gt;1.1,2,1)),IF(Folha1!H47&lt;0.7,0,IF(Folha1!H47&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I43">
-        <f>IF(Folha1!I47&lt;135,-1,IF(Folha1!I47&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I47&lt;135,0,IF(Folha1!I47&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J43">
         <f>Folha1!J47</f>
@@ -14974,15 +14967,15 @@
       </c>
       <c r="G44">
         <f>VLOOKUP(Folha1!G48,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <f>IF(J44=0,IF(Folha1!H48&lt;0.6,-1,IF(Folha1!H48&gt;1.1,1,0)),IF(Folha1!H48&lt;0.7,-1,IF(Folha1!H48&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J44=0,IF(Folha1!H48&lt;0.6,0,IF(Folha1!H48&gt;1.1,2,1)),IF(Folha1!H48&lt;0.7,0,IF(Folha1!H48&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I44">
-        <f>IF(Folha1!I48&lt;135,-1,IF(Folha1!I48&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I48&lt;135,0,IF(Folha1!I48&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J44">
         <f>Folha1!J48</f>
@@ -15024,15 +15017,15 @@
       </c>
       <c r="G45">
         <f>VLOOKUP(Folha1!G49,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <f>IF(J45=0,IF(Folha1!H49&lt;0.6,-1,IF(Folha1!H49&gt;1.1,1,0)),IF(Folha1!H49&lt;0.7,-1,IF(Folha1!H49&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J45=0,IF(Folha1!H49&lt;0.6,0,IF(Folha1!H49&gt;1.1,2,1)),IF(Folha1!H49&lt;0.7,0,IF(Folha1!H49&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I45">
-        <f>IF(Folha1!I49&lt;135,-1,IF(Folha1!I49&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I49&lt;135,0,IF(Folha1!I49&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J45">
         <f>Folha1!J49</f>
@@ -15074,15 +15067,15 @@
       </c>
       <c r="G46">
         <f>VLOOKUP(Folha1!G50,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <f>IF(J46=0,IF(Folha1!H50&lt;0.6,-1,IF(Folha1!H50&gt;1.1,1,0)),IF(Folha1!H50&lt;0.7,-1,IF(Folha1!H50&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J46=0,IF(Folha1!H50&lt;0.6,0,IF(Folha1!H50&gt;1.1,2,1)),IF(Folha1!H50&lt;0.7,0,IF(Folha1!H50&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I46">
-        <f>IF(Folha1!I50&lt;135,-1,IF(Folha1!I50&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I50&lt;135,0,IF(Folha1!I50&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J46">
         <f>Folha1!J50</f>
@@ -15124,15 +15117,15 @@
       </c>
       <c r="G47">
         <f>VLOOKUP(Folha1!G51,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <f>IF(J47=0,IF(Folha1!H51&lt;0.6,-1,IF(Folha1!H51&gt;1.1,1,0)),IF(Folha1!H51&lt;0.7,-1,IF(Folha1!H51&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J47=0,IF(Folha1!H51&lt;0.6,0,IF(Folha1!H51&gt;1.1,2,1)),IF(Folha1!H51&lt;0.7,0,IF(Folha1!H51&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I47">
-        <f>IF(Folha1!I51&lt;135,-1,IF(Folha1!I51&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I51&lt;135,0,IF(Folha1!I51&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J47">
         <f>Folha1!J51</f>
@@ -15174,15 +15167,15 @@
       </c>
       <c r="G48">
         <f>VLOOKUP(Folha1!G52,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <f>IF(J48=0,IF(Folha1!H52&lt;0.6,-1,IF(Folha1!H52&gt;1.1,1,0)),IF(Folha1!H52&lt;0.7,-1,IF(Folha1!H52&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J48=0,IF(Folha1!H52&lt;0.6,0,IF(Folha1!H52&gt;1.1,2,1)),IF(Folha1!H52&lt;0.7,0,IF(Folha1!H52&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I48">
-        <f>IF(Folha1!I52&lt;135,-1,IF(Folha1!I52&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I52&lt;135,0,IF(Folha1!I52&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J48">
         <f>Folha1!J52</f>
@@ -15224,15 +15217,15 @@
       </c>
       <c r="G49">
         <f>VLOOKUP(Folha1!G53,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <f>IF(J49=0,IF(Folha1!H53&lt;0.6,-1,IF(Folha1!H53&gt;1.1,1,0)),IF(Folha1!H53&lt;0.7,-1,IF(Folha1!H53&gt;1.3,1,0)))</f>
-        <v>-1</v>
+        <f>IF(J49=0,IF(Folha1!H53&lt;0.6,0,IF(Folha1!H53&gt;1.1,2,1)),IF(Folha1!H53&lt;0.7,0,IF(Folha1!H53&gt;1.3,2,1)))</f>
+        <v>0</v>
       </c>
       <c r="I49">
-        <f>IF(Folha1!I53&lt;135,-1,IF(Folha1!I53&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I53&lt;135,0,IF(Folha1!I53&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J49">
         <f>Folha1!J53</f>
@@ -15274,15 +15267,15 @@
       </c>
       <c r="G50">
         <f>VLOOKUP(Folha1!G54,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <f>IF(J50=0,IF(Folha1!H54&lt;0.6,-1,IF(Folha1!H54&gt;1.1,1,0)),IF(Folha1!H54&lt;0.7,-1,IF(Folha1!H54&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J50=0,IF(Folha1!H54&lt;0.6,0,IF(Folha1!H54&gt;1.1,2,1)),IF(Folha1!H54&lt;0.7,0,IF(Folha1!H54&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I50">
-        <f>IF(Folha1!I54&lt;135,-1,IF(Folha1!I54&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I54&lt;135,0,IF(Folha1!I54&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J50">
         <f>Folha1!J54</f>
@@ -15324,15 +15317,15 @@
       </c>
       <c r="G51">
         <f>VLOOKUP(Folha1!G55,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <f>IF(J51=0,IF(Folha1!H55&lt;0.6,-1,IF(Folha1!H55&gt;1.1,1,0)),IF(Folha1!H55&lt;0.7,-1,IF(Folha1!H55&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J51=0,IF(Folha1!H55&lt;0.6,0,IF(Folha1!H55&gt;1.1,2,1)),IF(Folha1!H55&lt;0.7,0,IF(Folha1!H55&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I51">
-        <f>IF(Folha1!I55&lt;135,-1,IF(Folha1!I55&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I55&lt;135,0,IF(Folha1!I55&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J51">
         <f>Folha1!J55</f>
@@ -15374,15 +15367,15 @@
       </c>
       <c r="G52">
         <f>VLOOKUP(Folha1!G56,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <f>IF(J52=0,IF(Folha1!H56&lt;0.6,-1,IF(Folha1!H56&gt;1.1,1,0)),IF(Folha1!H56&lt;0.7,-1,IF(Folha1!H56&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J52=0,IF(Folha1!H56&lt;0.6,0,IF(Folha1!H56&gt;1.1,2,1)),IF(Folha1!H56&lt;0.7,0,IF(Folha1!H56&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I52">
-        <f>IF(Folha1!I56&lt;135,-1,IF(Folha1!I56&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I56&lt;135,0,IF(Folha1!I56&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J52">
         <f>Folha1!J56</f>
@@ -15424,15 +15417,15 @@
       </c>
       <c r="G53">
         <f>VLOOKUP(Folha1!G57,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <f>IF(J53=0,IF(Folha1!H57&lt;0.6,-1,IF(Folha1!H57&gt;1.1,1,0)),IF(Folha1!H57&lt;0.7,-1,IF(Folha1!H57&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J53=0,IF(Folha1!H57&lt;0.6,0,IF(Folha1!H57&gt;1.1,2,1)),IF(Folha1!H57&lt;0.7,0,IF(Folha1!H57&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I53">
-        <f>IF(Folha1!I57&lt;135,-1,IF(Folha1!I57&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I57&lt;135,0,IF(Folha1!I57&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J53">
         <f>Folha1!J57</f>
@@ -15474,15 +15467,15 @@
       </c>
       <c r="G54">
         <f>VLOOKUP(Folha1!G58,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <f>IF(J54=0,IF(Folha1!H58&lt;0.6,-1,IF(Folha1!H58&gt;1.1,1,0)),IF(Folha1!H58&lt;0.7,-1,IF(Folha1!H58&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J54=0,IF(Folha1!H58&lt;0.6,0,IF(Folha1!H58&gt;1.1,2,1)),IF(Folha1!H58&lt;0.7,0,IF(Folha1!H58&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I54">
-        <f>IF(Folha1!I58&lt;135,-1,IF(Folha1!I58&gt;145,1,0))</f>
-        <v>1</v>
+        <f>IF(Folha1!I58&lt;135,0,IF(Folha1!I58&gt;145,2,1))</f>
+        <v>2</v>
       </c>
       <c r="J54">
         <f>Folha1!J58</f>
@@ -15524,15 +15517,15 @@
       </c>
       <c r="G55">
         <f>VLOOKUP(Folha1!G59,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <f>IF(J55=0,IF(Folha1!H59&lt;0.6,-1,IF(Folha1!H59&gt;1.1,1,0)),IF(Folha1!H59&lt;0.7,-1,IF(Folha1!H59&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J55=0,IF(Folha1!H59&lt;0.6,0,IF(Folha1!H59&gt;1.1,2,1)),IF(Folha1!H59&lt;0.7,0,IF(Folha1!H59&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I55">
-        <f>IF(Folha1!I59&lt;135,-1,IF(Folha1!I59&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I59&lt;135,0,IF(Folha1!I59&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J55">
         <f>Folha1!J59</f>
@@ -15574,15 +15567,15 @@
       </c>
       <c r="G56">
         <f>VLOOKUP(Folha1!G60,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <f>IF(J56=0,IF(Folha1!H60&lt;0.6,-1,IF(Folha1!H60&gt;1.1,1,0)),IF(Folha1!H60&lt;0.7,-1,IF(Folha1!H60&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J56=0,IF(Folha1!H60&lt;0.6,0,IF(Folha1!H60&gt;1.1,2,1)),IF(Folha1!H60&lt;0.7,0,IF(Folha1!H60&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I56">
-        <f>IF(Folha1!I60&lt;135,-1,IF(Folha1!I60&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I60&lt;135,0,IF(Folha1!I60&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J56">
         <f>Folha1!J60</f>
@@ -15624,15 +15617,15 @@
       </c>
       <c r="G57">
         <f>VLOOKUP(Folha1!G61,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <f>IF(J57=0,IF(Folha1!H61&lt;0.6,-1,IF(Folha1!H61&gt;1.1,1,0)),IF(Folha1!H61&lt;0.7,-1,IF(Folha1!H61&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J57=0,IF(Folha1!H61&lt;0.6,0,IF(Folha1!H61&gt;1.1,2,1)),IF(Folha1!H61&lt;0.7,0,IF(Folha1!H61&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I57">
-        <f>IF(Folha1!I61&lt;135,-1,IF(Folha1!I61&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I61&lt;135,0,IF(Folha1!I61&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J57">
         <f>Folha1!J61</f>
@@ -15674,15 +15667,15 @@
       </c>
       <c r="G58">
         <f>VLOOKUP(Folha1!G62,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <f>IF(J58=0,IF(Folha1!H62&lt;0.6,-1,IF(Folha1!H62&gt;1.1,1,0)),IF(Folha1!H62&lt;0.7,-1,IF(Folha1!H62&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J58=0,IF(Folha1!H62&lt;0.6,0,IF(Folha1!H62&gt;1.1,2,1)),IF(Folha1!H62&lt;0.7,0,IF(Folha1!H62&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I58">
-        <f>IF(Folha1!I62&lt;135,-1,IF(Folha1!I62&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I62&lt;135,0,IF(Folha1!I62&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J58">
         <f>Folha1!J62</f>
@@ -15724,15 +15717,15 @@
       </c>
       <c r="G59">
         <f>VLOOKUP(Folha1!G63,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <f>IF(J59=0,IF(Folha1!H63&lt;0.6,-1,IF(Folha1!H63&gt;1.1,1,0)),IF(Folha1!H63&lt;0.7,-1,IF(Folha1!H63&gt;1.3,1,0)))</f>
-        <v>-1</v>
+        <f>IF(J59=0,IF(Folha1!H63&lt;0.6,0,IF(Folha1!H63&gt;1.1,2,1)),IF(Folha1!H63&lt;0.7,0,IF(Folha1!H63&gt;1.3,2,1)))</f>
+        <v>0</v>
       </c>
       <c r="I59">
-        <f>IF(Folha1!I63&lt;135,-1,IF(Folha1!I63&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I63&lt;135,0,IF(Folha1!I63&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J59">
         <f>Folha1!J63</f>
@@ -15774,15 +15767,15 @@
       </c>
       <c r="G60">
         <f>VLOOKUP(Folha1!G64,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <f>IF(J60=0,IF(Folha1!H64&lt;0.6,-1,IF(Folha1!H64&gt;1.1,1,0)),IF(Folha1!H64&lt;0.7,-1,IF(Folha1!H64&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J60=0,IF(Folha1!H64&lt;0.6,0,IF(Folha1!H64&gt;1.1,2,1)),IF(Folha1!H64&lt;0.7,0,IF(Folha1!H64&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I60">
-        <f>IF(Folha1!I64&lt;135,-1,IF(Folha1!I64&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I64&lt;135,0,IF(Folha1!I64&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J60">
         <f>Folha1!J64</f>
@@ -15824,15 +15817,15 @@
       </c>
       <c r="G61">
         <f>VLOOKUP(Folha1!G65,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <f>IF(J61=0,IF(Folha1!H65&lt;0.6,-1,IF(Folha1!H65&gt;1.1,1,0)),IF(Folha1!H65&lt;0.7,-1,IF(Folha1!H65&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J61=0,IF(Folha1!H65&lt;0.6,0,IF(Folha1!H65&gt;1.1,2,1)),IF(Folha1!H65&lt;0.7,0,IF(Folha1!H65&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I61">
-        <f>IF(Folha1!I65&lt;135,-1,IF(Folha1!I65&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I65&lt;135,0,IF(Folha1!I65&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J61">
         <f>Folha1!J65</f>
@@ -15874,15 +15867,15 @@
       </c>
       <c r="G62">
         <f>VLOOKUP(Folha1!G66,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <f>IF(J62=0,IF(Folha1!H66&lt;0.6,-1,IF(Folha1!H66&gt;1.1,1,0)),IF(Folha1!H66&lt;0.7,-1,IF(Folha1!H66&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J62=0,IF(Folha1!H66&lt;0.6,0,IF(Folha1!H66&gt;1.1,2,1)),IF(Folha1!H66&lt;0.7,0,IF(Folha1!H66&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I62">
-        <f>IF(Folha1!I66&lt;135,-1,IF(Folha1!I66&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I66&lt;135,0,IF(Folha1!I66&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J62">
         <f>Folha1!J66</f>
@@ -15924,15 +15917,15 @@
       </c>
       <c r="G63">
         <f>VLOOKUP(Folha1!G67,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <f>IF(J63=0,IF(Folha1!H67&lt;0.6,-1,IF(Folha1!H67&gt;1.1,1,0)),IF(Folha1!H67&lt;0.7,-1,IF(Folha1!H67&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J63=0,IF(Folha1!H67&lt;0.6,0,IF(Folha1!H67&gt;1.1,2,1)),IF(Folha1!H67&lt;0.7,0,IF(Folha1!H67&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I63">
-        <f>IF(Folha1!I67&lt;135,-1,IF(Folha1!I67&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I67&lt;135,0,IF(Folha1!I67&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J63">
         <f>Folha1!J67</f>
@@ -15974,15 +15967,15 @@
       </c>
       <c r="G64">
         <f>VLOOKUP(Folha1!G68,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <f>IF(J64=0,IF(Folha1!H68&lt;0.6,-1,IF(Folha1!H68&gt;1.1,1,0)),IF(Folha1!H68&lt;0.7,-1,IF(Folha1!H68&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J64=0,IF(Folha1!H68&lt;0.6,0,IF(Folha1!H68&gt;1.1,2,1)),IF(Folha1!H68&lt;0.7,0,IF(Folha1!H68&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I64">
-        <f>IF(Folha1!I68&lt;135,-1,IF(Folha1!I68&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I68&lt;135,0,IF(Folha1!I68&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J64">
         <f>Folha1!J68</f>
@@ -16024,15 +16017,15 @@
       </c>
       <c r="G65">
         <f>VLOOKUP(Folha1!G69,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <f>IF(J65=0,IF(Folha1!H69&lt;0.6,-1,IF(Folha1!H69&gt;1.1,1,0)),IF(Folha1!H69&lt;0.7,-1,IF(Folha1!H69&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J65=0,IF(Folha1!H69&lt;0.6,0,IF(Folha1!H69&gt;1.1,2,1)),IF(Folha1!H69&lt;0.7,0,IF(Folha1!H69&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I65">
-        <f>IF(Folha1!I69&lt;135,-1,IF(Folha1!I69&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I69&lt;135,0,IF(Folha1!I69&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J65">
         <f>Folha1!J69</f>
@@ -16074,15 +16067,15 @@
       </c>
       <c r="G66">
         <f>VLOOKUP(Folha1!G70,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <f>IF(J66=0,IF(Folha1!H70&lt;0.6,-1,IF(Folha1!H70&gt;1.1,1,0)),IF(Folha1!H70&lt;0.7,-1,IF(Folha1!H70&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J66=0,IF(Folha1!H70&lt;0.6,0,IF(Folha1!H70&gt;1.1,2,1)),IF(Folha1!H70&lt;0.7,0,IF(Folha1!H70&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I66">
-        <f>IF(Folha1!I70&lt;135,-1,IF(Folha1!I70&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I70&lt;135,0,IF(Folha1!I70&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J66">
         <f>Folha1!J70</f>
@@ -16124,15 +16117,15 @@
       </c>
       <c r="G67">
         <f>VLOOKUP(Folha1!G71,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <f>IF(J67=0,IF(Folha1!H71&lt;0.6,-1,IF(Folha1!H71&gt;1.1,1,0)),IF(Folha1!H71&lt;0.7,-1,IF(Folha1!H71&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J67=0,IF(Folha1!H71&lt;0.6,0,IF(Folha1!H71&gt;1.1,2,1)),IF(Folha1!H71&lt;0.7,0,IF(Folha1!H71&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I67">
-        <f>IF(Folha1!I71&lt;135,-1,IF(Folha1!I71&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I71&lt;135,0,IF(Folha1!I71&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J67">
         <f>Folha1!J71</f>
@@ -16174,15 +16167,15 @@
       </c>
       <c r="G68">
         <f>VLOOKUP(Folha1!G72,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <f>IF(J68=0,IF(Folha1!H72&lt;0.6,-1,IF(Folha1!H72&gt;1.1,1,0)),IF(Folha1!H72&lt;0.7,-1,IF(Folha1!H72&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J68=0,IF(Folha1!H72&lt;0.6,0,IF(Folha1!H72&gt;1.1,2,1)),IF(Folha1!H72&lt;0.7,0,IF(Folha1!H72&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I68">
-        <f>IF(Folha1!I72&lt;135,-1,IF(Folha1!I72&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I72&lt;135,0,IF(Folha1!I72&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J68">
         <f>Folha1!J72</f>
@@ -16224,15 +16217,15 @@
       </c>
       <c r="G69">
         <f>VLOOKUP(Folha1!G73,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <f>IF(J69=0,IF(Folha1!H73&lt;0.6,-1,IF(Folha1!H73&gt;1.1,1,0)),IF(Folha1!H73&lt;0.7,-1,IF(Folha1!H73&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J69=0,IF(Folha1!H73&lt;0.6,0,IF(Folha1!H73&gt;1.1,2,1)),IF(Folha1!H73&lt;0.7,0,IF(Folha1!H73&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I69">
-        <f>IF(Folha1!I73&lt;135,-1,IF(Folha1!I73&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I73&lt;135,0,IF(Folha1!I73&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J69">
         <f>Folha1!J73</f>
@@ -16274,15 +16267,15 @@
       </c>
       <c r="G70">
         <f>VLOOKUP(Folha1!G74,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <f>IF(J70=0,IF(Folha1!H74&lt;0.6,-1,IF(Folha1!H74&gt;1.1,1,0)),IF(Folha1!H74&lt;0.7,-1,IF(Folha1!H74&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J70=0,IF(Folha1!H74&lt;0.6,0,IF(Folha1!H74&gt;1.1,2,1)),IF(Folha1!H74&lt;0.7,0,IF(Folha1!H74&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I70">
-        <f>IF(Folha1!I74&lt;135,-1,IF(Folha1!I74&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I74&lt;135,0,IF(Folha1!I74&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J70">
         <f>Folha1!J74</f>
@@ -16324,15 +16317,15 @@
       </c>
       <c r="G71">
         <f>VLOOKUP(Folha1!G75,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <f>IF(J71=0,IF(Folha1!H75&lt;0.6,-1,IF(Folha1!H75&gt;1.1,1,0)),IF(Folha1!H75&lt;0.7,-1,IF(Folha1!H75&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J71=0,IF(Folha1!H75&lt;0.6,0,IF(Folha1!H75&gt;1.1,2,1)),IF(Folha1!H75&lt;0.7,0,IF(Folha1!H75&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I71">
-        <f>IF(Folha1!I75&lt;135,-1,IF(Folha1!I75&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I75&lt;135,0,IF(Folha1!I75&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J71">
         <f>Folha1!J75</f>
@@ -16374,15 +16367,15 @@
       </c>
       <c r="G72">
         <f>VLOOKUP(Folha1!G76,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <f>IF(J72=0,IF(Folha1!H76&lt;0.6,-1,IF(Folha1!H76&gt;1.1,1,0)),IF(Folha1!H76&lt;0.7,-1,IF(Folha1!H76&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J72=0,IF(Folha1!H76&lt;0.6,0,IF(Folha1!H76&gt;1.1,2,1)),IF(Folha1!H76&lt;0.7,0,IF(Folha1!H76&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I72">
-        <f>IF(Folha1!I76&lt;135,-1,IF(Folha1!I76&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I76&lt;135,0,IF(Folha1!I76&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J72">
         <f>Folha1!J76</f>
@@ -16424,15 +16417,15 @@
       </c>
       <c r="G73">
         <f>VLOOKUP(Folha1!G77,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <f>IF(J73=0,IF(Folha1!H77&lt;0.6,-1,IF(Folha1!H77&gt;1.1,1,0)),IF(Folha1!H77&lt;0.7,-1,IF(Folha1!H77&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J73=0,IF(Folha1!H77&lt;0.6,0,IF(Folha1!H77&gt;1.1,2,1)),IF(Folha1!H77&lt;0.7,0,IF(Folha1!H77&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I73">
-        <f>IF(Folha1!I77&lt;135,-1,IF(Folha1!I77&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I77&lt;135,0,IF(Folha1!I77&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J73">
         <f>Folha1!J77</f>
@@ -16474,15 +16467,15 @@
       </c>
       <c r="G74">
         <f>VLOOKUP(Folha1!G78,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <f>IF(J74=0,IF(Folha1!H78&lt;0.6,-1,IF(Folha1!H78&gt;1.1,1,0)),IF(Folha1!H78&lt;0.7,-1,IF(Folha1!H78&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J74=0,IF(Folha1!H78&lt;0.6,0,IF(Folha1!H78&gt;1.1,2,1)),IF(Folha1!H78&lt;0.7,0,IF(Folha1!H78&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I74">
-        <f>IF(Folha1!I78&lt;135,-1,IF(Folha1!I78&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I78&lt;135,0,IF(Folha1!I78&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J74">
         <f>Folha1!J78</f>
@@ -16524,15 +16517,15 @@
       </c>
       <c r="G75">
         <f>VLOOKUP(Folha1!G79,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <f>IF(J75=0,IF(Folha1!H79&lt;0.6,-1,IF(Folha1!H79&gt;1.1,1,0)),IF(Folha1!H79&lt;0.7,-1,IF(Folha1!H79&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J75=0,IF(Folha1!H79&lt;0.6,0,IF(Folha1!H79&gt;1.1,2,1)),IF(Folha1!H79&lt;0.7,0,IF(Folha1!H79&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I75">
-        <f>IF(Folha1!I79&lt;135,-1,IF(Folha1!I79&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I79&lt;135,0,IF(Folha1!I79&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J75">
         <f>Folha1!J79</f>
@@ -16574,15 +16567,15 @@
       </c>
       <c r="G76">
         <f>VLOOKUP(Folha1!G80,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <f>IF(J76=0,IF(Folha1!H80&lt;0.6,-1,IF(Folha1!H80&gt;1.1,1,0)),IF(Folha1!H80&lt;0.7,-1,IF(Folha1!H80&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J76=0,IF(Folha1!H80&lt;0.6,0,IF(Folha1!H80&gt;1.1,2,1)),IF(Folha1!H80&lt;0.7,0,IF(Folha1!H80&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I76">
-        <f>IF(Folha1!I80&lt;135,-1,IF(Folha1!I80&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I80&lt;135,0,IF(Folha1!I80&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J76">
         <f>Folha1!J80</f>
@@ -16624,15 +16617,15 @@
       </c>
       <c r="G77">
         <f>VLOOKUP(Folha1!G81,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <f>IF(J77=0,IF(Folha1!H81&lt;0.6,-1,IF(Folha1!H81&gt;1.1,1,0)),IF(Folha1!H81&lt;0.7,-1,IF(Folha1!H81&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J77=0,IF(Folha1!H81&lt;0.6,0,IF(Folha1!H81&gt;1.1,2,1)),IF(Folha1!H81&lt;0.7,0,IF(Folha1!H81&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I77">
-        <f>IF(Folha1!I81&lt;135,-1,IF(Folha1!I81&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I81&lt;135,0,IF(Folha1!I81&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J77">
         <f>Folha1!J81</f>
@@ -16674,15 +16667,15 @@
       </c>
       <c r="G78">
         <f>VLOOKUP(Folha1!G82,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <f>IF(J78=0,IF(Folha1!H82&lt;0.6,-1,IF(Folha1!H82&gt;1.1,1,0)),IF(Folha1!H82&lt;0.7,-1,IF(Folha1!H82&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J78=0,IF(Folha1!H82&lt;0.6,0,IF(Folha1!H82&gt;1.1,2,1)),IF(Folha1!H82&lt;0.7,0,IF(Folha1!H82&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I78">
-        <f>IF(Folha1!I82&lt;135,-1,IF(Folha1!I82&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I82&lt;135,0,IF(Folha1!I82&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J78">
         <f>Folha1!J82</f>
@@ -16724,15 +16717,15 @@
       </c>
       <c r="G79">
         <f>VLOOKUP(Folha1!G83,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <f>IF(J79=0,IF(Folha1!H83&lt;0.6,-1,IF(Folha1!H83&gt;1.1,1,0)),IF(Folha1!H83&lt;0.7,-1,IF(Folha1!H83&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J79=0,IF(Folha1!H83&lt;0.6,0,IF(Folha1!H83&gt;1.1,2,1)),IF(Folha1!H83&lt;0.7,0,IF(Folha1!H83&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I79">
-        <f>IF(Folha1!I83&lt;135,-1,IF(Folha1!I83&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I83&lt;135,0,IF(Folha1!I83&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J79">
         <f>Folha1!J83</f>
@@ -16774,15 +16767,15 @@
       </c>
       <c r="G80">
         <f>VLOOKUP(Folha1!G84,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <f>IF(J80=0,IF(Folha1!H84&lt;0.6,-1,IF(Folha1!H84&gt;1.1,1,0)),IF(Folha1!H84&lt;0.7,-1,IF(Folha1!H84&gt;1.3,1,0)))</f>
-        <v>-1</v>
+        <f>IF(J80=0,IF(Folha1!H84&lt;0.6,0,IF(Folha1!H84&gt;1.1,2,1)),IF(Folha1!H84&lt;0.7,0,IF(Folha1!H84&gt;1.3,2,1)))</f>
+        <v>0</v>
       </c>
       <c r="I80">
-        <f>IF(Folha1!I84&lt;135,-1,IF(Folha1!I84&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I84&lt;135,0,IF(Folha1!I84&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J80">
         <f>Folha1!J84</f>
@@ -16824,15 +16817,15 @@
       </c>
       <c r="G81">
         <f>VLOOKUP(Folha1!G85,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <f>IF(J81=0,IF(Folha1!H85&lt;0.6,-1,IF(Folha1!H85&gt;1.1,1,0)),IF(Folha1!H85&lt;0.7,-1,IF(Folha1!H85&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J81=0,IF(Folha1!H85&lt;0.6,0,IF(Folha1!H85&gt;1.1,2,1)),IF(Folha1!H85&lt;0.7,0,IF(Folha1!H85&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I81">
-        <f>IF(Folha1!I85&lt;135,-1,IF(Folha1!I85&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I85&lt;135,0,IF(Folha1!I85&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J81">
         <f>Folha1!J85</f>
@@ -16874,15 +16867,15 @@
       </c>
       <c r="G82">
         <f>VLOOKUP(Folha1!G86,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <f>IF(J82=0,IF(Folha1!H86&lt;0.6,-1,IF(Folha1!H86&gt;1.1,1,0)),IF(Folha1!H86&lt;0.7,-1,IF(Folha1!H86&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J82=0,IF(Folha1!H86&lt;0.6,0,IF(Folha1!H86&gt;1.1,2,1)),IF(Folha1!H86&lt;0.7,0,IF(Folha1!H86&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I82">
-        <f>IF(Folha1!I86&lt;135,-1,IF(Folha1!I86&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I86&lt;135,0,IF(Folha1!I86&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J82">
         <f>Folha1!J86</f>
@@ -16924,15 +16917,15 @@
       </c>
       <c r="G83">
         <f>VLOOKUP(Folha1!G87,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <f>IF(J83=0,IF(Folha1!H87&lt;0.6,-1,IF(Folha1!H87&gt;1.1,1,0)),IF(Folha1!H87&lt;0.7,-1,IF(Folha1!H87&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J83=0,IF(Folha1!H87&lt;0.6,0,IF(Folha1!H87&gt;1.1,2,1)),IF(Folha1!H87&lt;0.7,0,IF(Folha1!H87&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I83">
-        <f>IF(Folha1!I87&lt;135,-1,IF(Folha1!I87&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I87&lt;135,0,IF(Folha1!I87&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J83">
         <f>Folha1!J87</f>
@@ -16974,15 +16967,15 @@
       </c>
       <c r="G84">
         <f>VLOOKUP(Folha1!G88,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <f>IF(J84=0,IF(Folha1!H88&lt;0.6,-1,IF(Folha1!H88&gt;1.1,1,0)),IF(Folha1!H88&lt;0.7,-1,IF(Folha1!H88&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J84=0,IF(Folha1!H88&lt;0.6,0,IF(Folha1!H88&gt;1.1,2,1)),IF(Folha1!H88&lt;0.7,0,IF(Folha1!H88&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I84">
-        <f>IF(Folha1!I88&lt;135,-1,IF(Folha1!I88&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I88&lt;135,0,IF(Folha1!I88&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J84">
         <f>Folha1!J88</f>
@@ -17024,15 +17017,15 @@
       </c>
       <c r="G85">
         <f>VLOOKUP(Folha1!G89,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <f>IF(J85=0,IF(Folha1!H89&lt;0.6,-1,IF(Folha1!H89&gt;1.1,1,0)),IF(Folha1!H89&lt;0.7,-1,IF(Folha1!H89&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J85=0,IF(Folha1!H89&lt;0.6,0,IF(Folha1!H89&gt;1.1,2,1)),IF(Folha1!H89&lt;0.7,0,IF(Folha1!H89&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I85">
-        <f>IF(Folha1!I89&lt;135,-1,IF(Folha1!I89&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I89&lt;135,0,IF(Folha1!I89&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J85">
         <f>Folha1!J89</f>
@@ -17074,15 +17067,15 @@
       </c>
       <c r="G86">
         <f>VLOOKUP(Folha1!G90,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <f>IF(J86=0,IF(Folha1!H90&lt;0.6,-1,IF(Folha1!H90&gt;1.1,1,0)),IF(Folha1!H90&lt;0.7,-1,IF(Folha1!H90&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J86=0,IF(Folha1!H90&lt;0.6,0,IF(Folha1!H90&gt;1.1,2,1)),IF(Folha1!H90&lt;0.7,0,IF(Folha1!H90&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I86">
-        <f>IF(Folha1!I90&lt;135,-1,IF(Folha1!I90&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I90&lt;135,0,IF(Folha1!I90&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J86">
         <f>Folha1!J90</f>
@@ -17124,15 +17117,15 @@
       </c>
       <c r="G87">
         <f>VLOOKUP(Folha1!G91,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <f>IF(J87=0,IF(Folha1!H91&lt;0.6,-1,IF(Folha1!H91&gt;1.1,1,0)),IF(Folha1!H91&lt;0.7,-1,IF(Folha1!H91&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J87=0,IF(Folha1!H91&lt;0.6,0,IF(Folha1!H91&gt;1.1,2,1)),IF(Folha1!H91&lt;0.7,0,IF(Folha1!H91&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I87">
-        <f>IF(Folha1!I91&lt;135,-1,IF(Folha1!I91&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I91&lt;135,0,IF(Folha1!I91&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J87">
         <f>Folha1!J91</f>
@@ -17174,15 +17167,15 @@
       </c>
       <c r="G88">
         <f>VLOOKUP(Folha1!G92,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <f>IF(J88=0,IF(Folha1!H92&lt;0.6,-1,IF(Folha1!H92&gt;1.1,1,0)),IF(Folha1!H92&lt;0.7,-1,IF(Folha1!H92&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J88=0,IF(Folha1!H92&lt;0.6,0,IF(Folha1!H92&gt;1.1,2,1)),IF(Folha1!H92&lt;0.7,0,IF(Folha1!H92&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I88">
-        <f>IF(Folha1!I92&lt;135,-1,IF(Folha1!I92&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I92&lt;135,0,IF(Folha1!I92&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J88">
         <f>Folha1!J92</f>
@@ -17224,15 +17217,15 @@
       </c>
       <c r="G89">
         <f>VLOOKUP(Folha1!G93,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <f>IF(J89=0,IF(Folha1!H93&lt;0.6,-1,IF(Folha1!H93&gt;1.1,1,0)),IF(Folha1!H93&lt;0.7,-1,IF(Folha1!H93&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J89=0,IF(Folha1!H93&lt;0.6,0,IF(Folha1!H93&gt;1.1,2,1)),IF(Folha1!H93&lt;0.7,0,IF(Folha1!H93&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I89">
-        <f>IF(Folha1!I93&lt;135,-1,IF(Folha1!I93&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I93&lt;135,0,IF(Folha1!I93&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J89">
         <f>Folha1!J93</f>
@@ -17274,15 +17267,15 @@
       </c>
       <c r="G90">
         <f>VLOOKUP(Folha1!G94,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <f>IF(J90=0,IF(Folha1!H94&lt;0.6,-1,IF(Folha1!H94&gt;1.1,1,0)),IF(Folha1!H94&lt;0.7,-1,IF(Folha1!H94&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J90=0,IF(Folha1!H94&lt;0.6,0,IF(Folha1!H94&gt;1.1,2,1)),IF(Folha1!H94&lt;0.7,0,IF(Folha1!H94&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I90">
-        <f>IF(Folha1!I94&lt;135,-1,IF(Folha1!I94&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I94&lt;135,0,IF(Folha1!I94&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J90">
         <f>Folha1!J94</f>
@@ -17324,15 +17317,15 @@
       </c>
       <c r="G91">
         <f>VLOOKUP(Folha1!G95,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <f>IF(J91=0,IF(Folha1!H95&lt;0.6,-1,IF(Folha1!H95&gt;1.1,1,0)),IF(Folha1!H95&lt;0.7,-1,IF(Folha1!H95&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J91=0,IF(Folha1!H95&lt;0.6,0,IF(Folha1!H95&gt;1.1,2,1)),IF(Folha1!H95&lt;0.7,0,IF(Folha1!H95&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I91">
-        <f>IF(Folha1!I95&lt;135,-1,IF(Folha1!I95&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I95&lt;135,0,IF(Folha1!I95&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J91">
         <f>Folha1!J95</f>
@@ -17374,15 +17367,15 @@
       </c>
       <c r="G92">
         <f>VLOOKUP(Folha1!G96,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <f>IF(J92=0,IF(Folha1!H96&lt;0.6,-1,IF(Folha1!H96&gt;1.1,1,0)),IF(Folha1!H96&lt;0.7,-1,IF(Folha1!H96&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J92=0,IF(Folha1!H96&lt;0.6,0,IF(Folha1!H96&gt;1.1,2,1)),IF(Folha1!H96&lt;0.7,0,IF(Folha1!H96&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I92">
-        <f>IF(Folha1!I96&lt;135,-1,IF(Folha1!I96&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I96&lt;135,0,IF(Folha1!I96&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J92">
         <f>Folha1!J96</f>
@@ -17424,15 +17417,15 @@
       </c>
       <c r="G93">
         <f>VLOOKUP(Folha1!G97,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <f>IF(J93=0,IF(Folha1!H97&lt;0.6,-1,IF(Folha1!H97&gt;1.1,1,0)),IF(Folha1!H97&lt;0.7,-1,IF(Folha1!H97&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J93=0,IF(Folha1!H97&lt;0.6,0,IF(Folha1!H97&gt;1.1,2,1)),IF(Folha1!H97&lt;0.7,0,IF(Folha1!H97&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I93">
-        <f>IF(Folha1!I97&lt;135,-1,IF(Folha1!I97&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I97&lt;135,0,IF(Folha1!I97&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J93">
         <f>Folha1!J97</f>
@@ -17474,15 +17467,15 @@
       </c>
       <c r="G94">
         <f>VLOOKUP(Folha1!G98,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <f>IF(J94=0,IF(Folha1!H98&lt;0.6,-1,IF(Folha1!H98&gt;1.1,1,0)),IF(Folha1!H98&lt;0.7,-1,IF(Folha1!H98&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J94=0,IF(Folha1!H98&lt;0.6,0,IF(Folha1!H98&gt;1.1,2,1)),IF(Folha1!H98&lt;0.7,0,IF(Folha1!H98&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I94">
-        <f>IF(Folha1!I98&lt;135,-1,IF(Folha1!I98&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I98&lt;135,0,IF(Folha1!I98&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J94">
         <f>Folha1!J98</f>
@@ -17524,15 +17517,15 @@
       </c>
       <c r="G95">
         <f>VLOOKUP(Folha1!G99,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <f>IF(J95=0,IF(Folha1!H99&lt;0.6,-1,IF(Folha1!H99&gt;1.1,1,0)),IF(Folha1!H99&lt;0.7,-1,IF(Folha1!H99&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J95=0,IF(Folha1!H99&lt;0.6,0,IF(Folha1!H99&gt;1.1,2,1)),IF(Folha1!H99&lt;0.7,0,IF(Folha1!H99&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I95">
-        <f>IF(Folha1!I99&lt;135,-1,IF(Folha1!I99&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I99&lt;135,0,IF(Folha1!I99&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J95">
         <f>Folha1!J99</f>
@@ -17574,15 +17567,15 @@
       </c>
       <c r="G96">
         <f>VLOOKUP(Folha1!G100,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <f>IF(J96=0,IF(Folha1!H100&lt;0.6,-1,IF(Folha1!H100&gt;1.1,1,0)),IF(Folha1!H100&lt;0.7,-1,IF(Folha1!H100&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J96=0,IF(Folha1!H100&lt;0.6,0,IF(Folha1!H100&gt;1.1,2,1)),IF(Folha1!H100&lt;0.7,0,IF(Folha1!H100&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I96">
-        <f>IF(Folha1!I100&lt;135,-1,IF(Folha1!I100&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I100&lt;135,0,IF(Folha1!I100&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J96">
         <f>Folha1!J100</f>
@@ -17624,15 +17617,15 @@
       </c>
       <c r="G97">
         <f>VLOOKUP(Folha1!G101,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <f>IF(J97=0,IF(Folha1!H101&lt;0.6,-1,IF(Folha1!H101&gt;1.1,1,0)),IF(Folha1!H101&lt;0.7,-1,IF(Folha1!H101&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J97=0,IF(Folha1!H101&lt;0.6,0,IF(Folha1!H101&gt;1.1,2,1)),IF(Folha1!H101&lt;0.7,0,IF(Folha1!H101&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I97">
-        <f>IF(Folha1!I101&lt;135,-1,IF(Folha1!I101&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I101&lt;135,0,IF(Folha1!I101&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J97">
         <f>Folha1!J101</f>
@@ -17674,15 +17667,15 @@
       </c>
       <c r="G98">
         <f>VLOOKUP(Folha1!G102,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <f>IF(J98=0,IF(Folha1!H102&lt;0.6,-1,IF(Folha1!H102&gt;1.1,1,0)),IF(Folha1!H102&lt;0.7,-1,IF(Folha1!H102&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J98=0,IF(Folha1!H102&lt;0.6,0,IF(Folha1!H102&gt;1.1,2,1)),IF(Folha1!H102&lt;0.7,0,IF(Folha1!H102&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I98">
-        <f>IF(Folha1!I102&lt;135,-1,IF(Folha1!I102&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I102&lt;135,0,IF(Folha1!I102&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J98">
         <f>Folha1!J102</f>
@@ -17724,15 +17717,15 @@
       </c>
       <c r="G99">
         <f>VLOOKUP(Folha1!G103,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <f>IF(J99=0,IF(Folha1!H103&lt;0.6,-1,IF(Folha1!H103&gt;1.1,1,0)),IF(Folha1!H103&lt;0.7,-1,IF(Folha1!H103&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J99=0,IF(Folha1!H103&lt;0.6,0,IF(Folha1!H103&gt;1.1,2,1)),IF(Folha1!H103&lt;0.7,0,IF(Folha1!H103&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I99">
-        <f>IF(Folha1!I103&lt;135,-1,IF(Folha1!I103&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I103&lt;135,0,IF(Folha1!I103&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J99">
         <f>Folha1!J103</f>
@@ -17774,15 +17767,15 @@
       </c>
       <c r="G100">
         <f>VLOOKUP(Folha1!G104,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <f>IF(J100=0,IF(Folha1!H104&lt;0.6,-1,IF(Folha1!H104&gt;1.1,1,0)),IF(Folha1!H104&lt;0.7,-1,IF(Folha1!H104&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J100=0,IF(Folha1!H104&lt;0.6,0,IF(Folha1!H104&gt;1.1,2,1)),IF(Folha1!H104&lt;0.7,0,IF(Folha1!H104&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I100">
-        <f>IF(Folha1!I104&lt;135,-1,IF(Folha1!I104&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I104&lt;135,0,IF(Folha1!I104&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J100">
         <f>Folha1!J104</f>
@@ -17824,15 +17817,15 @@
       </c>
       <c r="G101">
         <f>VLOOKUP(Folha1!G105,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <f>IF(J101=0,IF(Folha1!H105&lt;0.6,-1,IF(Folha1!H105&gt;1.1,1,0)),IF(Folha1!H105&lt;0.7,-1,IF(Folha1!H105&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J101=0,IF(Folha1!H105&lt;0.6,0,IF(Folha1!H105&gt;1.1,2,1)),IF(Folha1!H105&lt;0.7,0,IF(Folha1!H105&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I101">
-        <f>IF(Folha1!I105&lt;135,-1,IF(Folha1!I105&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I105&lt;135,0,IF(Folha1!I105&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J101">
         <f>Folha1!J105</f>
@@ -17874,15 +17867,15 @@
       </c>
       <c r="G102">
         <f>VLOOKUP(Folha1!G106,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <f>IF(J102=0,IF(Folha1!H106&lt;0.6,-1,IF(Folha1!H106&gt;1.1,1,0)),IF(Folha1!H106&lt;0.7,-1,IF(Folha1!H106&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J102=0,IF(Folha1!H106&lt;0.6,0,IF(Folha1!H106&gt;1.1,2,1)),IF(Folha1!H106&lt;0.7,0,IF(Folha1!H106&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I102">
-        <f>IF(Folha1!I106&lt;135,-1,IF(Folha1!I106&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I106&lt;135,0,IF(Folha1!I106&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J102">
         <f>Folha1!J106</f>
@@ -17924,15 +17917,15 @@
       </c>
       <c r="G103">
         <f>VLOOKUP(Folha1!G107,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <f>IF(J103=0,IF(Folha1!H107&lt;0.6,-1,IF(Folha1!H107&gt;1.1,1,0)),IF(Folha1!H107&lt;0.7,-1,IF(Folha1!H107&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J103=0,IF(Folha1!H107&lt;0.6,0,IF(Folha1!H107&gt;1.1,2,1)),IF(Folha1!H107&lt;0.7,0,IF(Folha1!H107&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I103">
-        <f>IF(Folha1!I107&lt;135,-1,IF(Folha1!I107&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I107&lt;135,0,IF(Folha1!I107&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J103">
         <f>Folha1!J107</f>
@@ -17974,15 +17967,15 @@
       </c>
       <c r="G104">
         <f>VLOOKUP(Folha1!G108,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <f>IF(J104=0,IF(Folha1!H108&lt;0.6,-1,IF(Folha1!H108&gt;1.1,1,0)),IF(Folha1!H108&lt;0.7,-1,IF(Folha1!H108&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J104=0,IF(Folha1!H108&lt;0.6,0,IF(Folha1!H108&gt;1.1,2,1)),IF(Folha1!H108&lt;0.7,0,IF(Folha1!H108&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I104">
-        <f>IF(Folha1!I108&lt;135,-1,IF(Folha1!I108&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I108&lt;135,0,IF(Folha1!I108&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J104">
         <f>Folha1!J108</f>
@@ -18024,15 +18017,15 @@
       </c>
       <c r="G105">
         <f>VLOOKUP(Folha1!G109,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <f>IF(J105=0,IF(Folha1!H109&lt;0.6,-1,IF(Folha1!H109&gt;1.1,1,0)),IF(Folha1!H109&lt;0.7,-1,IF(Folha1!H109&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J105=0,IF(Folha1!H109&lt;0.6,0,IF(Folha1!H109&gt;1.1,2,1)),IF(Folha1!H109&lt;0.7,0,IF(Folha1!H109&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I105">
-        <f>IF(Folha1!I109&lt;135,-1,IF(Folha1!I109&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I109&lt;135,0,IF(Folha1!I109&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J105">
         <f>Folha1!J109</f>
@@ -18074,15 +18067,15 @@
       </c>
       <c r="G106">
         <f>VLOOKUP(Folha1!G110,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <f>IF(J106=0,IF(Folha1!H110&lt;0.6,-1,IF(Folha1!H110&gt;1.1,1,0)),IF(Folha1!H110&lt;0.7,-1,IF(Folha1!H110&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J106=0,IF(Folha1!H110&lt;0.6,0,IF(Folha1!H110&gt;1.1,2,1)),IF(Folha1!H110&lt;0.7,0,IF(Folha1!H110&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I106">
-        <f>IF(Folha1!I110&lt;135,-1,IF(Folha1!I110&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I110&lt;135,0,IF(Folha1!I110&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J106">
         <f>Folha1!J110</f>
@@ -18124,15 +18117,15 @@
       </c>
       <c r="G107">
         <f>VLOOKUP(Folha1!G111,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <f>IF(J107=0,IF(Folha1!H111&lt;0.6,-1,IF(Folha1!H111&gt;1.1,1,0)),IF(Folha1!H111&lt;0.7,-1,IF(Folha1!H111&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J107=0,IF(Folha1!H111&lt;0.6,0,IF(Folha1!H111&gt;1.1,2,1)),IF(Folha1!H111&lt;0.7,0,IF(Folha1!H111&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I107">
-        <f>IF(Folha1!I111&lt;135,-1,IF(Folha1!I111&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I111&lt;135,0,IF(Folha1!I111&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J107">
         <f>Folha1!J111</f>
@@ -18174,15 +18167,15 @@
       </c>
       <c r="G108">
         <f>VLOOKUP(Folha1!G112,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <f>IF(J108=0,IF(Folha1!H112&lt;0.6,-1,IF(Folha1!H112&gt;1.1,1,0)),IF(Folha1!H112&lt;0.7,-1,IF(Folha1!H112&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J108=0,IF(Folha1!H112&lt;0.6,0,IF(Folha1!H112&gt;1.1,2,1)),IF(Folha1!H112&lt;0.7,0,IF(Folha1!H112&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I108">
-        <f>IF(Folha1!I112&lt;135,-1,IF(Folha1!I112&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I112&lt;135,0,IF(Folha1!I112&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J108">
         <f>Folha1!J112</f>
@@ -18224,15 +18217,15 @@
       </c>
       <c r="G109">
         <f>VLOOKUP(Folha1!G113,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <f>IF(J109=0,IF(Folha1!H113&lt;0.6,-1,IF(Folha1!H113&gt;1.1,1,0)),IF(Folha1!H113&lt;0.7,-1,IF(Folha1!H113&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J109=0,IF(Folha1!H113&lt;0.6,0,IF(Folha1!H113&gt;1.1,2,1)),IF(Folha1!H113&lt;0.7,0,IF(Folha1!H113&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I109">
-        <f>IF(Folha1!I113&lt;135,-1,IF(Folha1!I113&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I113&lt;135,0,IF(Folha1!I113&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J109">
         <f>Folha1!J113</f>
@@ -18274,15 +18267,15 @@
       </c>
       <c r="G110">
         <f>VLOOKUP(Folha1!G114,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <f>IF(J110=0,IF(Folha1!H114&lt;0.6,-1,IF(Folha1!H114&gt;1.1,1,0)),IF(Folha1!H114&lt;0.7,-1,IF(Folha1!H114&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J110=0,IF(Folha1!H114&lt;0.6,0,IF(Folha1!H114&gt;1.1,2,1)),IF(Folha1!H114&lt;0.7,0,IF(Folha1!H114&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I110">
-        <f>IF(Folha1!I114&lt;135,-1,IF(Folha1!I114&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I114&lt;135,0,IF(Folha1!I114&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J110">
         <f>Folha1!J114</f>
@@ -18324,15 +18317,15 @@
       </c>
       <c r="G111">
         <f>VLOOKUP(Folha1!G115,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <f>IF(J111=0,IF(Folha1!H115&lt;0.6,-1,IF(Folha1!H115&gt;1.1,1,0)),IF(Folha1!H115&lt;0.7,-1,IF(Folha1!H115&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J111=0,IF(Folha1!H115&lt;0.6,0,IF(Folha1!H115&gt;1.1,2,1)),IF(Folha1!H115&lt;0.7,0,IF(Folha1!H115&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I111">
-        <f>IF(Folha1!I115&lt;135,-1,IF(Folha1!I115&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I115&lt;135,0,IF(Folha1!I115&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J111">
         <f>Folha1!J115</f>
@@ -18374,15 +18367,15 @@
       </c>
       <c r="G112">
         <f>VLOOKUP(Folha1!G116,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <f>IF(J112=0,IF(Folha1!H116&lt;0.6,-1,IF(Folha1!H116&gt;1.1,1,0)),IF(Folha1!H116&lt;0.7,-1,IF(Folha1!H116&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J112=0,IF(Folha1!H116&lt;0.6,0,IF(Folha1!H116&gt;1.1,2,1)),IF(Folha1!H116&lt;0.7,0,IF(Folha1!H116&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I112">
-        <f>IF(Folha1!I116&lt;135,-1,IF(Folha1!I116&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I116&lt;135,0,IF(Folha1!I116&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J112">
         <f>Folha1!J116</f>
@@ -18424,15 +18417,15 @@
       </c>
       <c r="G113">
         <f>VLOOKUP(Folha1!G117,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <f>IF(J113=0,IF(Folha1!H117&lt;0.6,-1,IF(Folha1!H117&gt;1.1,1,0)),IF(Folha1!H117&lt;0.7,-1,IF(Folha1!H117&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J113=0,IF(Folha1!H117&lt;0.6,0,IF(Folha1!H117&gt;1.1,2,1)),IF(Folha1!H117&lt;0.7,0,IF(Folha1!H117&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I113">
-        <f>IF(Folha1!I117&lt;135,-1,IF(Folha1!I117&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I117&lt;135,0,IF(Folha1!I117&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J113">
         <f>Folha1!J117</f>
@@ -18474,15 +18467,15 @@
       </c>
       <c r="G114">
         <f>VLOOKUP(Folha1!G118,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <f>IF(J114=0,IF(Folha1!H118&lt;0.6,-1,IF(Folha1!H118&gt;1.1,1,0)),IF(Folha1!H118&lt;0.7,-1,IF(Folha1!H118&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J114=0,IF(Folha1!H118&lt;0.6,0,IF(Folha1!H118&gt;1.1,2,1)),IF(Folha1!H118&lt;0.7,0,IF(Folha1!H118&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I114">
-        <f>IF(Folha1!I118&lt;135,-1,IF(Folha1!I118&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I118&lt;135,0,IF(Folha1!I118&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J114">
         <f>Folha1!J118</f>
@@ -18524,15 +18517,15 @@
       </c>
       <c r="G115">
         <f>VLOOKUP(Folha1!G119,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <f>IF(J115=0,IF(Folha1!H119&lt;0.6,-1,IF(Folha1!H119&gt;1.1,1,0)),IF(Folha1!H119&lt;0.7,-1,IF(Folha1!H119&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J115=0,IF(Folha1!H119&lt;0.6,0,IF(Folha1!H119&gt;1.1,2,1)),IF(Folha1!H119&lt;0.7,0,IF(Folha1!H119&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I115">
-        <f>IF(Folha1!I119&lt;135,-1,IF(Folha1!I119&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I119&lt;135,0,IF(Folha1!I119&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J115">
         <f>Folha1!J119</f>
@@ -18574,15 +18567,15 @@
       </c>
       <c r="G116">
         <f>VLOOKUP(Folha1!G120,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <f>IF(J116=0,IF(Folha1!H120&lt;0.6,-1,IF(Folha1!H120&gt;1.1,1,0)),IF(Folha1!H120&lt;0.7,-1,IF(Folha1!H120&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J116=0,IF(Folha1!H120&lt;0.6,0,IF(Folha1!H120&gt;1.1,2,1)),IF(Folha1!H120&lt;0.7,0,IF(Folha1!H120&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I116">
-        <f>IF(Folha1!I120&lt;135,-1,IF(Folha1!I120&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I120&lt;135,0,IF(Folha1!I120&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J116">
         <f>Folha1!J120</f>
@@ -18624,15 +18617,15 @@
       </c>
       <c r="G117">
         <f>VLOOKUP(Folha1!G121,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <f>IF(J117=0,IF(Folha1!H121&lt;0.6,-1,IF(Folha1!H121&gt;1.1,1,0)),IF(Folha1!H121&lt;0.7,-1,IF(Folha1!H121&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J117=0,IF(Folha1!H121&lt;0.6,0,IF(Folha1!H121&gt;1.1,2,1)),IF(Folha1!H121&lt;0.7,0,IF(Folha1!H121&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I117">
-        <f>IF(Folha1!I121&lt;135,-1,IF(Folha1!I121&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I121&lt;135,0,IF(Folha1!I121&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J117">
         <f>Folha1!J121</f>
@@ -18674,15 +18667,15 @@
       </c>
       <c r="G118">
         <f>VLOOKUP(Folha1!G122,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <f>IF(J118=0,IF(Folha1!H122&lt;0.6,-1,IF(Folha1!H122&gt;1.1,1,0)),IF(Folha1!H122&lt;0.7,-1,IF(Folha1!H122&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J118=0,IF(Folha1!H122&lt;0.6,0,IF(Folha1!H122&gt;1.1,2,1)),IF(Folha1!H122&lt;0.7,0,IF(Folha1!H122&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I118">
-        <f>IF(Folha1!I122&lt;135,-1,IF(Folha1!I122&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I122&lt;135,0,IF(Folha1!I122&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J118">
         <f>Folha1!J122</f>
@@ -18724,15 +18717,15 @@
       </c>
       <c r="G119">
         <f>VLOOKUP(Folha1!G123,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <f>IF(J119=0,IF(Folha1!H123&lt;0.6,-1,IF(Folha1!H123&gt;1.1,1,0)),IF(Folha1!H123&lt;0.7,-1,IF(Folha1!H123&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J119=0,IF(Folha1!H123&lt;0.6,0,IF(Folha1!H123&gt;1.1,2,1)),IF(Folha1!H123&lt;0.7,0,IF(Folha1!H123&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I119">
-        <f>IF(Folha1!I123&lt;135,-1,IF(Folha1!I123&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I123&lt;135,0,IF(Folha1!I123&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J119">
         <f>Folha1!J123</f>
@@ -18774,15 +18767,15 @@
       </c>
       <c r="G120">
         <f>VLOOKUP(Folha1!G124,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <f>IF(J120=0,IF(Folha1!H124&lt;0.6,-1,IF(Folha1!H124&gt;1.1,1,0)),IF(Folha1!H124&lt;0.7,-1,IF(Folha1!H124&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J120=0,IF(Folha1!H124&lt;0.6,0,IF(Folha1!H124&gt;1.1,2,1)),IF(Folha1!H124&lt;0.7,0,IF(Folha1!H124&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I120">
-        <f>IF(Folha1!I124&lt;135,-1,IF(Folha1!I124&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I124&lt;135,0,IF(Folha1!I124&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J120">
         <f>Folha1!J124</f>
@@ -18824,15 +18817,15 @@
       </c>
       <c r="G121">
         <f>VLOOKUP(Folha1!G125,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <f>IF(J121=0,IF(Folha1!H125&lt;0.6,-1,IF(Folha1!H125&gt;1.1,1,0)),IF(Folha1!H125&lt;0.7,-1,IF(Folha1!H125&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J121=0,IF(Folha1!H125&lt;0.6,0,IF(Folha1!H125&gt;1.1,2,1)),IF(Folha1!H125&lt;0.7,0,IF(Folha1!H125&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I121">
-        <f>IF(Folha1!I125&lt;135,-1,IF(Folha1!I125&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I125&lt;135,0,IF(Folha1!I125&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J121">
         <f>Folha1!J125</f>
@@ -18874,15 +18867,15 @@
       </c>
       <c r="G122">
         <f>VLOOKUP(Folha1!G126,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <f>IF(J122=0,IF(Folha1!H126&lt;0.6,-1,IF(Folha1!H126&gt;1.1,1,0)),IF(Folha1!H126&lt;0.7,-1,IF(Folha1!H126&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J122=0,IF(Folha1!H126&lt;0.6,0,IF(Folha1!H126&gt;1.1,2,1)),IF(Folha1!H126&lt;0.7,0,IF(Folha1!H126&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I122">
-        <f>IF(Folha1!I126&lt;135,-1,IF(Folha1!I126&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I126&lt;135,0,IF(Folha1!I126&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J122">
         <f>Folha1!J126</f>
@@ -18924,15 +18917,15 @@
       </c>
       <c r="G123">
         <f>VLOOKUP(Folha1!G127,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <f>IF(J123=0,IF(Folha1!H127&lt;0.6,-1,IF(Folha1!H127&gt;1.1,1,0)),IF(Folha1!H127&lt;0.7,-1,IF(Folha1!H127&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J123=0,IF(Folha1!H127&lt;0.6,0,IF(Folha1!H127&gt;1.1,2,1)),IF(Folha1!H127&lt;0.7,0,IF(Folha1!H127&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I123">
-        <f>IF(Folha1!I127&lt;135,-1,IF(Folha1!I127&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I127&lt;135,0,IF(Folha1!I127&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J123">
         <f>Folha1!J127</f>
@@ -18974,15 +18967,15 @@
       </c>
       <c r="G124">
         <f>VLOOKUP(Folha1!G128,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <f>IF(J124=0,IF(Folha1!H128&lt;0.6,-1,IF(Folha1!H128&gt;1.1,1,0)),IF(Folha1!H128&lt;0.7,-1,IF(Folha1!H128&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J124=0,IF(Folha1!H128&lt;0.6,0,IF(Folha1!H128&gt;1.1,2,1)),IF(Folha1!H128&lt;0.7,0,IF(Folha1!H128&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I124">
-        <f>IF(Folha1!I128&lt;135,-1,IF(Folha1!I128&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I128&lt;135,0,IF(Folha1!I128&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J124">
         <f>Folha1!J128</f>
@@ -19024,15 +19017,15 @@
       </c>
       <c r="G125">
         <f>VLOOKUP(Folha1!G129,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <f>IF(J125=0,IF(Folha1!H129&lt;0.6,-1,IF(Folha1!H129&gt;1.1,1,0)),IF(Folha1!H129&lt;0.7,-1,IF(Folha1!H129&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J125=0,IF(Folha1!H129&lt;0.6,0,IF(Folha1!H129&gt;1.1,2,1)),IF(Folha1!H129&lt;0.7,0,IF(Folha1!H129&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I125">
-        <f>IF(Folha1!I129&lt;135,-1,IF(Folha1!I129&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I129&lt;135,0,IF(Folha1!I129&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J125">
         <f>Folha1!J129</f>
@@ -19074,15 +19067,15 @@
       </c>
       <c r="G126">
         <f>VLOOKUP(Folha1!G130,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <f>IF(J126=0,IF(Folha1!H130&lt;0.6,-1,IF(Folha1!H130&gt;1.1,1,0)),IF(Folha1!H130&lt;0.7,-1,IF(Folha1!H130&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J126=0,IF(Folha1!H130&lt;0.6,0,IF(Folha1!H130&gt;1.1,2,1)),IF(Folha1!H130&lt;0.7,0,IF(Folha1!H130&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I126">
-        <f>IF(Folha1!I130&lt;135,-1,IF(Folha1!I130&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I130&lt;135,0,IF(Folha1!I130&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J126">
         <f>Folha1!J130</f>
@@ -19124,15 +19117,15 @@
       </c>
       <c r="G127">
         <f>VLOOKUP(Folha1!G131,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <f>IF(J127=0,IF(Folha1!H131&lt;0.6,-1,IF(Folha1!H131&gt;1.1,1,0)),IF(Folha1!H131&lt;0.7,-1,IF(Folha1!H131&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J127=0,IF(Folha1!H131&lt;0.6,0,IF(Folha1!H131&gt;1.1,2,1)),IF(Folha1!H131&lt;0.7,0,IF(Folha1!H131&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I127">
-        <f>IF(Folha1!I131&lt;135,-1,IF(Folha1!I131&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I131&lt;135,0,IF(Folha1!I131&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J127">
         <f>Folha1!J131</f>
@@ -19174,15 +19167,15 @@
       </c>
       <c r="G128">
         <f>VLOOKUP(Folha1!G132,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <f>IF(J128=0,IF(Folha1!H132&lt;0.6,-1,IF(Folha1!H132&gt;1.1,1,0)),IF(Folha1!H132&lt;0.7,-1,IF(Folha1!H132&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J128=0,IF(Folha1!H132&lt;0.6,0,IF(Folha1!H132&gt;1.1,2,1)),IF(Folha1!H132&lt;0.7,0,IF(Folha1!H132&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I128">
-        <f>IF(Folha1!I132&lt;135,-1,IF(Folha1!I132&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I132&lt;135,0,IF(Folha1!I132&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J128">
         <f>Folha1!J132</f>
@@ -19224,15 +19217,15 @@
       </c>
       <c r="G129">
         <f>VLOOKUP(Folha1!G133,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <f>IF(J129=0,IF(Folha1!H133&lt;0.6,-1,IF(Folha1!H133&gt;1.1,1,0)),IF(Folha1!H133&lt;0.7,-1,IF(Folha1!H133&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J129=0,IF(Folha1!H133&lt;0.6,0,IF(Folha1!H133&gt;1.1,2,1)),IF(Folha1!H133&lt;0.7,0,IF(Folha1!H133&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I129">
-        <f>IF(Folha1!I133&lt;135,-1,IF(Folha1!I133&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I133&lt;135,0,IF(Folha1!I133&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J129">
         <f>Folha1!J133</f>
@@ -19274,15 +19267,15 @@
       </c>
       <c r="G130">
         <f>VLOOKUP(Folha1!G134,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <f>IF(J130=0,IF(Folha1!H134&lt;0.6,-1,IF(Folha1!H134&gt;1.1,1,0)),IF(Folha1!H134&lt;0.7,-1,IF(Folha1!H134&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J130=0,IF(Folha1!H134&lt;0.6,0,IF(Folha1!H134&gt;1.1,2,1)),IF(Folha1!H134&lt;0.7,0,IF(Folha1!H134&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I130">
-        <f>IF(Folha1!I134&lt;135,-1,IF(Folha1!I134&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I134&lt;135,0,IF(Folha1!I134&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J130">
         <f>Folha1!J134</f>
@@ -19324,15 +19317,15 @@
       </c>
       <c r="G131">
         <f>VLOOKUP(Folha1!G135,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <f>IF(J131=0,IF(Folha1!H135&lt;0.6,-1,IF(Folha1!H135&gt;1.1,1,0)),IF(Folha1!H135&lt;0.7,-1,IF(Folha1!H135&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J131=0,IF(Folha1!H135&lt;0.6,0,IF(Folha1!H135&gt;1.1,2,1)),IF(Folha1!H135&lt;0.7,0,IF(Folha1!H135&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I131">
-        <f>IF(Folha1!I135&lt;135,-1,IF(Folha1!I135&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I135&lt;135,0,IF(Folha1!I135&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J131">
         <f>Folha1!J135</f>
@@ -19374,15 +19367,15 @@
       </c>
       <c r="G132">
         <f>VLOOKUP(Folha1!G136,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <f>IF(J132=0,IF(Folha1!H136&lt;0.6,-1,IF(Folha1!H136&gt;1.1,1,0)),IF(Folha1!H136&lt;0.7,-1,IF(Folha1!H136&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J132=0,IF(Folha1!H136&lt;0.6,0,IF(Folha1!H136&gt;1.1,2,1)),IF(Folha1!H136&lt;0.7,0,IF(Folha1!H136&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I132">
-        <f>IF(Folha1!I136&lt;135,-1,IF(Folha1!I136&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I136&lt;135,0,IF(Folha1!I136&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J132">
         <f>Folha1!J136</f>
@@ -19424,15 +19417,15 @@
       </c>
       <c r="G133">
         <f>VLOOKUP(Folha1!G137,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <f>IF(J133=0,IF(Folha1!H137&lt;0.6,-1,IF(Folha1!H137&gt;1.1,1,0)),IF(Folha1!H137&lt;0.7,-1,IF(Folha1!H137&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J133=0,IF(Folha1!H137&lt;0.6,0,IF(Folha1!H137&gt;1.1,2,1)),IF(Folha1!H137&lt;0.7,0,IF(Folha1!H137&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I133">
-        <f>IF(Folha1!I137&lt;135,-1,IF(Folha1!I137&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I137&lt;135,0,IF(Folha1!I137&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J133">
         <f>Folha1!J137</f>
@@ -19474,15 +19467,15 @@
       </c>
       <c r="G134">
         <f>VLOOKUP(Folha1!G138,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <f>IF(J134=0,IF(Folha1!H138&lt;0.6,-1,IF(Folha1!H138&gt;1.1,1,0)),IF(Folha1!H138&lt;0.7,-1,IF(Folha1!H138&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J134=0,IF(Folha1!H138&lt;0.6,0,IF(Folha1!H138&gt;1.1,2,1)),IF(Folha1!H138&lt;0.7,0,IF(Folha1!H138&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I134">
-        <f>IF(Folha1!I138&lt;135,-1,IF(Folha1!I138&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I138&lt;135,0,IF(Folha1!I138&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J134">
         <f>Folha1!J138</f>
@@ -19524,15 +19517,15 @@
       </c>
       <c r="G135">
         <f>VLOOKUP(Folha1!G139,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <f>IF(J135=0,IF(Folha1!H139&lt;0.6,-1,IF(Folha1!H139&gt;1.1,1,0)),IF(Folha1!H139&lt;0.7,-1,IF(Folha1!H139&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J135=0,IF(Folha1!H139&lt;0.6,0,IF(Folha1!H139&gt;1.1,2,1)),IF(Folha1!H139&lt;0.7,0,IF(Folha1!H139&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I135">
-        <f>IF(Folha1!I139&lt;135,-1,IF(Folha1!I139&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I139&lt;135,0,IF(Folha1!I139&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J135">
         <f>Folha1!J139</f>
@@ -19574,15 +19567,15 @@
       </c>
       <c r="G136">
         <f>VLOOKUP(Folha1!G140,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <f>IF(J136=0,IF(Folha1!H140&lt;0.6,-1,IF(Folha1!H140&gt;1.1,1,0)),IF(Folha1!H140&lt;0.7,-1,IF(Folha1!H140&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J136=0,IF(Folha1!H140&lt;0.6,0,IF(Folha1!H140&gt;1.1,2,1)),IF(Folha1!H140&lt;0.7,0,IF(Folha1!H140&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I136">
-        <f>IF(Folha1!I140&lt;135,-1,IF(Folha1!I140&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I140&lt;135,0,IF(Folha1!I140&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J136">
         <f>Folha1!J140</f>
@@ -19624,15 +19617,15 @@
       </c>
       <c r="G137">
         <f>VLOOKUP(Folha1!G141,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <f>IF(J137=0,IF(Folha1!H141&lt;0.6,-1,IF(Folha1!H141&gt;1.1,1,0)),IF(Folha1!H141&lt;0.7,-1,IF(Folha1!H141&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J137=0,IF(Folha1!H141&lt;0.6,0,IF(Folha1!H141&gt;1.1,2,1)),IF(Folha1!H141&lt;0.7,0,IF(Folha1!H141&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I137">
-        <f>IF(Folha1!I141&lt;135,-1,IF(Folha1!I141&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I141&lt;135,0,IF(Folha1!I141&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J137">
         <f>Folha1!J141</f>
@@ -19674,15 +19667,15 @@
       </c>
       <c r="G138">
         <f>VLOOKUP(Folha1!G142,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <f>IF(J138=0,IF(Folha1!H142&lt;0.6,-1,IF(Folha1!H142&gt;1.1,1,0)),IF(Folha1!H142&lt;0.7,-1,IF(Folha1!H142&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J138=0,IF(Folha1!H142&lt;0.6,0,IF(Folha1!H142&gt;1.1,2,1)),IF(Folha1!H142&lt;0.7,0,IF(Folha1!H142&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I138">
-        <f>IF(Folha1!I142&lt;135,-1,IF(Folha1!I142&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I142&lt;135,0,IF(Folha1!I142&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J138">
         <f>Folha1!J142</f>
@@ -19724,15 +19717,15 @@
       </c>
       <c r="G139">
         <f>VLOOKUP(Folha1!G143,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <f>IF(J139=0,IF(Folha1!H143&lt;0.6,-1,IF(Folha1!H143&gt;1.1,1,0)),IF(Folha1!H143&lt;0.7,-1,IF(Folha1!H143&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J139=0,IF(Folha1!H143&lt;0.6,0,IF(Folha1!H143&gt;1.1,2,1)),IF(Folha1!H143&lt;0.7,0,IF(Folha1!H143&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I139">
-        <f>IF(Folha1!I143&lt;135,-1,IF(Folha1!I143&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I143&lt;135,0,IF(Folha1!I143&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J139">
         <f>Folha1!J143</f>
@@ -19774,15 +19767,15 @@
       </c>
       <c r="G140">
         <f>VLOOKUP(Folha1!G144,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <f>IF(J140=0,IF(Folha1!H144&lt;0.6,-1,IF(Folha1!H144&gt;1.1,1,0)),IF(Folha1!H144&lt;0.7,-1,IF(Folha1!H144&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J140=0,IF(Folha1!H144&lt;0.6,0,IF(Folha1!H144&gt;1.1,2,1)),IF(Folha1!H144&lt;0.7,0,IF(Folha1!H144&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I140">
-        <f>IF(Folha1!I144&lt;135,-1,IF(Folha1!I144&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I144&lt;135,0,IF(Folha1!I144&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J140">
         <f>Folha1!J144</f>
@@ -19824,15 +19817,15 @@
       </c>
       <c r="G141">
         <f>VLOOKUP(Folha1!G145,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <f>IF(J141=0,IF(Folha1!H145&lt;0.6,-1,IF(Folha1!H145&gt;1.1,1,0)),IF(Folha1!H145&lt;0.7,-1,IF(Folha1!H145&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J141=0,IF(Folha1!H145&lt;0.6,0,IF(Folha1!H145&gt;1.1,2,1)),IF(Folha1!H145&lt;0.7,0,IF(Folha1!H145&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I141">
-        <f>IF(Folha1!I145&lt;135,-1,IF(Folha1!I145&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I145&lt;135,0,IF(Folha1!I145&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J141">
         <f>Folha1!J145</f>
@@ -19874,15 +19867,15 @@
       </c>
       <c r="G142">
         <f>VLOOKUP(Folha1!G146,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <f>IF(J142=0,IF(Folha1!H146&lt;0.6,-1,IF(Folha1!H146&gt;1.1,1,0)),IF(Folha1!H146&lt;0.7,-1,IF(Folha1!H146&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J142=0,IF(Folha1!H146&lt;0.6,0,IF(Folha1!H146&gt;1.1,2,1)),IF(Folha1!H146&lt;0.7,0,IF(Folha1!H146&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I142">
-        <f>IF(Folha1!I146&lt;135,-1,IF(Folha1!I146&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I146&lt;135,0,IF(Folha1!I146&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J142">
         <f>Folha1!J146</f>
@@ -19924,15 +19917,15 @@
       </c>
       <c r="G143">
         <f>VLOOKUP(Folha1!G147,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <f>IF(J143=0,IF(Folha1!H147&lt;0.6,-1,IF(Folha1!H147&gt;1.1,1,0)),IF(Folha1!H147&lt;0.7,-1,IF(Folha1!H147&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J143=0,IF(Folha1!H147&lt;0.6,0,IF(Folha1!H147&gt;1.1,2,1)),IF(Folha1!H147&lt;0.7,0,IF(Folha1!H147&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I143">
-        <f>IF(Folha1!I147&lt;135,-1,IF(Folha1!I147&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I147&lt;135,0,IF(Folha1!I147&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J143">
         <f>Folha1!J147</f>
@@ -19974,15 +19967,15 @@
       </c>
       <c r="G144">
         <f>VLOOKUP(Folha1!G148,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <f>IF(J144=0,IF(Folha1!H148&lt;0.6,-1,IF(Folha1!H148&gt;1.1,1,0)),IF(Folha1!H148&lt;0.7,-1,IF(Folha1!H148&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J144=0,IF(Folha1!H148&lt;0.6,0,IF(Folha1!H148&gt;1.1,2,1)),IF(Folha1!H148&lt;0.7,0,IF(Folha1!H148&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I144">
-        <f>IF(Folha1!I148&lt;135,-1,IF(Folha1!I148&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I148&lt;135,0,IF(Folha1!I148&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J144">
         <f>Folha1!J148</f>
@@ -20024,15 +20017,15 @@
       </c>
       <c r="G145">
         <f>VLOOKUP(Folha1!G149,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <f>IF(J145=0,IF(Folha1!H149&lt;0.6,-1,IF(Folha1!H149&gt;1.1,1,0)),IF(Folha1!H149&lt;0.7,-1,IF(Folha1!H149&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J145=0,IF(Folha1!H149&lt;0.6,0,IF(Folha1!H149&gt;1.1,2,1)),IF(Folha1!H149&lt;0.7,0,IF(Folha1!H149&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I145">
-        <f>IF(Folha1!I149&lt;135,-1,IF(Folha1!I149&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I149&lt;135,0,IF(Folha1!I149&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J145">
         <f>Folha1!J149</f>
@@ -20074,15 +20067,15 @@
       </c>
       <c r="G146">
         <f>VLOOKUP(Folha1!G150,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <f>IF(J146=0,IF(Folha1!H150&lt;0.6,-1,IF(Folha1!H150&gt;1.1,1,0)),IF(Folha1!H150&lt;0.7,-1,IF(Folha1!H150&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J146=0,IF(Folha1!H150&lt;0.6,0,IF(Folha1!H150&gt;1.1,2,1)),IF(Folha1!H150&lt;0.7,0,IF(Folha1!H150&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I146">
-        <f>IF(Folha1!I150&lt;135,-1,IF(Folha1!I150&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I150&lt;135,0,IF(Folha1!I150&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J146">
         <f>Folha1!J150</f>
@@ -20124,15 +20117,15 @@
       </c>
       <c r="G147">
         <f>VLOOKUP(Folha1!G151,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <f>IF(J147=0,IF(Folha1!H151&lt;0.6,-1,IF(Folha1!H151&gt;1.1,1,0)),IF(Folha1!H151&lt;0.7,-1,IF(Folha1!H151&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J147=0,IF(Folha1!H151&lt;0.6,0,IF(Folha1!H151&gt;1.1,2,1)),IF(Folha1!H151&lt;0.7,0,IF(Folha1!H151&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I147">
-        <f>IF(Folha1!I151&lt;135,-1,IF(Folha1!I151&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I151&lt;135,0,IF(Folha1!I151&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J147">
         <f>Folha1!J151</f>
@@ -20174,15 +20167,15 @@
       </c>
       <c r="G148">
         <f>VLOOKUP(Folha1!G152,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <f>IF(J148=0,IF(Folha1!H152&lt;0.6,-1,IF(Folha1!H152&gt;1.1,1,0)),IF(Folha1!H152&lt;0.7,-1,IF(Folha1!H152&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J148=0,IF(Folha1!H152&lt;0.6,0,IF(Folha1!H152&gt;1.1,2,1)),IF(Folha1!H152&lt;0.7,0,IF(Folha1!H152&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I148">
-        <f>IF(Folha1!I152&lt;135,-1,IF(Folha1!I152&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I152&lt;135,0,IF(Folha1!I152&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J148">
         <f>Folha1!J152</f>
@@ -20224,15 +20217,15 @@
       </c>
       <c r="G149">
         <f>VLOOKUP(Folha1!G153,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <f>IF(J149=0,IF(Folha1!H153&lt;0.6,-1,IF(Folha1!H153&gt;1.1,1,0)),IF(Folha1!H153&lt;0.7,-1,IF(Folha1!H153&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J149=0,IF(Folha1!H153&lt;0.6,0,IF(Folha1!H153&gt;1.1,2,1)),IF(Folha1!H153&lt;0.7,0,IF(Folha1!H153&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I149">
-        <f>IF(Folha1!I153&lt;135,-1,IF(Folha1!I153&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I153&lt;135,0,IF(Folha1!I153&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J149">
         <f>Folha1!J153</f>
@@ -20274,15 +20267,15 @@
       </c>
       <c r="G150">
         <f>VLOOKUP(Folha1!G154,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <f>IF(J150=0,IF(Folha1!H154&lt;0.6,-1,IF(Folha1!H154&gt;1.1,1,0)),IF(Folha1!H154&lt;0.7,-1,IF(Folha1!H154&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J150=0,IF(Folha1!H154&lt;0.6,0,IF(Folha1!H154&gt;1.1,2,1)),IF(Folha1!H154&lt;0.7,0,IF(Folha1!H154&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I150">
-        <f>IF(Folha1!I154&lt;135,-1,IF(Folha1!I154&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I154&lt;135,0,IF(Folha1!I154&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J150">
         <f>Folha1!J154</f>
@@ -20324,15 +20317,15 @@
       </c>
       <c r="G151">
         <f>VLOOKUP(Folha1!G155,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <f>IF(J151=0,IF(Folha1!H155&lt;0.6,-1,IF(Folha1!H155&gt;1.1,1,0)),IF(Folha1!H155&lt;0.7,-1,IF(Folha1!H155&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J151=0,IF(Folha1!H155&lt;0.6,0,IF(Folha1!H155&gt;1.1,2,1)),IF(Folha1!H155&lt;0.7,0,IF(Folha1!H155&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I151">
-        <f>IF(Folha1!I155&lt;135,-1,IF(Folha1!I155&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I155&lt;135,0,IF(Folha1!I155&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J151">
         <f>Folha1!J155</f>
@@ -20374,15 +20367,15 @@
       </c>
       <c r="G152">
         <f>VLOOKUP(Folha1!G156,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <f>IF(J152=0,IF(Folha1!H156&lt;0.6,-1,IF(Folha1!H156&gt;1.1,1,0)),IF(Folha1!H156&lt;0.7,-1,IF(Folha1!H156&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J152=0,IF(Folha1!H156&lt;0.6,0,IF(Folha1!H156&gt;1.1,2,1)),IF(Folha1!H156&lt;0.7,0,IF(Folha1!H156&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I152">
-        <f>IF(Folha1!I156&lt;135,-1,IF(Folha1!I156&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I156&lt;135,0,IF(Folha1!I156&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J152">
         <f>Folha1!J156</f>
@@ -20424,15 +20417,15 @@
       </c>
       <c r="G153">
         <f>VLOOKUP(Folha1!G157,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <f>IF(J153=0,IF(Folha1!H157&lt;0.6,-1,IF(Folha1!H157&gt;1.1,1,0)),IF(Folha1!H157&lt;0.7,-1,IF(Folha1!H157&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J153=0,IF(Folha1!H157&lt;0.6,0,IF(Folha1!H157&gt;1.1,2,1)),IF(Folha1!H157&lt;0.7,0,IF(Folha1!H157&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I153">
-        <f>IF(Folha1!I157&lt;135,-1,IF(Folha1!I157&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I157&lt;135,0,IF(Folha1!I157&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J153">
         <f>Folha1!J157</f>
@@ -20474,15 +20467,15 @@
       </c>
       <c r="G154">
         <f>VLOOKUP(Folha1!G158,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <f>IF(J154=0,IF(Folha1!H158&lt;0.6,-1,IF(Folha1!H158&gt;1.1,1,0)),IF(Folha1!H158&lt;0.7,-1,IF(Folha1!H158&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J154=0,IF(Folha1!H158&lt;0.6,0,IF(Folha1!H158&gt;1.1,2,1)),IF(Folha1!H158&lt;0.7,0,IF(Folha1!H158&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I154">
-        <f>IF(Folha1!I158&lt;135,-1,IF(Folha1!I158&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I158&lt;135,0,IF(Folha1!I158&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J154">
         <f>Folha1!J158</f>
@@ -20524,15 +20517,15 @@
       </c>
       <c r="G155">
         <f>VLOOKUP(Folha1!G159,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <f>IF(J155=0,IF(Folha1!H159&lt;0.6,-1,IF(Folha1!H159&gt;1.1,1,0)),IF(Folha1!H159&lt;0.7,-1,IF(Folha1!H159&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J155=0,IF(Folha1!H159&lt;0.6,0,IF(Folha1!H159&gt;1.1,2,1)),IF(Folha1!H159&lt;0.7,0,IF(Folha1!H159&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I155">
-        <f>IF(Folha1!I159&lt;135,-1,IF(Folha1!I159&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I159&lt;135,0,IF(Folha1!I159&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J155">
         <f>Folha1!J159</f>
@@ -20574,15 +20567,15 @@
       </c>
       <c r="G156">
         <f>VLOOKUP(Folha1!G160,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <f>IF(J156=0,IF(Folha1!H160&lt;0.6,-1,IF(Folha1!H160&gt;1.1,1,0)),IF(Folha1!H160&lt;0.7,-1,IF(Folha1!H160&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J156=0,IF(Folha1!H160&lt;0.6,0,IF(Folha1!H160&gt;1.1,2,1)),IF(Folha1!H160&lt;0.7,0,IF(Folha1!H160&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I156">
-        <f>IF(Folha1!I160&lt;135,-1,IF(Folha1!I160&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I160&lt;135,0,IF(Folha1!I160&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J156">
         <f>Folha1!J160</f>
@@ -20624,15 +20617,15 @@
       </c>
       <c r="G157">
         <f>VLOOKUP(Folha1!G161,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <f>IF(J157=0,IF(Folha1!H161&lt;0.6,-1,IF(Folha1!H161&gt;1.1,1,0)),IF(Folha1!H161&lt;0.7,-1,IF(Folha1!H161&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J157=0,IF(Folha1!H161&lt;0.6,0,IF(Folha1!H161&gt;1.1,2,1)),IF(Folha1!H161&lt;0.7,0,IF(Folha1!H161&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I157">
-        <f>IF(Folha1!I161&lt;135,-1,IF(Folha1!I161&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I161&lt;135,0,IF(Folha1!I161&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J157">
         <f>Folha1!J161</f>
@@ -20674,15 +20667,15 @@
       </c>
       <c r="G158">
         <f>VLOOKUP(Folha1!G162,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <f>IF(J158=0,IF(Folha1!H162&lt;0.6,-1,IF(Folha1!H162&gt;1.1,1,0)),IF(Folha1!H162&lt;0.7,-1,IF(Folha1!H162&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J158=0,IF(Folha1!H162&lt;0.6,0,IF(Folha1!H162&gt;1.1,2,1)),IF(Folha1!H162&lt;0.7,0,IF(Folha1!H162&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I158">
-        <f>IF(Folha1!I162&lt;135,-1,IF(Folha1!I162&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I162&lt;135,0,IF(Folha1!I162&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J158">
         <f>Folha1!J162</f>
@@ -20724,15 +20717,15 @@
       </c>
       <c r="G159">
         <f>VLOOKUP(Folha1!G163,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <f>IF(J159=0,IF(Folha1!H163&lt;0.6,-1,IF(Folha1!H163&gt;1.1,1,0)),IF(Folha1!H163&lt;0.7,-1,IF(Folha1!H163&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J159=0,IF(Folha1!H163&lt;0.6,0,IF(Folha1!H163&gt;1.1,2,1)),IF(Folha1!H163&lt;0.7,0,IF(Folha1!H163&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I159">
-        <f>IF(Folha1!I163&lt;135,-1,IF(Folha1!I163&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I163&lt;135,0,IF(Folha1!I163&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J159">
         <f>Folha1!J163</f>
@@ -20774,15 +20767,15 @@
       </c>
       <c r="G160">
         <f>VLOOKUP(Folha1!G164,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <f>IF(J160=0,IF(Folha1!H164&lt;0.6,-1,IF(Folha1!H164&gt;1.1,1,0)),IF(Folha1!H164&lt;0.7,-1,IF(Folha1!H164&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J160=0,IF(Folha1!H164&lt;0.6,0,IF(Folha1!H164&gt;1.1,2,1)),IF(Folha1!H164&lt;0.7,0,IF(Folha1!H164&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I160">
-        <f>IF(Folha1!I164&lt;135,-1,IF(Folha1!I164&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I164&lt;135,0,IF(Folha1!I164&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J160">
         <f>Folha1!J164</f>
@@ -20824,15 +20817,15 @@
       </c>
       <c r="G161">
         <f>VLOOKUP(Folha1!G165,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <f>IF(J161=0,IF(Folha1!H165&lt;0.6,-1,IF(Folha1!H165&gt;1.1,1,0)),IF(Folha1!H165&lt;0.7,-1,IF(Folha1!H165&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J161=0,IF(Folha1!H165&lt;0.6,0,IF(Folha1!H165&gt;1.1,2,1)),IF(Folha1!H165&lt;0.7,0,IF(Folha1!H165&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I161">
-        <f>IF(Folha1!I165&lt;135,-1,IF(Folha1!I165&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I165&lt;135,0,IF(Folha1!I165&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J161">
         <f>Folha1!J165</f>
@@ -20874,15 +20867,15 @@
       </c>
       <c r="G162">
         <f>VLOOKUP(Folha1!G166,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <f>IF(J162=0,IF(Folha1!H166&lt;0.6,-1,IF(Folha1!H166&gt;1.1,1,0)),IF(Folha1!H166&lt;0.7,-1,IF(Folha1!H166&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J162=0,IF(Folha1!H166&lt;0.6,0,IF(Folha1!H166&gt;1.1,2,1)),IF(Folha1!H166&lt;0.7,0,IF(Folha1!H166&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I162">
-        <f>IF(Folha1!I166&lt;135,-1,IF(Folha1!I166&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I166&lt;135,0,IF(Folha1!I166&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J162">
         <f>Folha1!J166</f>
@@ -20924,15 +20917,15 @@
       </c>
       <c r="G163">
         <f>VLOOKUP(Folha1!G167,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <f>IF(J163=0,IF(Folha1!H167&lt;0.6,-1,IF(Folha1!H167&gt;1.1,1,0)),IF(Folha1!H167&lt;0.7,-1,IF(Folha1!H167&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J163=0,IF(Folha1!H167&lt;0.6,0,IF(Folha1!H167&gt;1.1,2,1)),IF(Folha1!H167&lt;0.7,0,IF(Folha1!H167&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I163">
-        <f>IF(Folha1!I167&lt;135,-1,IF(Folha1!I167&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I167&lt;135,0,IF(Folha1!I167&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J163">
         <f>Folha1!J167</f>
@@ -20974,15 +20967,15 @@
       </c>
       <c r="G164">
         <f>VLOOKUP(Folha1!G168,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <f>IF(J164=0,IF(Folha1!H168&lt;0.6,-1,IF(Folha1!H168&gt;1.1,1,0)),IF(Folha1!H168&lt;0.7,-1,IF(Folha1!H168&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J164=0,IF(Folha1!H168&lt;0.6,0,IF(Folha1!H168&gt;1.1,2,1)),IF(Folha1!H168&lt;0.7,0,IF(Folha1!H168&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I164">
-        <f>IF(Folha1!I168&lt;135,-1,IF(Folha1!I168&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I168&lt;135,0,IF(Folha1!I168&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J164">
         <f>Folha1!J168</f>
@@ -21024,15 +21017,15 @@
       </c>
       <c r="G165">
         <f>VLOOKUP(Folha1!G169,platelets,2)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H165">
-        <f>IF(J165=0,IF(Folha1!H169&lt;0.6,-1,IF(Folha1!H169&gt;1.1,1,0)),IF(Folha1!H169&lt;0.7,-1,IF(Folha1!H169&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J165=0,IF(Folha1!H169&lt;0.6,0,IF(Folha1!H169&gt;1.1,2,1)),IF(Folha1!H169&lt;0.7,0,IF(Folha1!H169&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I165">
-        <f>IF(Folha1!I169&lt;135,-1,IF(Folha1!I169&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I169&lt;135,0,IF(Folha1!I169&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J165">
         <f>Folha1!J169</f>
@@ -21074,15 +21067,15 @@
       </c>
       <c r="G166">
         <f>VLOOKUP(Folha1!G170,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <f>IF(J166=0,IF(Folha1!H170&lt;0.6,-1,IF(Folha1!H170&gt;1.1,1,0)),IF(Folha1!H170&lt;0.7,-1,IF(Folha1!H170&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J166=0,IF(Folha1!H170&lt;0.6,0,IF(Folha1!H170&gt;1.1,2,1)),IF(Folha1!H170&lt;0.7,0,IF(Folha1!H170&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I166">
-        <f>IF(Folha1!I170&lt;135,-1,IF(Folha1!I170&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I170&lt;135,0,IF(Folha1!I170&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J166">
         <f>Folha1!J170</f>
@@ -21124,15 +21117,15 @@
       </c>
       <c r="G167">
         <f>VLOOKUP(Folha1!G171,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <f>IF(J167=0,IF(Folha1!H171&lt;0.6,-1,IF(Folha1!H171&gt;1.1,1,0)),IF(Folha1!H171&lt;0.7,-1,IF(Folha1!H171&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J167=0,IF(Folha1!H171&lt;0.6,0,IF(Folha1!H171&gt;1.1,2,1)),IF(Folha1!H171&lt;0.7,0,IF(Folha1!H171&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I167">
-        <f>IF(Folha1!I171&lt;135,-1,IF(Folha1!I171&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I171&lt;135,0,IF(Folha1!I171&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J167">
         <f>Folha1!J171</f>
@@ -21174,15 +21167,15 @@
       </c>
       <c r="G168">
         <f>VLOOKUP(Folha1!G172,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <f>IF(J168=0,IF(Folha1!H172&lt;0.6,-1,IF(Folha1!H172&gt;1.1,1,0)),IF(Folha1!H172&lt;0.7,-1,IF(Folha1!H172&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J168=0,IF(Folha1!H172&lt;0.6,0,IF(Folha1!H172&gt;1.1,2,1)),IF(Folha1!H172&lt;0.7,0,IF(Folha1!H172&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I168">
-        <f>IF(Folha1!I172&lt;135,-1,IF(Folha1!I172&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I172&lt;135,0,IF(Folha1!I172&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J168">
         <f>Folha1!J172</f>
@@ -21224,15 +21217,15 @@
       </c>
       <c r="G169">
         <f>VLOOKUP(Folha1!G173,platelets,2)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H169">
-        <f>IF(J169=0,IF(Folha1!H173&lt;0.6,-1,IF(Folha1!H173&gt;1.1,1,0)),IF(Folha1!H173&lt;0.7,-1,IF(Folha1!H173&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J169=0,IF(Folha1!H173&lt;0.6,0,IF(Folha1!H173&gt;1.1,2,1)),IF(Folha1!H173&lt;0.7,0,IF(Folha1!H173&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I169">
-        <f>IF(Folha1!I173&lt;135,-1,IF(Folha1!I173&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I173&lt;135,0,IF(Folha1!I173&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J169">
         <f>Folha1!J173</f>
@@ -21274,15 +21267,15 @@
       </c>
       <c r="G170">
         <f>VLOOKUP(Folha1!G174,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <f>IF(J170=0,IF(Folha1!H174&lt;0.6,-1,IF(Folha1!H174&gt;1.1,1,0)),IF(Folha1!H174&lt;0.7,-1,IF(Folha1!H174&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J170=0,IF(Folha1!H174&lt;0.6,0,IF(Folha1!H174&gt;1.1,2,1)),IF(Folha1!H174&lt;0.7,0,IF(Folha1!H174&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I170">
-        <f>IF(Folha1!I174&lt;135,-1,IF(Folha1!I174&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I174&lt;135,0,IF(Folha1!I174&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J170">
         <f>Folha1!J174</f>
@@ -21324,15 +21317,15 @@
       </c>
       <c r="G171">
         <f>VLOOKUP(Folha1!G175,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <f>IF(J171=0,IF(Folha1!H175&lt;0.6,-1,IF(Folha1!H175&gt;1.1,1,0)),IF(Folha1!H175&lt;0.7,-1,IF(Folha1!H175&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J171=0,IF(Folha1!H175&lt;0.6,0,IF(Folha1!H175&gt;1.1,2,1)),IF(Folha1!H175&lt;0.7,0,IF(Folha1!H175&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I171">
-        <f>IF(Folha1!I175&lt;135,-1,IF(Folha1!I175&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I175&lt;135,0,IF(Folha1!I175&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J171">
         <f>Folha1!J175</f>
@@ -21374,15 +21367,15 @@
       </c>
       <c r="G172">
         <f>VLOOKUP(Folha1!G176,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <f>IF(J172=0,IF(Folha1!H176&lt;0.6,-1,IF(Folha1!H176&gt;1.1,1,0)),IF(Folha1!H176&lt;0.7,-1,IF(Folha1!H176&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J172=0,IF(Folha1!H176&lt;0.6,0,IF(Folha1!H176&gt;1.1,2,1)),IF(Folha1!H176&lt;0.7,0,IF(Folha1!H176&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I172">
-        <f>IF(Folha1!I176&lt;135,-1,IF(Folha1!I176&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I176&lt;135,0,IF(Folha1!I176&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J172">
         <f>Folha1!J176</f>
@@ -21424,15 +21417,15 @@
       </c>
       <c r="G173">
         <f>VLOOKUP(Folha1!G177,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <f>IF(J173=0,IF(Folha1!H177&lt;0.6,-1,IF(Folha1!H177&gt;1.1,1,0)),IF(Folha1!H177&lt;0.7,-1,IF(Folha1!H177&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J173=0,IF(Folha1!H177&lt;0.6,0,IF(Folha1!H177&gt;1.1,2,1)),IF(Folha1!H177&lt;0.7,0,IF(Folha1!H177&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I173">
-        <f>IF(Folha1!I177&lt;135,-1,IF(Folha1!I177&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I177&lt;135,0,IF(Folha1!I177&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J173">
         <f>Folha1!J177</f>
@@ -21474,15 +21467,15 @@
       </c>
       <c r="G174">
         <f>VLOOKUP(Folha1!G178,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <f>IF(J174=0,IF(Folha1!H178&lt;0.6,-1,IF(Folha1!H178&gt;1.1,1,0)),IF(Folha1!H178&lt;0.7,-1,IF(Folha1!H178&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J174=0,IF(Folha1!H178&lt;0.6,0,IF(Folha1!H178&gt;1.1,2,1)),IF(Folha1!H178&lt;0.7,0,IF(Folha1!H178&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I174">
-        <f>IF(Folha1!I178&lt;135,-1,IF(Folha1!I178&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I178&lt;135,0,IF(Folha1!I178&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J174">
         <f>Folha1!J178</f>
@@ -21524,15 +21517,15 @@
       </c>
       <c r="G175">
         <f>VLOOKUP(Folha1!G179,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <f>IF(J175=0,IF(Folha1!H179&lt;0.6,-1,IF(Folha1!H179&gt;1.1,1,0)),IF(Folha1!H179&lt;0.7,-1,IF(Folha1!H179&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J175=0,IF(Folha1!H179&lt;0.6,0,IF(Folha1!H179&gt;1.1,2,1)),IF(Folha1!H179&lt;0.7,0,IF(Folha1!H179&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I175">
-        <f>IF(Folha1!I179&lt;135,-1,IF(Folha1!I179&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I179&lt;135,0,IF(Folha1!I179&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J175">
         <f>Folha1!J179</f>
@@ -21574,15 +21567,15 @@
       </c>
       <c r="G176">
         <f>VLOOKUP(Folha1!G180,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <f>IF(J176=0,IF(Folha1!H180&lt;0.6,-1,IF(Folha1!H180&gt;1.1,1,0)),IF(Folha1!H180&lt;0.7,-1,IF(Folha1!H180&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J176=0,IF(Folha1!H180&lt;0.6,0,IF(Folha1!H180&gt;1.1,2,1)),IF(Folha1!H180&lt;0.7,0,IF(Folha1!H180&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I176">
-        <f>IF(Folha1!I180&lt;135,-1,IF(Folha1!I180&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I180&lt;135,0,IF(Folha1!I180&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J176">
         <f>Folha1!J180</f>
@@ -21624,15 +21617,15 @@
       </c>
       <c r="G177">
         <f>VLOOKUP(Folha1!G181,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <f>IF(J177=0,IF(Folha1!H181&lt;0.6,-1,IF(Folha1!H181&gt;1.1,1,0)),IF(Folha1!H181&lt;0.7,-1,IF(Folha1!H181&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J177=0,IF(Folha1!H181&lt;0.6,0,IF(Folha1!H181&gt;1.1,2,1)),IF(Folha1!H181&lt;0.7,0,IF(Folha1!H181&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I177">
-        <f>IF(Folha1!I181&lt;135,-1,IF(Folha1!I181&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I181&lt;135,0,IF(Folha1!I181&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J177">
         <f>Folha1!J181</f>
@@ -21674,15 +21667,15 @@
       </c>
       <c r="G178">
         <f>VLOOKUP(Folha1!G182,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <f>IF(J178=0,IF(Folha1!H182&lt;0.6,-1,IF(Folha1!H182&gt;1.1,1,0)),IF(Folha1!H182&lt;0.7,-1,IF(Folha1!H182&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J178=0,IF(Folha1!H182&lt;0.6,0,IF(Folha1!H182&gt;1.1,2,1)),IF(Folha1!H182&lt;0.7,0,IF(Folha1!H182&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I178">
-        <f>IF(Folha1!I182&lt;135,-1,IF(Folha1!I182&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I182&lt;135,0,IF(Folha1!I182&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J178">
         <f>Folha1!J182</f>
@@ -21724,15 +21717,15 @@
       </c>
       <c r="G179">
         <f>VLOOKUP(Folha1!G183,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H179">
-        <f>IF(J179=0,IF(Folha1!H183&lt;0.6,-1,IF(Folha1!H183&gt;1.1,1,0)),IF(Folha1!H183&lt;0.7,-1,IF(Folha1!H183&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J179=0,IF(Folha1!H183&lt;0.6,0,IF(Folha1!H183&gt;1.1,2,1)),IF(Folha1!H183&lt;0.7,0,IF(Folha1!H183&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I179">
-        <f>IF(Folha1!I183&lt;135,-1,IF(Folha1!I183&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I183&lt;135,0,IF(Folha1!I183&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J179">
         <f>Folha1!J183</f>
@@ -21774,15 +21767,15 @@
       </c>
       <c r="G180">
         <f>VLOOKUP(Folha1!G184,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <f>IF(J180=0,IF(Folha1!H184&lt;0.6,-1,IF(Folha1!H184&gt;1.1,1,0)),IF(Folha1!H184&lt;0.7,-1,IF(Folha1!H184&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J180=0,IF(Folha1!H184&lt;0.6,0,IF(Folha1!H184&gt;1.1,2,1)),IF(Folha1!H184&lt;0.7,0,IF(Folha1!H184&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I180">
-        <f>IF(Folha1!I184&lt;135,-1,IF(Folha1!I184&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I184&lt;135,0,IF(Folha1!I184&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J180">
         <f>Folha1!J184</f>
@@ -21824,15 +21817,15 @@
       </c>
       <c r="G181">
         <f>VLOOKUP(Folha1!G185,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <f>IF(J181=0,IF(Folha1!H185&lt;0.6,-1,IF(Folha1!H185&gt;1.1,1,0)),IF(Folha1!H185&lt;0.7,-1,IF(Folha1!H185&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J181=0,IF(Folha1!H185&lt;0.6,0,IF(Folha1!H185&gt;1.1,2,1)),IF(Folha1!H185&lt;0.7,0,IF(Folha1!H185&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I181">
-        <f>IF(Folha1!I185&lt;135,-1,IF(Folha1!I185&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I185&lt;135,0,IF(Folha1!I185&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J181">
         <f>Folha1!J185</f>
@@ -21874,15 +21867,15 @@
       </c>
       <c r="G182">
         <f>VLOOKUP(Folha1!G186,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <f>IF(J182=0,IF(Folha1!H186&lt;0.6,-1,IF(Folha1!H186&gt;1.1,1,0)),IF(Folha1!H186&lt;0.7,-1,IF(Folha1!H186&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J182=0,IF(Folha1!H186&lt;0.6,0,IF(Folha1!H186&gt;1.1,2,1)),IF(Folha1!H186&lt;0.7,0,IF(Folha1!H186&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I182">
-        <f>IF(Folha1!I186&lt;135,-1,IF(Folha1!I186&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I186&lt;135,0,IF(Folha1!I186&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J182">
         <f>Folha1!J186</f>
@@ -21924,15 +21917,15 @@
       </c>
       <c r="G183">
         <f>VLOOKUP(Folha1!G187,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <f>IF(J183=0,IF(Folha1!H187&lt;0.6,-1,IF(Folha1!H187&gt;1.1,1,0)),IF(Folha1!H187&lt;0.7,-1,IF(Folha1!H187&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J183=0,IF(Folha1!H187&lt;0.6,0,IF(Folha1!H187&gt;1.1,2,1)),IF(Folha1!H187&lt;0.7,0,IF(Folha1!H187&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I183">
-        <f>IF(Folha1!I187&lt;135,-1,IF(Folha1!I187&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I187&lt;135,0,IF(Folha1!I187&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J183">
         <f>Folha1!J187</f>
@@ -21974,15 +21967,15 @@
       </c>
       <c r="G184">
         <f>VLOOKUP(Folha1!G188,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <f>IF(J184=0,IF(Folha1!H188&lt;0.6,-1,IF(Folha1!H188&gt;1.1,1,0)),IF(Folha1!H188&lt;0.7,-1,IF(Folha1!H188&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J184=0,IF(Folha1!H188&lt;0.6,0,IF(Folha1!H188&gt;1.1,2,1)),IF(Folha1!H188&lt;0.7,0,IF(Folha1!H188&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I184">
-        <f>IF(Folha1!I188&lt;135,-1,IF(Folha1!I188&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I188&lt;135,0,IF(Folha1!I188&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J184">
         <f>Folha1!J188</f>
@@ -22024,15 +22017,15 @@
       </c>
       <c r="G185">
         <f>VLOOKUP(Folha1!G189,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <f>IF(J185=0,IF(Folha1!H189&lt;0.6,-1,IF(Folha1!H189&gt;1.1,1,0)),IF(Folha1!H189&lt;0.7,-1,IF(Folha1!H189&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J185=0,IF(Folha1!H189&lt;0.6,0,IF(Folha1!H189&gt;1.1,2,1)),IF(Folha1!H189&lt;0.7,0,IF(Folha1!H189&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I185">
-        <f>IF(Folha1!I189&lt;135,-1,IF(Folha1!I189&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I189&lt;135,0,IF(Folha1!I189&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J185">
         <f>Folha1!J189</f>
@@ -22074,15 +22067,15 @@
       </c>
       <c r="G186">
         <f>VLOOKUP(Folha1!G190,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <f>IF(J186=0,IF(Folha1!H190&lt;0.6,-1,IF(Folha1!H190&gt;1.1,1,0)),IF(Folha1!H190&lt;0.7,-1,IF(Folha1!H190&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J186=0,IF(Folha1!H190&lt;0.6,0,IF(Folha1!H190&gt;1.1,2,1)),IF(Folha1!H190&lt;0.7,0,IF(Folha1!H190&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I186">
-        <f>IF(Folha1!I190&lt;135,-1,IF(Folha1!I190&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I190&lt;135,0,IF(Folha1!I190&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J186">
         <f>Folha1!J190</f>
@@ -22124,15 +22117,15 @@
       </c>
       <c r="G187">
         <f>VLOOKUP(Folha1!G191,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <f>IF(J187=0,IF(Folha1!H191&lt;0.6,-1,IF(Folha1!H191&gt;1.1,1,0)),IF(Folha1!H191&lt;0.7,-1,IF(Folha1!H191&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J187=0,IF(Folha1!H191&lt;0.6,0,IF(Folha1!H191&gt;1.1,2,1)),IF(Folha1!H191&lt;0.7,0,IF(Folha1!H191&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I187">
-        <f>IF(Folha1!I191&lt;135,-1,IF(Folha1!I191&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I191&lt;135,0,IF(Folha1!I191&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J187">
         <f>Folha1!J191</f>
@@ -22174,15 +22167,15 @@
       </c>
       <c r="G188">
         <f>VLOOKUP(Folha1!G192,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <f>IF(J188=0,IF(Folha1!H192&lt;0.6,-1,IF(Folha1!H192&gt;1.1,1,0)),IF(Folha1!H192&lt;0.7,-1,IF(Folha1!H192&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J188=0,IF(Folha1!H192&lt;0.6,0,IF(Folha1!H192&gt;1.1,2,1)),IF(Folha1!H192&lt;0.7,0,IF(Folha1!H192&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I188">
-        <f>IF(Folha1!I192&lt;135,-1,IF(Folha1!I192&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I192&lt;135,0,IF(Folha1!I192&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J188">
         <f>Folha1!J192</f>
@@ -22224,15 +22217,15 @@
       </c>
       <c r="G189">
         <f>VLOOKUP(Folha1!G193,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <f>IF(J189=0,IF(Folha1!H193&lt;0.6,-1,IF(Folha1!H193&gt;1.1,1,0)),IF(Folha1!H193&lt;0.7,-1,IF(Folha1!H193&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J189=0,IF(Folha1!H193&lt;0.6,0,IF(Folha1!H193&gt;1.1,2,1)),IF(Folha1!H193&lt;0.7,0,IF(Folha1!H193&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I189">
-        <f>IF(Folha1!I193&lt;135,-1,IF(Folha1!I193&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I193&lt;135,0,IF(Folha1!I193&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J189">
         <f>Folha1!J193</f>
@@ -22274,15 +22267,15 @@
       </c>
       <c r="G190">
         <f>VLOOKUP(Folha1!G194,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <f>IF(J190=0,IF(Folha1!H194&lt;0.6,-1,IF(Folha1!H194&gt;1.1,1,0)),IF(Folha1!H194&lt;0.7,-1,IF(Folha1!H194&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J190=0,IF(Folha1!H194&lt;0.6,0,IF(Folha1!H194&gt;1.1,2,1)),IF(Folha1!H194&lt;0.7,0,IF(Folha1!H194&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I190">
-        <f>IF(Folha1!I194&lt;135,-1,IF(Folha1!I194&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I194&lt;135,0,IF(Folha1!I194&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J190">
         <f>Folha1!J194</f>
@@ -22324,15 +22317,15 @@
       </c>
       <c r="G191">
         <f>VLOOKUP(Folha1!G195,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <f>IF(J191=0,IF(Folha1!H195&lt;0.6,-1,IF(Folha1!H195&gt;1.1,1,0)),IF(Folha1!H195&lt;0.7,-1,IF(Folha1!H195&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J191=0,IF(Folha1!H195&lt;0.6,0,IF(Folha1!H195&gt;1.1,2,1)),IF(Folha1!H195&lt;0.7,0,IF(Folha1!H195&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I191">
-        <f>IF(Folha1!I195&lt;135,-1,IF(Folha1!I195&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I195&lt;135,0,IF(Folha1!I195&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J191">
         <f>Folha1!J195</f>
@@ -22374,15 +22367,15 @@
       </c>
       <c r="G192">
         <f>VLOOKUP(Folha1!G196,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <f>IF(J192=0,IF(Folha1!H196&lt;0.6,-1,IF(Folha1!H196&gt;1.1,1,0)),IF(Folha1!H196&lt;0.7,-1,IF(Folha1!H196&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J192=0,IF(Folha1!H196&lt;0.6,0,IF(Folha1!H196&gt;1.1,2,1)),IF(Folha1!H196&lt;0.7,0,IF(Folha1!H196&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I192">
-        <f>IF(Folha1!I196&lt;135,-1,IF(Folha1!I196&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I196&lt;135,0,IF(Folha1!I196&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J192">
         <f>Folha1!J196</f>
@@ -22424,15 +22417,15 @@
       </c>
       <c r="G193">
         <f>VLOOKUP(Folha1!G197,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <f>IF(J193=0,IF(Folha1!H197&lt;0.6,-1,IF(Folha1!H197&gt;1.1,1,0)),IF(Folha1!H197&lt;0.7,-1,IF(Folha1!H197&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J193=0,IF(Folha1!H197&lt;0.6,0,IF(Folha1!H197&gt;1.1,2,1)),IF(Folha1!H197&lt;0.7,0,IF(Folha1!H197&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I193">
-        <f>IF(Folha1!I197&lt;135,-1,IF(Folha1!I197&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I197&lt;135,0,IF(Folha1!I197&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J193">
         <f>Folha1!J197</f>
@@ -22474,15 +22467,15 @@
       </c>
       <c r="G194">
         <f>VLOOKUP(Folha1!G198,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <f>IF(J194=0,IF(Folha1!H198&lt;0.6,-1,IF(Folha1!H198&gt;1.1,1,0)),IF(Folha1!H198&lt;0.7,-1,IF(Folha1!H198&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J194=0,IF(Folha1!H198&lt;0.6,0,IF(Folha1!H198&gt;1.1,2,1)),IF(Folha1!H198&lt;0.7,0,IF(Folha1!H198&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I194">
-        <f>IF(Folha1!I198&lt;135,-1,IF(Folha1!I198&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I198&lt;135,0,IF(Folha1!I198&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J194">
         <f>Folha1!J198</f>
@@ -22524,15 +22517,15 @@
       </c>
       <c r="G195">
         <f>VLOOKUP(Folha1!G199,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <f>IF(J195=0,IF(Folha1!H199&lt;0.6,-1,IF(Folha1!H199&gt;1.1,1,0)),IF(Folha1!H199&lt;0.7,-1,IF(Folha1!H199&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J195=0,IF(Folha1!H199&lt;0.6,0,IF(Folha1!H199&gt;1.1,2,1)),IF(Folha1!H199&lt;0.7,0,IF(Folha1!H199&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I195">
-        <f>IF(Folha1!I199&lt;135,-1,IF(Folha1!I199&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I199&lt;135,0,IF(Folha1!I199&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J195">
         <f>Folha1!J199</f>
@@ -22574,15 +22567,15 @@
       </c>
       <c r="G196">
         <f>VLOOKUP(Folha1!G200,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <f>IF(J196=0,IF(Folha1!H200&lt;0.6,-1,IF(Folha1!H200&gt;1.1,1,0)),IF(Folha1!H200&lt;0.7,-1,IF(Folha1!H200&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J196=0,IF(Folha1!H200&lt;0.6,0,IF(Folha1!H200&gt;1.1,2,1)),IF(Folha1!H200&lt;0.7,0,IF(Folha1!H200&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I196">
-        <f>IF(Folha1!I200&lt;135,-1,IF(Folha1!I200&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I200&lt;135,0,IF(Folha1!I200&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J196">
         <f>Folha1!J200</f>
@@ -22624,15 +22617,15 @@
       </c>
       <c r="G197">
         <f>VLOOKUP(Folha1!G201,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <f>IF(J197=0,IF(Folha1!H201&lt;0.6,-1,IF(Folha1!H201&gt;1.1,1,0)),IF(Folha1!H201&lt;0.7,-1,IF(Folha1!H201&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J197=0,IF(Folha1!H201&lt;0.6,0,IF(Folha1!H201&gt;1.1,2,1)),IF(Folha1!H201&lt;0.7,0,IF(Folha1!H201&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I197">
-        <f>IF(Folha1!I201&lt;135,-1,IF(Folha1!I201&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I201&lt;135,0,IF(Folha1!I201&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J197">
         <f>Folha1!J201</f>
@@ -22674,15 +22667,15 @@
       </c>
       <c r="G198">
         <f>VLOOKUP(Folha1!G202,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <f>IF(J198=0,IF(Folha1!H202&lt;0.6,-1,IF(Folha1!H202&gt;1.1,1,0)),IF(Folha1!H202&lt;0.7,-1,IF(Folha1!H202&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J198=0,IF(Folha1!H202&lt;0.6,0,IF(Folha1!H202&gt;1.1,2,1)),IF(Folha1!H202&lt;0.7,0,IF(Folha1!H202&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I198">
-        <f>IF(Folha1!I202&lt;135,-1,IF(Folha1!I202&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I202&lt;135,0,IF(Folha1!I202&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J198">
         <f>Folha1!J202</f>
@@ -22724,15 +22717,15 @@
       </c>
       <c r="G199">
         <f>VLOOKUP(Folha1!G203,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <f>IF(J199=0,IF(Folha1!H203&lt;0.6,-1,IF(Folha1!H203&gt;1.1,1,0)),IF(Folha1!H203&lt;0.7,-1,IF(Folha1!H203&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J199=0,IF(Folha1!H203&lt;0.6,0,IF(Folha1!H203&gt;1.1,2,1)),IF(Folha1!H203&lt;0.7,0,IF(Folha1!H203&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I199">
-        <f>IF(Folha1!I203&lt;135,-1,IF(Folha1!I203&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I203&lt;135,0,IF(Folha1!I203&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J199">
         <f>Folha1!J203</f>
@@ -22774,15 +22767,15 @@
       </c>
       <c r="G200">
         <f>VLOOKUP(Folha1!G204,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <f>IF(J200=0,IF(Folha1!H204&lt;0.6,-1,IF(Folha1!H204&gt;1.1,1,0)),IF(Folha1!H204&lt;0.7,-1,IF(Folha1!H204&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J200=0,IF(Folha1!H204&lt;0.6,0,IF(Folha1!H204&gt;1.1,2,1)),IF(Folha1!H204&lt;0.7,0,IF(Folha1!H204&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I200">
-        <f>IF(Folha1!I204&lt;135,-1,IF(Folha1!I204&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I204&lt;135,0,IF(Folha1!I204&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J200">
         <f>Folha1!J204</f>
@@ -22824,15 +22817,15 @@
       </c>
       <c r="G201">
         <f>VLOOKUP(Folha1!G205,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <f>IF(J201=0,IF(Folha1!H205&lt;0.6,-1,IF(Folha1!H205&gt;1.1,1,0)),IF(Folha1!H205&lt;0.7,-1,IF(Folha1!H205&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J201=0,IF(Folha1!H205&lt;0.6,0,IF(Folha1!H205&gt;1.1,2,1)),IF(Folha1!H205&lt;0.7,0,IF(Folha1!H205&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I201">
-        <f>IF(Folha1!I205&lt;135,-1,IF(Folha1!I205&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I205&lt;135,0,IF(Folha1!I205&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J201">
         <f>Folha1!J205</f>
@@ -22874,15 +22867,15 @@
       </c>
       <c r="G202">
         <f>VLOOKUP(Folha1!G206,platelets,2)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H202">
-        <f>IF(J202=0,IF(Folha1!H206&lt;0.6,-1,IF(Folha1!H206&gt;1.1,1,0)),IF(Folha1!H206&lt;0.7,-1,IF(Folha1!H206&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J202=0,IF(Folha1!H206&lt;0.6,0,IF(Folha1!H206&gt;1.1,2,1)),IF(Folha1!H206&lt;0.7,0,IF(Folha1!H206&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I202">
-        <f>IF(Folha1!I206&lt;135,-1,IF(Folha1!I206&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I206&lt;135,0,IF(Folha1!I206&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J202">
         <f>Folha1!J206</f>
@@ -22924,15 +22917,15 @@
       </c>
       <c r="G203">
         <f>VLOOKUP(Folha1!G207,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <f>IF(J203=0,IF(Folha1!H207&lt;0.6,-1,IF(Folha1!H207&gt;1.1,1,0)),IF(Folha1!H207&lt;0.7,-1,IF(Folha1!H207&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J203=0,IF(Folha1!H207&lt;0.6,0,IF(Folha1!H207&gt;1.1,2,1)),IF(Folha1!H207&lt;0.7,0,IF(Folha1!H207&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I203">
-        <f>IF(Folha1!I207&lt;135,-1,IF(Folha1!I207&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I207&lt;135,0,IF(Folha1!I207&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J203">
         <f>Folha1!J207</f>
@@ -22974,15 +22967,15 @@
       </c>
       <c r="G204">
         <f>VLOOKUP(Folha1!G208,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <f>IF(J204=0,IF(Folha1!H208&lt;0.6,-1,IF(Folha1!H208&gt;1.1,1,0)),IF(Folha1!H208&lt;0.7,-1,IF(Folha1!H208&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J204=0,IF(Folha1!H208&lt;0.6,0,IF(Folha1!H208&gt;1.1,2,1)),IF(Folha1!H208&lt;0.7,0,IF(Folha1!H208&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I204">
-        <f>IF(Folha1!I208&lt;135,-1,IF(Folha1!I208&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I208&lt;135,0,IF(Folha1!I208&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J204">
         <f>Folha1!J208</f>
@@ -23024,15 +23017,15 @@
       </c>
       <c r="G205">
         <f>VLOOKUP(Folha1!G209,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <f>IF(J205=0,IF(Folha1!H209&lt;0.6,-1,IF(Folha1!H209&gt;1.1,1,0)),IF(Folha1!H209&lt;0.7,-1,IF(Folha1!H209&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J205=0,IF(Folha1!H209&lt;0.6,0,IF(Folha1!H209&gt;1.1,2,1)),IF(Folha1!H209&lt;0.7,0,IF(Folha1!H209&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I205">
-        <f>IF(Folha1!I209&lt;135,-1,IF(Folha1!I209&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I209&lt;135,0,IF(Folha1!I209&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J205">
         <f>Folha1!J209</f>
@@ -23074,15 +23067,15 @@
       </c>
       <c r="G206">
         <f>VLOOKUP(Folha1!G210,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <f>IF(J206=0,IF(Folha1!H210&lt;0.6,-1,IF(Folha1!H210&gt;1.1,1,0)),IF(Folha1!H210&lt;0.7,-1,IF(Folha1!H210&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J206=0,IF(Folha1!H210&lt;0.6,0,IF(Folha1!H210&gt;1.1,2,1)),IF(Folha1!H210&lt;0.7,0,IF(Folha1!H210&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I206">
-        <f>IF(Folha1!I210&lt;135,-1,IF(Folha1!I210&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I210&lt;135,0,IF(Folha1!I210&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J206">
         <f>Folha1!J210</f>
@@ -23124,15 +23117,15 @@
       </c>
       <c r="G207">
         <f>VLOOKUP(Folha1!G211,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <f>IF(J207=0,IF(Folha1!H211&lt;0.6,-1,IF(Folha1!H211&gt;1.1,1,0)),IF(Folha1!H211&lt;0.7,-1,IF(Folha1!H211&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J207=0,IF(Folha1!H211&lt;0.6,0,IF(Folha1!H211&gt;1.1,2,1)),IF(Folha1!H211&lt;0.7,0,IF(Folha1!H211&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I207">
-        <f>IF(Folha1!I211&lt;135,-1,IF(Folha1!I211&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I211&lt;135,0,IF(Folha1!I211&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J207">
         <f>Folha1!J211</f>
@@ -23174,15 +23167,15 @@
       </c>
       <c r="G208">
         <f>VLOOKUP(Folha1!G212,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <f>IF(J208=0,IF(Folha1!H212&lt;0.6,-1,IF(Folha1!H212&gt;1.1,1,0)),IF(Folha1!H212&lt;0.7,-1,IF(Folha1!H212&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J208=0,IF(Folha1!H212&lt;0.6,0,IF(Folha1!H212&gt;1.1,2,1)),IF(Folha1!H212&lt;0.7,0,IF(Folha1!H212&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I208">
-        <f>IF(Folha1!I212&lt;135,-1,IF(Folha1!I212&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I212&lt;135,0,IF(Folha1!I212&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J208">
         <f>Folha1!J212</f>
@@ -23224,15 +23217,15 @@
       </c>
       <c r="G209">
         <f>VLOOKUP(Folha1!G213,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <f>IF(J209=0,IF(Folha1!H213&lt;0.6,-1,IF(Folha1!H213&gt;1.1,1,0)),IF(Folha1!H213&lt;0.7,-1,IF(Folha1!H213&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J209=0,IF(Folha1!H213&lt;0.6,0,IF(Folha1!H213&gt;1.1,2,1)),IF(Folha1!H213&lt;0.7,0,IF(Folha1!H213&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I209">
-        <f>IF(Folha1!I213&lt;135,-1,IF(Folha1!I213&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I213&lt;135,0,IF(Folha1!I213&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J209">
         <f>Folha1!J213</f>
@@ -23274,15 +23267,15 @@
       </c>
       <c r="G210">
         <f>VLOOKUP(Folha1!G214,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <f>IF(J210=0,IF(Folha1!H214&lt;0.6,-1,IF(Folha1!H214&gt;1.1,1,0)),IF(Folha1!H214&lt;0.7,-1,IF(Folha1!H214&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J210=0,IF(Folha1!H214&lt;0.6,0,IF(Folha1!H214&gt;1.1,2,1)),IF(Folha1!H214&lt;0.7,0,IF(Folha1!H214&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I210">
-        <f>IF(Folha1!I214&lt;135,-1,IF(Folha1!I214&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I214&lt;135,0,IF(Folha1!I214&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J210">
         <f>Folha1!J214</f>
@@ -23324,15 +23317,15 @@
       </c>
       <c r="G211">
         <f>VLOOKUP(Folha1!G215,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <f>IF(J211=0,IF(Folha1!H215&lt;0.6,-1,IF(Folha1!H215&gt;1.1,1,0)),IF(Folha1!H215&lt;0.7,-1,IF(Folha1!H215&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J211=0,IF(Folha1!H215&lt;0.6,0,IF(Folha1!H215&gt;1.1,2,1)),IF(Folha1!H215&lt;0.7,0,IF(Folha1!H215&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I211">
-        <f>IF(Folha1!I215&lt;135,-1,IF(Folha1!I215&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I215&lt;135,0,IF(Folha1!I215&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J211">
         <f>Folha1!J215</f>
@@ -23374,15 +23367,15 @@
       </c>
       <c r="G212">
         <f>VLOOKUP(Folha1!G216,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <f>IF(J212=0,IF(Folha1!H216&lt;0.6,-1,IF(Folha1!H216&gt;1.1,1,0)),IF(Folha1!H216&lt;0.7,-1,IF(Folha1!H216&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J212=0,IF(Folha1!H216&lt;0.6,0,IF(Folha1!H216&gt;1.1,2,1)),IF(Folha1!H216&lt;0.7,0,IF(Folha1!H216&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I212">
-        <f>IF(Folha1!I216&lt;135,-1,IF(Folha1!I216&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I216&lt;135,0,IF(Folha1!I216&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J212">
         <f>Folha1!J216</f>
@@ -23424,15 +23417,15 @@
       </c>
       <c r="G213">
         <f>VLOOKUP(Folha1!G217,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H213">
-        <f>IF(J213=0,IF(Folha1!H217&lt;0.6,-1,IF(Folha1!H217&gt;1.1,1,0)),IF(Folha1!H217&lt;0.7,-1,IF(Folha1!H217&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J213=0,IF(Folha1!H217&lt;0.6,0,IF(Folha1!H217&gt;1.1,2,1)),IF(Folha1!H217&lt;0.7,0,IF(Folha1!H217&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I213">
-        <f>IF(Folha1!I217&lt;135,-1,IF(Folha1!I217&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I217&lt;135,0,IF(Folha1!I217&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J213">
         <f>Folha1!J217</f>
@@ -23474,15 +23467,15 @@
       </c>
       <c r="G214">
         <f>VLOOKUP(Folha1!G218,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <f>IF(J214=0,IF(Folha1!H218&lt;0.6,-1,IF(Folha1!H218&gt;1.1,1,0)),IF(Folha1!H218&lt;0.7,-1,IF(Folha1!H218&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J214=0,IF(Folha1!H218&lt;0.6,0,IF(Folha1!H218&gt;1.1,2,1)),IF(Folha1!H218&lt;0.7,0,IF(Folha1!H218&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I214">
-        <f>IF(Folha1!I218&lt;135,-1,IF(Folha1!I218&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I218&lt;135,0,IF(Folha1!I218&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J214">
         <f>Folha1!J218</f>
@@ -23524,15 +23517,15 @@
       </c>
       <c r="G215">
         <f>VLOOKUP(Folha1!G219,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <f>IF(J215=0,IF(Folha1!H219&lt;0.6,-1,IF(Folha1!H219&gt;1.1,1,0)),IF(Folha1!H219&lt;0.7,-1,IF(Folha1!H219&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J215=0,IF(Folha1!H219&lt;0.6,0,IF(Folha1!H219&gt;1.1,2,1)),IF(Folha1!H219&lt;0.7,0,IF(Folha1!H219&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I215">
-        <f>IF(Folha1!I219&lt;135,-1,IF(Folha1!I219&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I219&lt;135,0,IF(Folha1!I219&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J215">
         <f>Folha1!J219</f>
@@ -23574,15 +23567,15 @@
       </c>
       <c r="G216">
         <f>VLOOKUP(Folha1!G220,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <f>IF(J216=0,IF(Folha1!H220&lt;0.6,-1,IF(Folha1!H220&gt;1.1,1,0)),IF(Folha1!H220&lt;0.7,-1,IF(Folha1!H220&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J216=0,IF(Folha1!H220&lt;0.6,0,IF(Folha1!H220&gt;1.1,2,1)),IF(Folha1!H220&lt;0.7,0,IF(Folha1!H220&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I216">
-        <f>IF(Folha1!I220&lt;135,-1,IF(Folha1!I220&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I220&lt;135,0,IF(Folha1!I220&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J216">
         <f>Folha1!J220</f>
@@ -23624,15 +23617,15 @@
       </c>
       <c r="G217">
         <f>VLOOKUP(Folha1!G221,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <f>IF(J217=0,IF(Folha1!H221&lt;0.6,-1,IF(Folha1!H221&gt;1.1,1,0)),IF(Folha1!H221&lt;0.7,-1,IF(Folha1!H221&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J217=0,IF(Folha1!H221&lt;0.6,0,IF(Folha1!H221&gt;1.1,2,1)),IF(Folha1!H221&lt;0.7,0,IF(Folha1!H221&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I217">
-        <f>IF(Folha1!I221&lt;135,-1,IF(Folha1!I221&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I221&lt;135,0,IF(Folha1!I221&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J217">
         <f>Folha1!J221</f>
@@ -23674,15 +23667,15 @@
       </c>
       <c r="G218">
         <f>VLOOKUP(Folha1!G222,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <f>IF(J218=0,IF(Folha1!H222&lt;0.6,-1,IF(Folha1!H222&gt;1.1,1,0)),IF(Folha1!H222&lt;0.7,-1,IF(Folha1!H222&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J218=0,IF(Folha1!H222&lt;0.6,0,IF(Folha1!H222&gt;1.1,2,1)),IF(Folha1!H222&lt;0.7,0,IF(Folha1!H222&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I218">
-        <f>IF(Folha1!I222&lt;135,-1,IF(Folha1!I222&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I222&lt;135,0,IF(Folha1!I222&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J218">
         <f>Folha1!J222</f>
@@ -23724,15 +23717,15 @@
       </c>
       <c r="G219">
         <f>VLOOKUP(Folha1!G223,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <f>IF(J219=0,IF(Folha1!H223&lt;0.6,-1,IF(Folha1!H223&gt;1.1,1,0)),IF(Folha1!H223&lt;0.7,-1,IF(Folha1!H223&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J219=0,IF(Folha1!H223&lt;0.6,0,IF(Folha1!H223&gt;1.1,2,1)),IF(Folha1!H223&lt;0.7,0,IF(Folha1!H223&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I219">
-        <f>IF(Folha1!I223&lt;135,-1,IF(Folha1!I223&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I223&lt;135,0,IF(Folha1!I223&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J219">
         <f>Folha1!J223</f>
@@ -23774,15 +23767,15 @@
       </c>
       <c r="G220">
         <f>VLOOKUP(Folha1!G224,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <f>IF(J220=0,IF(Folha1!H224&lt;0.6,-1,IF(Folha1!H224&gt;1.1,1,0)),IF(Folha1!H224&lt;0.7,-1,IF(Folha1!H224&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J220=0,IF(Folha1!H224&lt;0.6,0,IF(Folha1!H224&gt;1.1,2,1)),IF(Folha1!H224&lt;0.7,0,IF(Folha1!H224&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I220">
-        <f>IF(Folha1!I224&lt;135,-1,IF(Folha1!I224&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I224&lt;135,0,IF(Folha1!I224&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J220">
         <f>Folha1!J224</f>
@@ -23824,15 +23817,15 @@
       </c>
       <c r="G221">
         <f>VLOOKUP(Folha1!G225,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <f>IF(J221=0,IF(Folha1!H225&lt;0.6,-1,IF(Folha1!H225&gt;1.1,1,0)),IF(Folha1!H225&lt;0.7,-1,IF(Folha1!H225&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J221=0,IF(Folha1!H225&lt;0.6,0,IF(Folha1!H225&gt;1.1,2,1)),IF(Folha1!H225&lt;0.7,0,IF(Folha1!H225&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I221">
-        <f>IF(Folha1!I225&lt;135,-1,IF(Folha1!I225&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I225&lt;135,0,IF(Folha1!I225&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J221">
         <f>Folha1!J225</f>
@@ -23874,15 +23867,15 @@
       </c>
       <c r="G222">
         <f>VLOOKUP(Folha1!G226,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <f>IF(J222=0,IF(Folha1!H226&lt;0.6,-1,IF(Folha1!H226&gt;1.1,1,0)),IF(Folha1!H226&lt;0.7,-1,IF(Folha1!H226&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J222=0,IF(Folha1!H226&lt;0.6,0,IF(Folha1!H226&gt;1.1,2,1)),IF(Folha1!H226&lt;0.7,0,IF(Folha1!H226&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I222">
-        <f>IF(Folha1!I226&lt;135,-1,IF(Folha1!I226&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I226&lt;135,0,IF(Folha1!I226&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J222">
         <f>Folha1!J226</f>
@@ -23924,15 +23917,15 @@
       </c>
       <c r="G223">
         <f>VLOOKUP(Folha1!G227,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <f>IF(J223=0,IF(Folha1!H227&lt;0.6,-1,IF(Folha1!H227&gt;1.1,1,0)),IF(Folha1!H227&lt;0.7,-1,IF(Folha1!H227&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J223=0,IF(Folha1!H227&lt;0.6,0,IF(Folha1!H227&gt;1.1,2,1)),IF(Folha1!H227&lt;0.7,0,IF(Folha1!H227&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I223">
-        <f>IF(Folha1!I227&lt;135,-1,IF(Folha1!I227&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I227&lt;135,0,IF(Folha1!I227&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J223">
         <f>Folha1!J227</f>
@@ -23974,15 +23967,15 @@
       </c>
       <c r="G224">
         <f>VLOOKUP(Folha1!G228,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <f>IF(J224=0,IF(Folha1!H228&lt;0.6,-1,IF(Folha1!H228&gt;1.1,1,0)),IF(Folha1!H228&lt;0.7,-1,IF(Folha1!H228&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J224=0,IF(Folha1!H228&lt;0.6,0,IF(Folha1!H228&gt;1.1,2,1)),IF(Folha1!H228&lt;0.7,0,IF(Folha1!H228&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I224">
-        <f>IF(Folha1!I228&lt;135,-1,IF(Folha1!I228&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I228&lt;135,0,IF(Folha1!I228&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J224">
         <f>Folha1!J228</f>
@@ -24024,15 +24017,15 @@
       </c>
       <c r="G225">
         <f>VLOOKUP(Folha1!G229,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H225">
-        <f>IF(J225=0,IF(Folha1!H229&lt;0.6,-1,IF(Folha1!H229&gt;1.1,1,0)),IF(Folha1!H229&lt;0.7,-1,IF(Folha1!H229&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J225=0,IF(Folha1!H229&lt;0.6,0,IF(Folha1!H229&gt;1.1,2,1)),IF(Folha1!H229&lt;0.7,0,IF(Folha1!H229&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I225">
-        <f>IF(Folha1!I229&lt;135,-1,IF(Folha1!I229&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I229&lt;135,0,IF(Folha1!I229&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J225">
         <f>Folha1!J229</f>
@@ -24074,15 +24067,15 @@
       </c>
       <c r="G226">
         <f>VLOOKUP(Folha1!G230,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <f>IF(J226=0,IF(Folha1!H230&lt;0.6,-1,IF(Folha1!H230&gt;1.1,1,0)),IF(Folha1!H230&lt;0.7,-1,IF(Folha1!H230&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J226=0,IF(Folha1!H230&lt;0.6,0,IF(Folha1!H230&gt;1.1,2,1)),IF(Folha1!H230&lt;0.7,0,IF(Folha1!H230&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I226">
-        <f>IF(Folha1!I230&lt;135,-1,IF(Folha1!I230&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I230&lt;135,0,IF(Folha1!I230&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J226">
         <f>Folha1!J230</f>
@@ -24124,15 +24117,15 @@
       </c>
       <c r="G227">
         <f>VLOOKUP(Folha1!G231,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <f>IF(J227=0,IF(Folha1!H231&lt;0.6,-1,IF(Folha1!H231&gt;1.1,1,0)),IF(Folha1!H231&lt;0.7,-1,IF(Folha1!H231&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J227=0,IF(Folha1!H231&lt;0.6,0,IF(Folha1!H231&gt;1.1,2,1)),IF(Folha1!H231&lt;0.7,0,IF(Folha1!H231&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I227">
-        <f>IF(Folha1!I231&lt;135,-1,IF(Folha1!I231&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I231&lt;135,0,IF(Folha1!I231&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J227">
         <f>Folha1!J231</f>
@@ -24174,15 +24167,15 @@
       </c>
       <c r="G228">
         <f>VLOOKUP(Folha1!G232,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <f>IF(J228=0,IF(Folha1!H232&lt;0.6,-1,IF(Folha1!H232&gt;1.1,1,0)),IF(Folha1!H232&lt;0.7,-1,IF(Folha1!H232&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J228=0,IF(Folha1!H232&lt;0.6,0,IF(Folha1!H232&gt;1.1,2,1)),IF(Folha1!H232&lt;0.7,0,IF(Folha1!H232&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I228">
-        <f>IF(Folha1!I232&lt;135,-1,IF(Folha1!I232&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I232&lt;135,0,IF(Folha1!I232&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J228">
         <f>Folha1!J232</f>
@@ -24224,15 +24217,15 @@
       </c>
       <c r="G229">
         <f>VLOOKUP(Folha1!G233,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H229">
-        <f>IF(J229=0,IF(Folha1!H233&lt;0.6,-1,IF(Folha1!H233&gt;1.1,1,0)),IF(Folha1!H233&lt;0.7,-1,IF(Folha1!H233&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J229=0,IF(Folha1!H233&lt;0.6,0,IF(Folha1!H233&gt;1.1,2,1)),IF(Folha1!H233&lt;0.7,0,IF(Folha1!H233&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I229">
-        <f>IF(Folha1!I233&lt;135,-1,IF(Folha1!I233&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I233&lt;135,0,IF(Folha1!I233&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J229">
         <f>Folha1!J233</f>
@@ -24274,15 +24267,15 @@
       </c>
       <c r="G230">
         <f>VLOOKUP(Folha1!G234,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <f>IF(J230=0,IF(Folha1!H234&lt;0.6,-1,IF(Folha1!H234&gt;1.1,1,0)),IF(Folha1!H234&lt;0.7,-1,IF(Folha1!H234&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J230=0,IF(Folha1!H234&lt;0.6,0,IF(Folha1!H234&gt;1.1,2,1)),IF(Folha1!H234&lt;0.7,0,IF(Folha1!H234&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I230">
-        <f>IF(Folha1!I234&lt;135,-1,IF(Folha1!I234&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I234&lt;135,0,IF(Folha1!I234&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J230">
         <f>Folha1!J234</f>
@@ -24324,15 +24317,15 @@
       </c>
       <c r="G231">
         <f>VLOOKUP(Folha1!G235,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <f>IF(J231=0,IF(Folha1!H235&lt;0.6,-1,IF(Folha1!H235&gt;1.1,1,0)),IF(Folha1!H235&lt;0.7,-1,IF(Folha1!H235&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J231=0,IF(Folha1!H235&lt;0.6,0,IF(Folha1!H235&gt;1.1,2,1)),IF(Folha1!H235&lt;0.7,0,IF(Folha1!H235&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I231">
-        <f>IF(Folha1!I235&lt;135,-1,IF(Folha1!I235&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I235&lt;135,0,IF(Folha1!I235&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J231">
         <f>Folha1!J235</f>
@@ -24374,15 +24367,15 @@
       </c>
       <c r="G232">
         <f>VLOOKUP(Folha1!G236,platelets,2)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H232">
-        <f>IF(J232=0,IF(Folha1!H236&lt;0.6,-1,IF(Folha1!H236&gt;1.1,1,0)),IF(Folha1!H236&lt;0.7,-1,IF(Folha1!H236&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J232=0,IF(Folha1!H236&lt;0.6,0,IF(Folha1!H236&gt;1.1,2,1)),IF(Folha1!H236&lt;0.7,0,IF(Folha1!H236&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I232">
-        <f>IF(Folha1!I236&lt;135,-1,IF(Folha1!I236&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I236&lt;135,0,IF(Folha1!I236&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J232">
         <f>Folha1!J236</f>
@@ -24424,15 +24417,15 @@
       </c>
       <c r="G233">
         <f>VLOOKUP(Folha1!G237,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <f>IF(J233=0,IF(Folha1!H237&lt;0.6,-1,IF(Folha1!H237&gt;1.1,1,0)),IF(Folha1!H237&lt;0.7,-1,IF(Folha1!H237&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J233=0,IF(Folha1!H237&lt;0.6,0,IF(Folha1!H237&gt;1.1,2,1)),IF(Folha1!H237&lt;0.7,0,IF(Folha1!H237&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I233">
-        <f>IF(Folha1!I237&lt;135,-1,IF(Folha1!I237&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I237&lt;135,0,IF(Folha1!I237&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J233">
         <f>Folha1!J237</f>
@@ -24474,15 +24467,15 @@
       </c>
       <c r="G234">
         <f>VLOOKUP(Folha1!G238,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <f>IF(J234=0,IF(Folha1!H238&lt;0.6,-1,IF(Folha1!H238&gt;1.1,1,0)),IF(Folha1!H238&lt;0.7,-1,IF(Folha1!H238&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J234=0,IF(Folha1!H238&lt;0.6,0,IF(Folha1!H238&gt;1.1,2,1)),IF(Folha1!H238&lt;0.7,0,IF(Folha1!H238&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I234">
-        <f>IF(Folha1!I238&lt;135,-1,IF(Folha1!I238&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I238&lt;135,0,IF(Folha1!I238&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J234">
         <f>Folha1!J238</f>
@@ -24524,15 +24517,15 @@
       </c>
       <c r="G235">
         <f>VLOOKUP(Folha1!G239,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <f>IF(J235=0,IF(Folha1!H239&lt;0.6,-1,IF(Folha1!H239&gt;1.1,1,0)),IF(Folha1!H239&lt;0.7,-1,IF(Folha1!H239&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J235=0,IF(Folha1!H239&lt;0.6,0,IF(Folha1!H239&gt;1.1,2,1)),IF(Folha1!H239&lt;0.7,0,IF(Folha1!H239&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I235">
-        <f>IF(Folha1!I239&lt;135,-1,IF(Folha1!I239&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I239&lt;135,0,IF(Folha1!I239&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J235">
         <f>Folha1!J239</f>
@@ -24574,15 +24567,15 @@
       </c>
       <c r="G236">
         <f>VLOOKUP(Folha1!G240,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <f>IF(J236=0,IF(Folha1!H240&lt;0.6,-1,IF(Folha1!H240&gt;1.1,1,0)),IF(Folha1!H240&lt;0.7,-1,IF(Folha1!H240&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J236=0,IF(Folha1!H240&lt;0.6,0,IF(Folha1!H240&gt;1.1,2,1)),IF(Folha1!H240&lt;0.7,0,IF(Folha1!H240&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I236">
-        <f>IF(Folha1!I240&lt;135,-1,IF(Folha1!I240&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I240&lt;135,0,IF(Folha1!I240&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J236">
         <f>Folha1!J240</f>
@@ -24624,15 +24617,15 @@
       </c>
       <c r="G237">
         <f>VLOOKUP(Folha1!G241,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <f>IF(J237=0,IF(Folha1!H241&lt;0.6,-1,IF(Folha1!H241&gt;1.1,1,0)),IF(Folha1!H241&lt;0.7,-1,IF(Folha1!H241&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J237=0,IF(Folha1!H241&lt;0.6,0,IF(Folha1!H241&gt;1.1,2,1)),IF(Folha1!H241&lt;0.7,0,IF(Folha1!H241&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I237">
-        <f>IF(Folha1!I241&lt;135,-1,IF(Folha1!I241&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I241&lt;135,0,IF(Folha1!I241&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J237">
         <f>Folha1!J241</f>
@@ -24674,15 +24667,15 @@
       </c>
       <c r="G238">
         <f>VLOOKUP(Folha1!G242,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <f>IF(J238=0,IF(Folha1!H242&lt;0.6,-1,IF(Folha1!H242&gt;1.1,1,0)),IF(Folha1!H242&lt;0.7,-1,IF(Folha1!H242&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J238=0,IF(Folha1!H242&lt;0.6,0,IF(Folha1!H242&gt;1.1,2,1)),IF(Folha1!H242&lt;0.7,0,IF(Folha1!H242&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I238">
-        <f>IF(Folha1!I242&lt;135,-1,IF(Folha1!I242&gt;145,1,0))</f>
-        <v>1</v>
+        <f>IF(Folha1!I242&lt;135,0,IF(Folha1!I242&gt;145,2,1))</f>
+        <v>2</v>
       </c>
       <c r="J238">
         <f>Folha1!J242</f>
@@ -24724,15 +24717,15 @@
       </c>
       <c r="G239">
         <f>VLOOKUP(Folha1!G243,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <f>IF(J239=0,IF(Folha1!H243&lt;0.6,-1,IF(Folha1!H243&gt;1.1,1,0)),IF(Folha1!H243&lt;0.7,-1,IF(Folha1!H243&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J239=0,IF(Folha1!H243&lt;0.6,0,IF(Folha1!H243&gt;1.1,2,1)),IF(Folha1!H243&lt;0.7,0,IF(Folha1!H243&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I239">
-        <f>IF(Folha1!I243&lt;135,-1,IF(Folha1!I243&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I243&lt;135,0,IF(Folha1!I243&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J239">
         <f>Folha1!J243</f>
@@ -24774,15 +24767,15 @@
       </c>
       <c r="G240">
         <f>VLOOKUP(Folha1!G244,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <f>IF(J240=0,IF(Folha1!H244&lt;0.6,-1,IF(Folha1!H244&gt;1.1,1,0)),IF(Folha1!H244&lt;0.7,-1,IF(Folha1!H244&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J240=0,IF(Folha1!H244&lt;0.6,0,IF(Folha1!H244&gt;1.1,2,1)),IF(Folha1!H244&lt;0.7,0,IF(Folha1!H244&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I240">
-        <f>IF(Folha1!I244&lt;135,-1,IF(Folha1!I244&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I244&lt;135,0,IF(Folha1!I244&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J240">
         <f>Folha1!J244</f>
@@ -24824,15 +24817,15 @@
       </c>
       <c r="G241">
         <f>VLOOKUP(Folha1!G245,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <f>IF(J241=0,IF(Folha1!H245&lt;0.6,-1,IF(Folha1!H245&gt;1.1,1,0)),IF(Folha1!H245&lt;0.7,-1,IF(Folha1!H245&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J241=0,IF(Folha1!H245&lt;0.6,0,IF(Folha1!H245&gt;1.1,2,1)),IF(Folha1!H245&lt;0.7,0,IF(Folha1!H245&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I241">
-        <f>IF(Folha1!I245&lt;135,-1,IF(Folha1!I245&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I245&lt;135,0,IF(Folha1!I245&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J241">
         <f>Folha1!J245</f>
@@ -24874,15 +24867,15 @@
       </c>
       <c r="G242">
         <f>VLOOKUP(Folha1!G246,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <f>IF(J242=0,IF(Folha1!H246&lt;0.6,-1,IF(Folha1!H246&gt;1.1,1,0)),IF(Folha1!H246&lt;0.7,-1,IF(Folha1!H246&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J242=0,IF(Folha1!H246&lt;0.6,0,IF(Folha1!H246&gt;1.1,2,1)),IF(Folha1!H246&lt;0.7,0,IF(Folha1!H246&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I242">
-        <f>IF(Folha1!I246&lt;135,-1,IF(Folha1!I246&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I246&lt;135,0,IF(Folha1!I246&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J242">
         <f>Folha1!J246</f>
@@ -24924,15 +24917,15 @@
       </c>
       <c r="G243">
         <f>VLOOKUP(Folha1!G247,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <f>IF(J243=0,IF(Folha1!H247&lt;0.6,-1,IF(Folha1!H247&gt;1.1,1,0)),IF(Folha1!H247&lt;0.7,-1,IF(Folha1!H247&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J243=0,IF(Folha1!H247&lt;0.6,0,IF(Folha1!H247&gt;1.1,2,1)),IF(Folha1!H247&lt;0.7,0,IF(Folha1!H247&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I243">
-        <f>IF(Folha1!I247&lt;135,-1,IF(Folha1!I247&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I247&lt;135,0,IF(Folha1!I247&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J243">
         <f>Folha1!J247</f>
@@ -24974,15 +24967,15 @@
       </c>
       <c r="G244">
         <f>VLOOKUP(Folha1!G248,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <f>IF(J244=0,IF(Folha1!H248&lt;0.6,-1,IF(Folha1!H248&gt;1.1,1,0)),IF(Folha1!H248&lt;0.7,-1,IF(Folha1!H248&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J244=0,IF(Folha1!H248&lt;0.6,0,IF(Folha1!H248&gt;1.1,2,1)),IF(Folha1!H248&lt;0.7,0,IF(Folha1!H248&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I244">
-        <f>IF(Folha1!I248&lt;135,-1,IF(Folha1!I248&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I248&lt;135,0,IF(Folha1!I248&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J244">
         <f>Folha1!J248</f>
@@ -25024,15 +25017,15 @@
       </c>
       <c r="G245">
         <f>VLOOKUP(Folha1!G249,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <f>IF(J245=0,IF(Folha1!H249&lt;0.6,-1,IF(Folha1!H249&gt;1.1,1,0)),IF(Folha1!H249&lt;0.7,-1,IF(Folha1!H249&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J245=0,IF(Folha1!H249&lt;0.6,0,IF(Folha1!H249&gt;1.1,2,1)),IF(Folha1!H249&lt;0.7,0,IF(Folha1!H249&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I245">
-        <f>IF(Folha1!I249&lt;135,-1,IF(Folha1!I249&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I249&lt;135,0,IF(Folha1!I249&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J245">
         <f>Folha1!J249</f>
@@ -25074,15 +25067,15 @@
       </c>
       <c r="G246">
         <f>VLOOKUP(Folha1!G250,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <f>IF(J246=0,IF(Folha1!H250&lt;0.6,-1,IF(Folha1!H250&gt;1.1,1,0)),IF(Folha1!H250&lt;0.7,-1,IF(Folha1!H250&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J246=0,IF(Folha1!H250&lt;0.6,0,IF(Folha1!H250&gt;1.1,2,1)),IF(Folha1!H250&lt;0.7,0,IF(Folha1!H250&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I246">
-        <f>IF(Folha1!I250&lt;135,-1,IF(Folha1!I250&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I250&lt;135,0,IF(Folha1!I250&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J246">
         <f>Folha1!J250</f>
@@ -25124,15 +25117,15 @@
       </c>
       <c r="G247">
         <f>VLOOKUP(Folha1!G251,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <f>IF(J247=0,IF(Folha1!H251&lt;0.6,-1,IF(Folha1!H251&gt;1.1,1,0)),IF(Folha1!H251&lt;0.7,-1,IF(Folha1!H251&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J247=0,IF(Folha1!H251&lt;0.6,0,IF(Folha1!H251&gt;1.1,2,1)),IF(Folha1!H251&lt;0.7,0,IF(Folha1!H251&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I247">
-        <f>IF(Folha1!I251&lt;135,-1,IF(Folha1!I251&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I251&lt;135,0,IF(Folha1!I251&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J247">
         <f>Folha1!J251</f>
@@ -25174,15 +25167,15 @@
       </c>
       <c r="G248">
         <f>VLOOKUP(Folha1!G252,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <f>IF(J248=0,IF(Folha1!H252&lt;0.6,-1,IF(Folha1!H252&gt;1.1,1,0)),IF(Folha1!H252&lt;0.7,-1,IF(Folha1!H252&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J248=0,IF(Folha1!H252&lt;0.6,0,IF(Folha1!H252&gt;1.1,2,1)),IF(Folha1!H252&lt;0.7,0,IF(Folha1!H252&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I248">
-        <f>IF(Folha1!I252&lt;135,-1,IF(Folha1!I252&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I252&lt;135,0,IF(Folha1!I252&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J248">
         <f>Folha1!J252</f>
@@ -25224,15 +25217,15 @@
       </c>
       <c r="G249">
         <f>VLOOKUP(Folha1!G253,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <f>IF(J249=0,IF(Folha1!H253&lt;0.6,-1,IF(Folha1!H253&gt;1.1,1,0)),IF(Folha1!H253&lt;0.7,-1,IF(Folha1!H253&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J249=0,IF(Folha1!H253&lt;0.6,0,IF(Folha1!H253&gt;1.1,2,1)),IF(Folha1!H253&lt;0.7,0,IF(Folha1!H253&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I249">
-        <f>IF(Folha1!I253&lt;135,-1,IF(Folha1!I253&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I253&lt;135,0,IF(Folha1!I253&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J249">
         <f>Folha1!J253</f>
@@ -25274,15 +25267,15 @@
       </c>
       <c r="G250">
         <f>VLOOKUP(Folha1!G254,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <f>IF(J250=0,IF(Folha1!H254&lt;0.6,-1,IF(Folha1!H254&gt;1.1,1,0)),IF(Folha1!H254&lt;0.7,-1,IF(Folha1!H254&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J250=0,IF(Folha1!H254&lt;0.6,0,IF(Folha1!H254&gt;1.1,2,1)),IF(Folha1!H254&lt;0.7,0,IF(Folha1!H254&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I250">
-        <f>IF(Folha1!I254&lt;135,-1,IF(Folha1!I254&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I254&lt;135,0,IF(Folha1!I254&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J250">
         <f>Folha1!J254</f>
@@ -25324,15 +25317,15 @@
       </c>
       <c r="G251">
         <f>VLOOKUP(Folha1!G255,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <f>IF(J251=0,IF(Folha1!H255&lt;0.6,-1,IF(Folha1!H255&gt;1.1,1,0)),IF(Folha1!H255&lt;0.7,-1,IF(Folha1!H255&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J251=0,IF(Folha1!H255&lt;0.6,0,IF(Folha1!H255&gt;1.1,2,1)),IF(Folha1!H255&lt;0.7,0,IF(Folha1!H255&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I251">
-        <f>IF(Folha1!I255&lt;135,-1,IF(Folha1!I255&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I255&lt;135,0,IF(Folha1!I255&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J251">
         <f>Folha1!J255</f>
@@ -25374,15 +25367,15 @@
       </c>
       <c r="G252">
         <f>VLOOKUP(Folha1!G256,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <f>IF(J252=0,IF(Folha1!H256&lt;0.6,-1,IF(Folha1!H256&gt;1.1,1,0)),IF(Folha1!H256&lt;0.7,-1,IF(Folha1!H256&gt;1.3,1,0)))</f>
-        <v>-1</v>
+        <f>IF(J252=0,IF(Folha1!H256&lt;0.6,0,IF(Folha1!H256&gt;1.1,2,1)),IF(Folha1!H256&lt;0.7,0,IF(Folha1!H256&gt;1.3,2,1)))</f>
+        <v>0</v>
       </c>
       <c r="I252">
-        <f>IF(Folha1!I256&lt;135,-1,IF(Folha1!I256&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I256&lt;135,0,IF(Folha1!I256&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J252">
         <f>Folha1!J256</f>
@@ -25424,15 +25417,15 @@
       </c>
       <c r="G253">
         <f>VLOOKUP(Folha1!G257,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <f>IF(J253=0,IF(Folha1!H257&lt;0.6,-1,IF(Folha1!H257&gt;1.1,1,0)),IF(Folha1!H257&lt;0.7,-1,IF(Folha1!H257&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J253=0,IF(Folha1!H257&lt;0.6,0,IF(Folha1!H257&gt;1.1,2,1)),IF(Folha1!H257&lt;0.7,0,IF(Folha1!H257&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I253">
-        <f>IF(Folha1!I257&lt;135,-1,IF(Folha1!I257&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I257&lt;135,0,IF(Folha1!I257&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J253">
         <f>Folha1!J257</f>
@@ -25474,15 +25467,15 @@
       </c>
       <c r="G254">
         <f>VLOOKUP(Folha1!G258,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <f>IF(J254=0,IF(Folha1!H258&lt;0.6,-1,IF(Folha1!H258&gt;1.1,1,0)),IF(Folha1!H258&lt;0.7,-1,IF(Folha1!H258&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J254=0,IF(Folha1!H258&lt;0.6,0,IF(Folha1!H258&gt;1.1,2,1)),IF(Folha1!H258&lt;0.7,0,IF(Folha1!H258&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I254">
-        <f>IF(Folha1!I258&lt;135,-1,IF(Folha1!I258&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I258&lt;135,0,IF(Folha1!I258&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J254">
         <f>Folha1!J258</f>
@@ -25524,15 +25517,15 @@
       </c>
       <c r="G255">
         <f>VLOOKUP(Folha1!G259,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <f>IF(J255=0,IF(Folha1!H259&lt;0.6,-1,IF(Folha1!H259&gt;1.1,1,0)),IF(Folha1!H259&lt;0.7,-1,IF(Folha1!H259&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J255=0,IF(Folha1!H259&lt;0.6,0,IF(Folha1!H259&gt;1.1,2,1)),IF(Folha1!H259&lt;0.7,0,IF(Folha1!H259&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I255">
-        <f>IF(Folha1!I259&lt;135,-1,IF(Folha1!I259&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I259&lt;135,0,IF(Folha1!I259&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J255">
         <f>Folha1!J259</f>
@@ -25574,15 +25567,15 @@
       </c>
       <c r="G256">
         <f>VLOOKUP(Folha1!G260,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <f>IF(J256=0,IF(Folha1!H260&lt;0.6,-1,IF(Folha1!H260&gt;1.1,1,0)),IF(Folha1!H260&lt;0.7,-1,IF(Folha1!H260&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J256=0,IF(Folha1!H260&lt;0.6,0,IF(Folha1!H260&gt;1.1,2,1)),IF(Folha1!H260&lt;0.7,0,IF(Folha1!H260&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I256">
-        <f>IF(Folha1!I260&lt;135,-1,IF(Folha1!I260&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I260&lt;135,0,IF(Folha1!I260&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J256">
         <f>Folha1!J260</f>
@@ -25624,15 +25617,15 @@
       </c>
       <c r="G257">
         <f>VLOOKUP(Folha1!G261,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <f>IF(J257=0,IF(Folha1!H261&lt;0.6,-1,IF(Folha1!H261&gt;1.1,1,0)),IF(Folha1!H261&lt;0.7,-1,IF(Folha1!H261&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J257=0,IF(Folha1!H261&lt;0.6,0,IF(Folha1!H261&gt;1.1,2,1)),IF(Folha1!H261&lt;0.7,0,IF(Folha1!H261&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I257">
-        <f>IF(Folha1!I261&lt;135,-1,IF(Folha1!I261&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I261&lt;135,0,IF(Folha1!I261&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J257">
         <f>Folha1!J261</f>
@@ -25674,15 +25667,15 @@
       </c>
       <c r="G258">
         <f>VLOOKUP(Folha1!G262,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <f>IF(J258=0,IF(Folha1!H262&lt;0.6,-1,IF(Folha1!H262&gt;1.1,1,0)),IF(Folha1!H262&lt;0.7,-1,IF(Folha1!H262&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J258=0,IF(Folha1!H262&lt;0.6,0,IF(Folha1!H262&gt;1.1,2,1)),IF(Folha1!H262&lt;0.7,0,IF(Folha1!H262&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I258">
-        <f>IF(Folha1!I262&lt;135,-1,IF(Folha1!I262&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I262&lt;135,0,IF(Folha1!I262&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J258">
         <f>Folha1!J262</f>
@@ -25724,15 +25717,15 @@
       </c>
       <c r="G259">
         <f>VLOOKUP(Folha1!G263,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <f>IF(J259=0,IF(Folha1!H263&lt;0.6,-1,IF(Folha1!H263&gt;1.1,1,0)),IF(Folha1!H263&lt;0.7,-1,IF(Folha1!H263&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J259=0,IF(Folha1!H263&lt;0.6,0,IF(Folha1!H263&gt;1.1,2,1)),IF(Folha1!H263&lt;0.7,0,IF(Folha1!H263&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I259">
-        <f>IF(Folha1!I263&lt;135,-1,IF(Folha1!I263&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I263&lt;135,0,IF(Folha1!I263&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J259">
         <f>Folha1!J263</f>
@@ -25774,15 +25767,15 @@
       </c>
       <c r="G260">
         <f>VLOOKUP(Folha1!G264,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <f>IF(J260=0,IF(Folha1!H264&lt;0.6,-1,IF(Folha1!H264&gt;1.1,1,0)),IF(Folha1!H264&lt;0.7,-1,IF(Folha1!H264&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J260=0,IF(Folha1!H264&lt;0.6,0,IF(Folha1!H264&gt;1.1,2,1)),IF(Folha1!H264&lt;0.7,0,IF(Folha1!H264&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I260">
-        <f>IF(Folha1!I264&lt;135,-1,IF(Folha1!I264&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I264&lt;135,0,IF(Folha1!I264&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J260">
         <f>Folha1!J264</f>
@@ -25824,15 +25817,15 @@
       </c>
       <c r="G261">
         <f>VLOOKUP(Folha1!G265,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <f>IF(J261=0,IF(Folha1!H265&lt;0.6,-1,IF(Folha1!H265&gt;1.1,1,0)),IF(Folha1!H265&lt;0.7,-1,IF(Folha1!H265&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J261=0,IF(Folha1!H265&lt;0.6,0,IF(Folha1!H265&gt;1.1,2,1)),IF(Folha1!H265&lt;0.7,0,IF(Folha1!H265&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I261">
-        <f>IF(Folha1!I265&lt;135,-1,IF(Folha1!I265&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I265&lt;135,0,IF(Folha1!I265&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J261">
         <f>Folha1!J265</f>
@@ -25874,15 +25867,15 @@
       </c>
       <c r="G262">
         <f>VLOOKUP(Folha1!G266,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <f>IF(J262=0,IF(Folha1!H266&lt;0.6,-1,IF(Folha1!H266&gt;1.1,1,0)),IF(Folha1!H266&lt;0.7,-1,IF(Folha1!H266&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J262=0,IF(Folha1!H266&lt;0.6,0,IF(Folha1!H266&gt;1.1,2,1)),IF(Folha1!H266&lt;0.7,0,IF(Folha1!H266&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I262">
-        <f>IF(Folha1!I266&lt;135,-1,IF(Folha1!I266&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I266&lt;135,0,IF(Folha1!I266&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J262">
         <f>Folha1!J266</f>
@@ -25924,15 +25917,15 @@
       </c>
       <c r="G263">
         <f>VLOOKUP(Folha1!G267,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <f>IF(J263=0,IF(Folha1!H267&lt;0.6,-1,IF(Folha1!H267&gt;1.1,1,0)),IF(Folha1!H267&lt;0.7,-1,IF(Folha1!H267&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J263=0,IF(Folha1!H267&lt;0.6,0,IF(Folha1!H267&gt;1.1,2,1)),IF(Folha1!H267&lt;0.7,0,IF(Folha1!H267&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I263">
-        <f>IF(Folha1!I267&lt;135,-1,IF(Folha1!I267&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I267&lt;135,0,IF(Folha1!I267&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J263">
         <f>Folha1!J267</f>
@@ -25974,15 +25967,15 @@
       </c>
       <c r="G264">
         <f>VLOOKUP(Folha1!G268,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <f>IF(J264=0,IF(Folha1!H268&lt;0.6,-1,IF(Folha1!H268&gt;1.1,1,0)),IF(Folha1!H268&lt;0.7,-1,IF(Folha1!H268&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J264=0,IF(Folha1!H268&lt;0.6,0,IF(Folha1!H268&gt;1.1,2,1)),IF(Folha1!H268&lt;0.7,0,IF(Folha1!H268&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I264">
-        <f>IF(Folha1!I268&lt;135,-1,IF(Folha1!I268&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I268&lt;135,0,IF(Folha1!I268&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J264">
         <f>Folha1!J268</f>
@@ -26024,15 +26017,15 @@
       </c>
       <c r="G265">
         <f>VLOOKUP(Folha1!G269,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <f>IF(J265=0,IF(Folha1!H269&lt;0.6,-1,IF(Folha1!H269&gt;1.1,1,0)),IF(Folha1!H269&lt;0.7,-1,IF(Folha1!H269&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J265=0,IF(Folha1!H269&lt;0.6,0,IF(Folha1!H269&gt;1.1,2,1)),IF(Folha1!H269&lt;0.7,0,IF(Folha1!H269&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I265">
-        <f>IF(Folha1!I269&lt;135,-1,IF(Folha1!I269&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I269&lt;135,0,IF(Folha1!I269&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J265">
         <f>Folha1!J269</f>
@@ -26074,15 +26067,15 @@
       </c>
       <c r="G266">
         <f>VLOOKUP(Folha1!G270,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H266">
-        <f>IF(J266=0,IF(Folha1!H270&lt;0.6,-1,IF(Folha1!H270&gt;1.1,1,0)),IF(Folha1!H270&lt;0.7,-1,IF(Folha1!H270&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J266=0,IF(Folha1!H270&lt;0.6,0,IF(Folha1!H270&gt;1.1,2,1)),IF(Folha1!H270&lt;0.7,0,IF(Folha1!H270&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I266">
-        <f>IF(Folha1!I270&lt;135,-1,IF(Folha1!I270&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I270&lt;135,0,IF(Folha1!I270&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J266">
         <f>Folha1!J270</f>
@@ -26124,15 +26117,15 @@
       </c>
       <c r="G267">
         <f>VLOOKUP(Folha1!G271,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <f>IF(J267=0,IF(Folha1!H271&lt;0.6,-1,IF(Folha1!H271&gt;1.1,1,0)),IF(Folha1!H271&lt;0.7,-1,IF(Folha1!H271&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J267=0,IF(Folha1!H271&lt;0.6,0,IF(Folha1!H271&gt;1.1,2,1)),IF(Folha1!H271&lt;0.7,0,IF(Folha1!H271&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I267">
-        <f>IF(Folha1!I271&lt;135,-1,IF(Folha1!I271&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I271&lt;135,0,IF(Folha1!I271&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J267">
         <f>Folha1!J271</f>
@@ -26174,15 +26167,15 @@
       </c>
       <c r="G268">
         <f>VLOOKUP(Folha1!G272,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <f>IF(J268=0,IF(Folha1!H272&lt;0.6,-1,IF(Folha1!H272&gt;1.1,1,0)),IF(Folha1!H272&lt;0.7,-1,IF(Folha1!H272&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J268=0,IF(Folha1!H272&lt;0.6,0,IF(Folha1!H272&gt;1.1,2,1)),IF(Folha1!H272&lt;0.7,0,IF(Folha1!H272&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I268">
-        <f>IF(Folha1!I272&lt;135,-1,IF(Folha1!I272&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I272&lt;135,0,IF(Folha1!I272&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J268">
         <f>Folha1!J272</f>
@@ -26224,15 +26217,15 @@
       </c>
       <c r="G269">
         <f>VLOOKUP(Folha1!G273,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H269">
-        <f>IF(J269=0,IF(Folha1!H273&lt;0.6,-1,IF(Folha1!H273&gt;1.1,1,0)),IF(Folha1!H273&lt;0.7,-1,IF(Folha1!H273&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J269=0,IF(Folha1!H273&lt;0.6,0,IF(Folha1!H273&gt;1.1,2,1)),IF(Folha1!H273&lt;0.7,0,IF(Folha1!H273&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I269">
-        <f>IF(Folha1!I273&lt;135,-1,IF(Folha1!I273&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I273&lt;135,0,IF(Folha1!I273&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J269">
         <f>Folha1!J273</f>
@@ -26274,15 +26267,15 @@
       </c>
       <c r="G270">
         <f>VLOOKUP(Folha1!G274,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
-        <f>IF(J270=0,IF(Folha1!H274&lt;0.6,-1,IF(Folha1!H274&gt;1.1,1,0)),IF(Folha1!H274&lt;0.7,-1,IF(Folha1!H274&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J270=0,IF(Folha1!H274&lt;0.6,0,IF(Folha1!H274&gt;1.1,2,1)),IF(Folha1!H274&lt;0.7,0,IF(Folha1!H274&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I270">
-        <f>IF(Folha1!I274&lt;135,-1,IF(Folha1!I274&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I274&lt;135,0,IF(Folha1!I274&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J270">
         <f>Folha1!J274</f>
@@ -26324,15 +26317,15 @@
       </c>
       <c r="G271">
         <f>VLOOKUP(Folha1!G275,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <f>IF(J271=0,IF(Folha1!H275&lt;0.6,-1,IF(Folha1!H275&gt;1.1,1,0)),IF(Folha1!H275&lt;0.7,-1,IF(Folha1!H275&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J271=0,IF(Folha1!H275&lt;0.6,0,IF(Folha1!H275&gt;1.1,2,1)),IF(Folha1!H275&lt;0.7,0,IF(Folha1!H275&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I271">
-        <f>IF(Folha1!I275&lt;135,-1,IF(Folha1!I275&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I275&lt;135,0,IF(Folha1!I275&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J271">
         <f>Folha1!J275</f>
@@ -26374,15 +26367,15 @@
       </c>
       <c r="G272">
         <f>VLOOKUP(Folha1!G276,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
-        <f>IF(J272=0,IF(Folha1!H276&lt;0.6,-1,IF(Folha1!H276&gt;1.1,1,0)),IF(Folha1!H276&lt;0.7,-1,IF(Folha1!H276&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J272=0,IF(Folha1!H276&lt;0.6,0,IF(Folha1!H276&gt;1.1,2,1)),IF(Folha1!H276&lt;0.7,0,IF(Folha1!H276&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I272">
-        <f>IF(Folha1!I276&lt;135,-1,IF(Folha1!I276&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I276&lt;135,0,IF(Folha1!I276&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J272">
         <f>Folha1!J276</f>
@@ -26424,15 +26417,15 @@
       </c>
       <c r="G273">
         <f>VLOOKUP(Folha1!G277,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <f>IF(J273=0,IF(Folha1!H277&lt;0.6,-1,IF(Folha1!H277&gt;1.1,1,0)),IF(Folha1!H277&lt;0.7,-1,IF(Folha1!H277&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J273=0,IF(Folha1!H277&lt;0.6,0,IF(Folha1!H277&gt;1.1,2,1)),IF(Folha1!H277&lt;0.7,0,IF(Folha1!H277&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I273">
-        <f>IF(Folha1!I277&lt;135,-1,IF(Folha1!I277&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I277&lt;135,0,IF(Folha1!I277&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J273">
         <f>Folha1!J277</f>
@@ -26474,15 +26467,15 @@
       </c>
       <c r="G274">
         <f>VLOOKUP(Folha1!G278,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274">
-        <f>IF(J274=0,IF(Folha1!H278&lt;0.6,-1,IF(Folha1!H278&gt;1.1,1,0)),IF(Folha1!H278&lt;0.7,-1,IF(Folha1!H278&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J274=0,IF(Folha1!H278&lt;0.6,0,IF(Folha1!H278&gt;1.1,2,1)),IF(Folha1!H278&lt;0.7,0,IF(Folha1!H278&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I274">
-        <f>IF(Folha1!I278&lt;135,-1,IF(Folha1!I278&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I278&lt;135,0,IF(Folha1!I278&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J274">
         <f>Folha1!J278</f>
@@ -26524,15 +26517,15 @@
       </c>
       <c r="G275">
         <f>VLOOKUP(Folha1!G279,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <f>IF(J275=0,IF(Folha1!H279&lt;0.6,-1,IF(Folha1!H279&gt;1.1,1,0)),IF(Folha1!H279&lt;0.7,-1,IF(Folha1!H279&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J275=0,IF(Folha1!H279&lt;0.6,0,IF(Folha1!H279&gt;1.1,2,1)),IF(Folha1!H279&lt;0.7,0,IF(Folha1!H279&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I275">
-        <f>IF(Folha1!I279&lt;135,-1,IF(Folha1!I279&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I279&lt;135,0,IF(Folha1!I279&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J275">
         <f>Folha1!J279</f>
@@ -26574,15 +26567,15 @@
       </c>
       <c r="G276">
         <f>VLOOKUP(Folha1!G280,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <f>IF(J276=0,IF(Folha1!H280&lt;0.6,-1,IF(Folha1!H280&gt;1.1,1,0)),IF(Folha1!H280&lt;0.7,-1,IF(Folha1!H280&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J276=0,IF(Folha1!H280&lt;0.6,0,IF(Folha1!H280&gt;1.1,2,1)),IF(Folha1!H280&lt;0.7,0,IF(Folha1!H280&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I276">
-        <f>IF(Folha1!I280&lt;135,-1,IF(Folha1!I280&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I280&lt;135,0,IF(Folha1!I280&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J276">
         <f>Folha1!J280</f>
@@ -26624,15 +26617,15 @@
       </c>
       <c r="G277">
         <f>VLOOKUP(Folha1!G281,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277">
-        <f>IF(J277=0,IF(Folha1!H281&lt;0.6,-1,IF(Folha1!H281&gt;1.1,1,0)),IF(Folha1!H281&lt;0.7,-1,IF(Folha1!H281&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J277=0,IF(Folha1!H281&lt;0.6,0,IF(Folha1!H281&gt;1.1,2,1)),IF(Folha1!H281&lt;0.7,0,IF(Folha1!H281&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I277">
-        <f>IF(Folha1!I281&lt;135,-1,IF(Folha1!I281&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I281&lt;135,0,IF(Folha1!I281&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J277">
         <f>Folha1!J281</f>
@@ -26674,15 +26667,15 @@
       </c>
       <c r="G278">
         <f>VLOOKUP(Folha1!G282,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278">
-        <f>IF(J278=0,IF(Folha1!H282&lt;0.6,-1,IF(Folha1!H282&gt;1.1,1,0)),IF(Folha1!H282&lt;0.7,-1,IF(Folha1!H282&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J278=0,IF(Folha1!H282&lt;0.6,0,IF(Folha1!H282&gt;1.1,2,1)),IF(Folha1!H282&lt;0.7,0,IF(Folha1!H282&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I278">
-        <f>IF(Folha1!I282&lt;135,-1,IF(Folha1!I282&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I282&lt;135,0,IF(Folha1!I282&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J278">
         <f>Folha1!J282</f>
@@ -26724,15 +26717,15 @@
       </c>
       <c r="G279">
         <f>VLOOKUP(Folha1!G283,platelets,2)</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H279">
-        <f>IF(J279=0,IF(Folha1!H283&lt;0.6,-1,IF(Folha1!H283&gt;1.1,1,0)),IF(Folha1!H283&lt;0.7,-1,IF(Folha1!H283&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J279=0,IF(Folha1!H283&lt;0.6,0,IF(Folha1!H283&gt;1.1,2,1)),IF(Folha1!H283&lt;0.7,0,IF(Folha1!H283&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I279">
-        <f>IF(Folha1!I283&lt;135,-1,IF(Folha1!I283&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I283&lt;135,0,IF(Folha1!I283&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J279">
         <f>Folha1!J283</f>
@@ -26774,15 +26767,15 @@
       </c>
       <c r="G280">
         <f>VLOOKUP(Folha1!G284,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <f>IF(J280=0,IF(Folha1!H284&lt;0.6,-1,IF(Folha1!H284&gt;1.1,1,0)),IF(Folha1!H284&lt;0.7,-1,IF(Folha1!H284&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J280=0,IF(Folha1!H284&lt;0.6,0,IF(Folha1!H284&gt;1.1,2,1)),IF(Folha1!H284&lt;0.7,0,IF(Folha1!H284&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I280">
-        <f>IF(Folha1!I284&lt;135,-1,IF(Folha1!I284&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I284&lt;135,0,IF(Folha1!I284&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J280">
         <f>Folha1!J284</f>
@@ -26824,15 +26817,15 @@
       </c>
       <c r="G281">
         <f>VLOOKUP(Folha1!G285,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <f>IF(J281=0,IF(Folha1!H285&lt;0.6,-1,IF(Folha1!H285&gt;1.1,1,0)),IF(Folha1!H285&lt;0.7,-1,IF(Folha1!H285&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J281=0,IF(Folha1!H285&lt;0.6,0,IF(Folha1!H285&gt;1.1,2,1)),IF(Folha1!H285&lt;0.7,0,IF(Folha1!H285&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I281">
-        <f>IF(Folha1!I285&lt;135,-1,IF(Folha1!I285&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I285&lt;135,0,IF(Folha1!I285&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J281">
         <f>Folha1!J285</f>
@@ -26874,15 +26867,15 @@
       </c>
       <c r="G282">
         <f>VLOOKUP(Folha1!G286,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <f>IF(J282=0,IF(Folha1!H286&lt;0.6,-1,IF(Folha1!H286&gt;1.1,1,0)),IF(Folha1!H286&lt;0.7,-1,IF(Folha1!H286&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J282=0,IF(Folha1!H286&lt;0.6,0,IF(Folha1!H286&gt;1.1,2,1)),IF(Folha1!H286&lt;0.7,0,IF(Folha1!H286&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I282">
-        <f>IF(Folha1!I286&lt;135,-1,IF(Folha1!I286&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I286&lt;135,0,IF(Folha1!I286&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J282">
         <f>Folha1!J286</f>
@@ -26924,15 +26917,15 @@
       </c>
       <c r="G283">
         <f>VLOOKUP(Folha1!G287,platelets,2)</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H283">
-        <f>IF(J283=0,IF(Folha1!H287&lt;0.6,-1,IF(Folha1!H287&gt;1.1,1,0)),IF(Folha1!H287&lt;0.7,-1,IF(Folha1!H287&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J283=0,IF(Folha1!H287&lt;0.6,0,IF(Folha1!H287&gt;1.1,2,1)),IF(Folha1!H287&lt;0.7,0,IF(Folha1!H287&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I283">
-        <f>IF(Folha1!I287&lt;135,-1,IF(Folha1!I287&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I287&lt;135,0,IF(Folha1!I287&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J283">
         <f>Folha1!J287</f>
@@ -26974,15 +26967,15 @@
       </c>
       <c r="G284">
         <f>VLOOKUP(Folha1!G288,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284">
-        <f>IF(J284=0,IF(Folha1!H288&lt;0.6,-1,IF(Folha1!H288&gt;1.1,1,0)),IF(Folha1!H288&lt;0.7,-1,IF(Folha1!H288&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J284=0,IF(Folha1!H288&lt;0.6,0,IF(Folha1!H288&gt;1.1,2,1)),IF(Folha1!H288&lt;0.7,0,IF(Folha1!H288&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I284">
-        <f>IF(Folha1!I288&lt;135,-1,IF(Folha1!I288&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I288&lt;135,0,IF(Folha1!I288&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J284">
         <f>Folha1!J288</f>
@@ -27024,15 +27017,15 @@
       </c>
       <c r="G285">
         <f>VLOOKUP(Folha1!G289,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285">
-        <f>IF(J285=0,IF(Folha1!H289&lt;0.6,-1,IF(Folha1!H289&gt;1.1,1,0)),IF(Folha1!H289&lt;0.7,-1,IF(Folha1!H289&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J285=0,IF(Folha1!H289&lt;0.6,0,IF(Folha1!H289&gt;1.1,2,1)),IF(Folha1!H289&lt;0.7,0,IF(Folha1!H289&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I285">
-        <f>IF(Folha1!I289&lt;135,-1,IF(Folha1!I289&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I289&lt;135,0,IF(Folha1!I289&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J285">
         <f>Folha1!J289</f>
@@ -27074,15 +27067,15 @@
       </c>
       <c r="G286">
         <f>VLOOKUP(Folha1!G290,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286">
-        <f>IF(J286=0,IF(Folha1!H290&lt;0.6,-1,IF(Folha1!H290&gt;1.1,1,0)),IF(Folha1!H290&lt;0.7,-1,IF(Folha1!H290&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J286=0,IF(Folha1!H290&lt;0.6,0,IF(Folha1!H290&gt;1.1,2,1)),IF(Folha1!H290&lt;0.7,0,IF(Folha1!H290&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I286">
-        <f>IF(Folha1!I290&lt;135,-1,IF(Folha1!I290&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I290&lt;135,0,IF(Folha1!I290&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J286">
         <f>Folha1!J290</f>
@@ -27124,15 +27117,15 @@
       </c>
       <c r="G287">
         <f>VLOOKUP(Folha1!G291,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <f>IF(J287=0,IF(Folha1!H291&lt;0.6,-1,IF(Folha1!H291&gt;1.1,1,0)),IF(Folha1!H291&lt;0.7,-1,IF(Folha1!H291&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J287=0,IF(Folha1!H291&lt;0.6,0,IF(Folha1!H291&gt;1.1,2,1)),IF(Folha1!H291&lt;0.7,0,IF(Folha1!H291&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I287">
-        <f>IF(Folha1!I291&lt;135,-1,IF(Folha1!I291&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I291&lt;135,0,IF(Folha1!I291&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J287">
         <f>Folha1!J291</f>
@@ -27174,15 +27167,15 @@
       </c>
       <c r="G288">
         <f>VLOOKUP(Folha1!G292,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288">
-        <f>IF(J288=0,IF(Folha1!H292&lt;0.6,-1,IF(Folha1!H292&gt;1.1,1,0)),IF(Folha1!H292&lt;0.7,-1,IF(Folha1!H292&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J288=0,IF(Folha1!H292&lt;0.6,0,IF(Folha1!H292&gt;1.1,2,1)),IF(Folha1!H292&lt;0.7,0,IF(Folha1!H292&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I288">
-        <f>IF(Folha1!I292&lt;135,-1,IF(Folha1!I292&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I292&lt;135,0,IF(Folha1!I292&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J288">
         <f>Folha1!J292</f>
@@ -27224,15 +27217,15 @@
       </c>
       <c r="G289">
         <f>VLOOKUP(Folha1!G293,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H289">
-        <f>IF(J289=0,IF(Folha1!H293&lt;0.6,-1,IF(Folha1!H293&gt;1.1,1,0)),IF(Folha1!H293&lt;0.7,-1,IF(Folha1!H293&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J289=0,IF(Folha1!H293&lt;0.6,0,IF(Folha1!H293&gt;1.1,2,1)),IF(Folha1!H293&lt;0.7,0,IF(Folha1!H293&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I289">
-        <f>IF(Folha1!I293&lt;135,-1,IF(Folha1!I293&gt;145,1,0))</f>
-        <v>-1</v>
+        <f>IF(Folha1!I293&lt;135,0,IF(Folha1!I293&gt;145,2,1))</f>
+        <v>0</v>
       </c>
       <c r="J289">
         <f>Folha1!J293</f>
@@ -27274,15 +27267,15 @@
       </c>
       <c r="G290">
         <f>VLOOKUP(Folha1!G294,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290">
-        <f>IF(J290=0,IF(Folha1!H294&lt;0.6,-1,IF(Folha1!H294&gt;1.1,1,0)),IF(Folha1!H294&lt;0.7,-1,IF(Folha1!H294&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J290=0,IF(Folha1!H294&lt;0.6,0,IF(Folha1!H294&gt;1.1,2,1)),IF(Folha1!H294&lt;0.7,0,IF(Folha1!H294&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I290">
-        <f>IF(Folha1!I294&lt;135,-1,IF(Folha1!I294&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I294&lt;135,0,IF(Folha1!I294&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J290">
         <f>Folha1!J294</f>
@@ -27324,15 +27317,15 @@
       </c>
       <c r="G291">
         <f>VLOOKUP(Folha1!G295,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291">
-        <f>IF(J291=0,IF(Folha1!H295&lt;0.6,-1,IF(Folha1!H295&gt;1.1,1,0)),IF(Folha1!H295&lt;0.7,-1,IF(Folha1!H295&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J291=0,IF(Folha1!H295&lt;0.6,0,IF(Folha1!H295&gt;1.1,2,1)),IF(Folha1!H295&lt;0.7,0,IF(Folha1!H295&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I291">
-        <f>IF(Folha1!I295&lt;135,-1,IF(Folha1!I295&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I295&lt;135,0,IF(Folha1!I295&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J291">
         <f>Folha1!J295</f>
@@ -27374,15 +27367,15 @@
       </c>
       <c r="G292">
         <f>VLOOKUP(Folha1!G296,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292">
-        <f>IF(J292=0,IF(Folha1!H296&lt;0.6,-1,IF(Folha1!H296&gt;1.1,1,0)),IF(Folha1!H296&lt;0.7,-1,IF(Folha1!H296&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J292=0,IF(Folha1!H296&lt;0.6,0,IF(Folha1!H296&gt;1.1,2,1)),IF(Folha1!H296&lt;0.7,0,IF(Folha1!H296&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I292">
-        <f>IF(Folha1!I296&lt;135,-1,IF(Folha1!I296&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I296&lt;135,0,IF(Folha1!I296&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J292">
         <f>Folha1!J296</f>
@@ -27424,15 +27417,15 @@
       </c>
       <c r="G293">
         <f>VLOOKUP(Folha1!G297,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H293">
-        <f>IF(J293=0,IF(Folha1!H297&lt;0.6,-1,IF(Folha1!H297&gt;1.1,1,0)),IF(Folha1!H297&lt;0.7,-1,IF(Folha1!H297&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J293=0,IF(Folha1!H297&lt;0.6,0,IF(Folha1!H297&gt;1.1,2,1)),IF(Folha1!H297&lt;0.7,0,IF(Folha1!H297&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I293">
-        <f>IF(Folha1!I297&lt;135,-1,IF(Folha1!I297&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I297&lt;135,0,IF(Folha1!I297&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J293">
         <f>Folha1!J297</f>
@@ -27474,15 +27467,15 @@
       </c>
       <c r="G294">
         <f>VLOOKUP(Folha1!G298,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <f>IF(J294=0,IF(Folha1!H298&lt;0.6,-1,IF(Folha1!H298&gt;1.1,1,0)),IF(Folha1!H298&lt;0.7,-1,IF(Folha1!H298&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J294=0,IF(Folha1!H298&lt;0.6,0,IF(Folha1!H298&gt;1.1,2,1)),IF(Folha1!H298&lt;0.7,0,IF(Folha1!H298&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I294">
-        <f>IF(Folha1!I298&lt;135,-1,IF(Folha1!I298&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I298&lt;135,0,IF(Folha1!I298&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J294">
         <f>Folha1!J298</f>
@@ -27524,15 +27517,15 @@
       </c>
       <c r="G295">
         <f>VLOOKUP(Folha1!G299,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295">
-        <f>IF(J295=0,IF(Folha1!H299&lt;0.6,-1,IF(Folha1!H299&gt;1.1,1,0)),IF(Folha1!H299&lt;0.7,-1,IF(Folha1!H299&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J295=0,IF(Folha1!H299&lt;0.6,0,IF(Folha1!H299&gt;1.1,2,1)),IF(Folha1!H299&lt;0.7,0,IF(Folha1!H299&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I295">
-        <f>IF(Folha1!I299&lt;135,-1,IF(Folha1!I299&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I299&lt;135,0,IF(Folha1!I299&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J295">
         <f>Folha1!J299</f>
@@ -27574,15 +27567,15 @@
       </c>
       <c r="G296">
         <f>VLOOKUP(Folha1!G300,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H296">
-        <f>IF(J296=0,IF(Folha1!H300&lt;0.6,-1,IF(Folha1!H300&gt;1.1,1,0)),IF(Folha1!H300&lt;0.7,-1,IF(Folha1!H300&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J296=0,IF(Folha1!H300&lt;0.6,0,IF(Folha1!H300&gt;1.1,2,1)),IF(Folha1!H300&lt;0.7,0,IF(Folha1!H300&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I296">
-        <f>IF(Folha1!I300&lt;135,-1,IF(Folha1!I300&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I300&lt;135,0,IF(Folha1!I300&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J296">
         <f>Folha1!J300</f>
@@ -27624,15 +27617,15 @@
       </c>
       <c r="G297">
         <f>VLOOKUP(Folha1!G301,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297">
-        <f>IF(J297=0,IF(Folha1!H301&lt;0.6,-1,IF(Folha1!H301&gt;1.1,1,0)),IF(Folha1!H301&lt;0.7,-1,IF(Folha1!H301&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J297=0,IF(Folha1!H301&lt;0.6,0,IF(Folha1!H301&gt;1.1,2,1)),IF(Folha1!H301&lt;0.7,0,IF(Folha1!H301&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I297">
-        <f>IF(Folha1!I301&lt;135,-1,IF(Folha1!I301&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I301&lt;135,0,IF(Folha1!I301&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J297">
         <f>Folha1!J301</f>
@@ -27674,15 +27667,15 @@
       </c>
       <c r="G298">
         <f>VLOOKUP(Folha1!G302,platelets,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298">
-        <f>IF(J298=0,IF(Folha1!H302&lt;0.6,-1,IF(Folha1!H302&gt;1.1,1,0)),IF(Folha1!H302&lt;0.7,-1,IF(Folha1!H302&gt;1.3,1,0)))</f>
-        <v>0</v>
+        <f>IF(J298=0,IF(Folha1!H302&lt;0.6,0,IF(Folha1!H302&gt;1.1,2,1)),IF(Folha1!H302&lt;0.7,0,IF(Folha1!H302&gt;1.3,2,1)))</f>
+        <v>1</v>
       </c>
       <c r="I298">
-        <f>IF(Folha1!I302&lt;135,-1,IF(Folha1!I302&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I302&lt;135,0,IF(Folha1!I302&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J298">
         <f>Folha1!J302</f>
@@ -27724,15 +27717,15 @@
       </c>
       <c r="G299">
         <f>VLOOKUP(Folha1!G303,platelets,2)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H299">
-        <f>IF(J299=0,IF(Folha1!H303&lt;0.6,-1,IF(Folha1!H303&gt;1.1,1,0)),IF(Folha1!H303&lt;0.7,-1,IF(Folha1!H303&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J299=0,IF(Folha1!H303&lt;0.6,0,IF(Folha1!H303&gt;1.1,2,1)),IF(Folha1!H303&lt;0.7,0,IF(Folha1!H303&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I299">
-        <f>IF(Folha1!I303&lt;135,-1,IF(Folha1!I303&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I303&lt;135,0,IF(Folha1!I303&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J299">
         <f>Folha1!J303</f>
@@ -27774,15 +27767,15 @@
       </c>
       <c r="G300">
         <f>VLOOKUP(Folha1!G304,platelets,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300">
-        <f>IF(J300=0,IF(Folha1!H304&lt;0.6,-1,IF(Folha1!H304&gt;1.1,1,0)),IF(Folha1!H304&lt;0.7,-1,IF(Folha1!H304&gt;1.3,1,0)))</f>
-        <v>1</v>
+        <f>IF(J300=0,IF(Folha1!H304&lt;0.6,0,IF(Folha1!H304&gt;1.1,2,1)),IF(Folha1!H304&lt;0.7,0,IF(Folha1!H304&gt;1.3,2,1)))</f>
+        <v>2</v>
       </c>
       <c r="I300">
-        <f>IF(Folha1!I304&lt;135,-1,IF(Folha1!I304&gt;145,1,0))</f>
-        <v>0</v>
+        <f>IF(Folha1!I304&lt;135,0,IF(Folha1!I304&gt;145,2,1))</f>
+        <v>1</v>
       </c>
       <c r="J300">
         <f>Folha1!J304</f>
